--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.59</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.167</v>
+        <v>15.767</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6441337529.705</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2192334.75</v>
+        <v>28.493</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.97</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.701</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1130766.216483355</v>
+        <v>22.41117476605187</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1064099.277987154</v>
+        <v>22.41685940603335</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>642039.3273318486</v>
+        <v>22.43643067368102</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2689801.805936495</v>
+        <v>22.37013194730695</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-471099.6337613095</v>
+        <v>22.41350438203526</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>225296.0727266856</v>
+        <v>22.42404910413468</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2410558.098591188</v>
+        <v>22.38097844288554</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1982757.859893418</v>
+        <v>22.44976637984642</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2569510.989794771</v>
+        <v>22.46653618527896</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-784152.0359872953</v>
+        <v>22.41446196757806</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-527788.5758393089</v>
+        <v>22.43928622098724</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-476745.884534895</v>
+        <v>22.44616196752604</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-187766.5648083671</v>
+        <v>22.40072804890542</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-507194.7103423148</v>
+        <v>22.4063639996436</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1507646.406984425</v>
+        <v>22.4464727520842</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-672219.022939562</v>
+        <v>22.42112592966183</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>46129.02911570732</v>
+        <v>22.44012190225697</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>470516.80040851</v>
+        <v>22.45787573840307</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1434861.563560934</v>
+        <v>22.35454336294719</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-797645.4079033656</v>
+        <v>22.39143020111363</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-467785.8753239098</v>
+        <v>22.41021946764674</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2085299.927075917</v>
+        <v>22.34464773857443</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-456230.2005648607</v>
+        <v>22.43470551466121</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-464375.9666747763</v>
+        <v>22.40804944403236</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>811300.8834181571</v>
+        <v>22.44744683062583</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1192301.055097641</v>
+        <v>22.45608969604118</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2535871.054756531</v>
+        <v>22.37264052336575</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1121431.68949039</v>
+        <v>22.46294882565731</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1093373.157037876</v>
+        <v>22.46635463822712</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2278193.830150895</v>
+        <v>22.38892087518144</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3073150.112103411</v>
+        <v>22.50519843980692</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2984307.324579805</v>
+        <v>22.51002738039766</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1806101.428970233</v>
+        <v>22.52004076199473</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2206255.512509774</v>
+        <v>22.54299574077498</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2281467.715793202</v>
+        <v>22.54616546698476</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>588526.1075630235</v>
+        <v>22.44302463708332</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1892422.483718994</v>
+        <v>22.51253141043823</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2558523.339876193</v>
+        <v>22.53591298477062</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-125632.6384197829</v>
+        <v>22.42381283893248</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1046408.66616654</v>
+        <v>22.49584305811136</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1087596.357530732</v>
+        <v>22.50623032651156</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1030982.95708359</v>
+        <v>22.3734742205908</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>658835.3725477792</v>
+        <v>22.48189981041224</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>800010.7570439249</v>
+        <v>22.49866437134619</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1237788.633824692</v>
+        <v>22.37942727358717</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1842827.490820365</v>
+        <v>22.54150162343974</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-2270380.716160825</v>
+        <v>22.38689654683247</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-565367.1685196757</v>
+        <v>22.42835998931589</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>235066.7014363877</v>
+        <v>22.44195010724329</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2931796.103522052</v>
+        <v>22.36226664982345</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>593471.4370749362</v>
+        <v>22.45269435225606</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>916588.1752074125</v>
+        <v>22.46314314826599</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-2721716.68717883</v>
+        <v>22.37919160178505</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2781703.073762318</v>
+        <v>22.49675042779505</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3178442.474970023</v>
+        <v>22.5067729409824</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2389906.866480095</v>
+        <v>22.51818569235472</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2613817.532021468</v>
+        <v>22.53653156837471</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3074080.365710308</v>
+        <v>22.54853234373345</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-697401.3166554079</v>
+        <v>22.41278971441363</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>838879.5775629878</v>
+        <v>22.49277550410308</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1873968.811550074</v>
+        <v>22.52247089441985</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-786004.1076086732</v>
+        <v>22.39272192345603</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>376743.4619830954</v>
+        <v>22.46843281111482</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>846822.3742062445</v>
+        <v>22.48893389954804</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1322829.410824103</v>
+        <v>22.35309077880025</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>63392.4649874485</v>
+        <v>22.46393136736562</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>685254.6423283436</v>
+        <v>22.4932995814546</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-1593052.250646323</v>
+        <v>22.36319726702908</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1422922.177727194</v>
+        <v>22.52844608671634</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-3955136.924677531</v>
+        <v>22.38490367681935</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1831321.472789277</v>
+        <v>22.41528330903299</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>243603.5434451204</v>
+        <v>22.43780251139231</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-3894033.3262717</v>
+        <v>22.37779034793651</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1133610.851638011</v>
+        <v>22.44704565145861</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2178210.495268107</v>
+        <v>22.46534790979501</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-4376034.711417614</v>
+        <v>22.38402045309368</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3445542.405334964</v>
+        <v>22.47505359427514</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4598117.012535663</v>
+        <v>22.49511932645335</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2851678.080151556</v>
+        <v>22.47349668924474</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2971379.970337582</v>
+        <v>22.48995089049601</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3898137.375469486</v>
+        <v>22.50961633033263</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1733112.315727918</v>
+        <v>22.39804153845875</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-102272.8977135767</v>
+        <v>22.4566238761666</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2675955.394923851</v>
+        <v>22.50138158959458</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-1472186.209185732</v>
+        <v>22.39246481197703</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>329012.2694139545</v>
+        <v>22.44889819750496</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1374147.196987074</v>
+        <v>22.47777662935521</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1565596.66021052</v>
+        <v>22.36977519353321</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>316754.0020287728</v>
+        <v>22.45003452845983</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1636083.863760331</v>
+        <v>22.48458094740164</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-2274585.462322625</v>
+        <v>22.3632098906124</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1527274.795237441</v>
+        <v>22.489596104081</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-68763.45003558727</v>
+        <v>22.46708159519222</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-324309.6689541577</v>
+        <v>22.41110475422834</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>390486.6670307132</v>
+        <v>22.45919046489723</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>515254.0348977679</v>
+        <v>22.48086028012925</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1081572.524998325</v>
+        <v>22.36379278383769</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-594175.7383247386</v>
+        <v>22.42603353968126</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-160745.7386203226</v>
+        <v>22.45606263569539</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-718294.3394509775</v>
+        <v>22.40867404020783</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-242001.3961092053</v>
+        <v>22.43312093748475</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>468504.5330850307</v>
+        <v>22.46685528060043</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1335328.324463514</v>
+        <v>22.32459572391061</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-835869.0364831426</v>
+        <v>22.38117761880766</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-357871.1551118871</v>
+        <v>22.40502745260445</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1839015.111820085</v>
+        <v>22.32615863436169</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-195098.4427174449</v>
+        <v>22.44233746724818</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>805975.2467304508</v>
+        <v>22.49408146620988</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-103576.6920139765</v>
+        <v>22.45413800932454</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>605705.3845774101</v>
+        <v>22.51554379596229</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>952460.7186135533</v>
+        <v>22.54425821206196</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-989375.1925245449</v>
+        <v>22.34678454535821</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-323768.7508911992</v>
+        <v>22.44224113955971</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>239669.9231836159</v>
+        <v>22.50091291834103</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2293850.113442661</v>
+        <v>22.56726547999651</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1431461.38285357</v>
+        <v>22.58315613589</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1918808.550715831</v>
+        <v>22.61833367270035</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1887386.122229985</v>
+        <v>22.63526915169216</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-59450.20537808815</v>
+        <v>22.45320120464943</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1643415.662926184</v>
+        <v>22.61639013741825</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1795424.046552575</v>
+        <v>22.630836162598</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>174614.7942490867</v>
+        <v>22.43302056466435</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1096628.284642711</v>
+        <v>22.52225261077056</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1311833.443234462</v>
+        <v>22.53666538108081</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-747423.3201295999</v>
+        <v>22.3771314567623</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1056669.291390786</v>
+        <v>22.52253219052905</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1097108.014372128</v>
+        <v>22.53054168440797</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-869684.922485217</v>
+        <v>22.39355205481763</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2394343.829743369</v>
+        <v>22.59735354442951</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2645156.268634143</v>
+        <v>22.62888778523815</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2134494.385260975</v>
+        <v>22.70720171085759</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2280762.42894863</v>
+        <v>22.74491800728295</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2381455.568481393</v>
+        <v>22.76347480441008</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>344839.9099839742</v>
+        <v>22.50038777279489</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2072285.326169841</v>
+        <v>22.7157436592317</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2142668.792564124</v>
+        <v>22.74162548405069</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2616929.04322401</v>
+        <v>22.56435535566959</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1032089.997007087</v>
+        <v>22.56529894619087</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1509509.586593283</v>
+        <v>22.59314337267555</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1828118.823641909</v>
+        <v>22.62421429419217</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-557532.3476570139</v>
+        <v>22.41153005913336</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1423369.920770512</v>
+        <v>22.59053810719066</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1781957.958900372</v>
+        <v>22.61669106602355</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-474596.2594612379</v>
+        <v>22.40210285973072</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>621425.0364730307</v>
+        <v>22.49912519512861</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1168135.250410308</v>
+        <v>22.52135493573848</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-1060624.331351769</v>
+        <v>22.36073109382663</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>709261.6627020661</v>
+        <v>22.51280171072199</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1070942.972331614</v>
+        <v>22.53126954674143</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-1263082.25946333</v>
+        <v>22.38122351758118</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2209133.657815488</v>
+        <v>22.59214595536244</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2910174.15686957</v>
+        <v>22.63101623296336</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2066839.470348775</v>
+        <v>22.70539443186911</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2159324.394893718</v>
+        <v>22.73309483788728</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2582724.229011859</v>
+        <v>22.76652562603897</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-155036.2523376218</v>
+        <v>22.4650011628761</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1943376.003740253</v>
+        <v>22.70305505526778</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2254297.885563652</v>
+        <v>22.73823102511142</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3438990.495177216</v>
+        <v>22.53204528937538</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>286508.8228310956</v>
+        <v>22.47599362492994</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>736570.8577924275</v>
+        <v>22.50721256379273</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1501741.220438342</v>
+        <v>22.54862185415312</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1078344.587839086</v>
+        <v>22.38176741155286</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1326105.494917965</v>
+        <v>22.52078403209046</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2118828.05047081</v>
+        <v>22.56232297892402</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-1059685.64956838</v>
+        <v>22.40331549294689</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>861855.1684098452</v>
+        <v>22.47988150331168</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1897101.181793617</v>
+        <v>22.51661497823757</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1242710.053968011</v>
+        <v>22.37789801956973</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1185007.038654774</v>
+        <v>22.49362973586058</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2017530.135254299</v>
+        <v>22.52642804329954</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-1857886.806818726</v>
+        <v>22.3798903945532</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2631694.64899135</v>
+        <v>22.54638300092919</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4057602.88673602</v>
+        <v>22.59835905278664</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2115225.554951719</v>
+        <v>22.59914713301806</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2485711.796867693</v>
+        <v>22.6379872070432</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3516024.249220383</v>
+        <v>22.6881361140065</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-585987.028513597</v>
+        <v>22.41904990124113</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2086851.573179906</v>
+        <v>22.61197207331576</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3059231.279896564</v>
+        <v>22.67326636365115</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-1658704.321071963</v>
+        <v>22.39802351892263</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1499281.967772478</v>
+        <v>22.40184829028164</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>14217.79228776953</v>
+        <v>22.42274712767244</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-2400466.444197518</v>
+        <v>22.36257733576986</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-851886.0432815017</v>
+        <v>22.40402344083264</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-456025.8869383104</v>
+        <v>22.41554023369628</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-2196790.019282405</v>
+        <v>22.37792144331661</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1096109.184143657</v>
+        <v>22.45190658221616</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1527596.953357746</v>
+        <v>22.46659858429869</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-768817.081144747</v>
+        <v>22.40990500683315</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-586960.6588408817</v>
+        <v>22.43590612111393</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-672980.3724511151</v>
+        <v>22.4381832011042</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-943661.406495453</v>
+        <v>22.37953498739212</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-861023.794348859</v>
+        <v>22.38232931445009</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>421633.0633937339</v>
+        <v>22.41826856215535</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-1101595.562664157</v>
+        <v>22.390544656077</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-260613.5709735773</v>
+        <v>22.41090604028903</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-59538.40101737541</v>
+        <v>22.43136292522201</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1599616.986415941</v>
+        <v>22.32272696504453</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-844747.7585226453</v>
+        <v>22.36331184735632</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-619105.3380277954</v>
+        <v>22.3846216700766</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1721791.874707463</v>
+        <v>22.32424093290613</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-115623.6729290137</v>
+        <v>22.42551658489447</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-1078248.858118068</v>
+        <v>22.38689898274087</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-313802.8631546157</v>
+        <v>22.42430008024651</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>316765.0917744291</v>
+        <v>22.43486909409467</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-1985975.009051713</v>
+        <v>22.35594304612114</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>394964.1751835412</v>
+        <v>22.44611010921736</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>442019.8969278985</v>
+        <v>22.45116036634816</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-1927251.77709864</v>
+        <v>22.37605767435076</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1993635.447028433</v>
+        <v>22.4987614345074</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1868979.205211307</v>
+        <v>22.50170389762451</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>904958.7346446303</v>
+        <v>22.50210704276181</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1384634.047343421</v>
+        <v>22.52641989060669</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1359420.619930892</v>
+        <v>22.5271408690081</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-395959.5258373311</v>
+        <v>22.40015183296602</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>742260.1156672724</v>
+        <v>22.46952541900831</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1191011.209918455</v>
+        <v>22.48891978527092</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-509855.8888374023</v>
+        <v>22.37640681346188</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>373068.7207386743</v>
+        <v>22.4506661154077</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>519077.3571857088</v>
+        <v>22.46572957939473</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-1173776.782422205</v>
+        <v>22.32209961177499</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>180329.0448196436</v>
+        <v>22.43847512572292</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>377600.2609667555</v>
+        <v>22.45974145648068</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-1207010.74862068</v>
+        <v>22.33969596390585</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1158866.502199851</v>
+        <v>22.51582341342502</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-2176146.296503605</v>
+        <v>22.36747748603847</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1096364.664621034</v>
+        <v>22.40675936159616</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-217666.8897475474</v>
+        <v>22.42248115176213</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-2303780.253973507</v>
+        <v>22.34728787755453</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>69509.06128961913</v>
+        <v>22.43766966003224</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>302611.7962647143</v>
+        <v>22.44981838447634</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-2209696.457434352</v>
+        <v>22.36775086437752</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1879129.966350593</v>
+        <v>22.49139389278664</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1978709.610898094</v>
+        <v>22.49987425418546</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1178199.672313736</v>
+        <v>22.50116869969968</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1599647.814544138</v>
+        <v>22.52016801178386</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1878133.10001218</v>
+        <v>22.53098106754121</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-1335843.799501258</v>
+        <v>22.3677248679963</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-51678.76583829176</v>
+        <v>22.44819530928311</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>556549.9319768241</v>
+        <v>22.47456039638581</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-948284.4784709739</v>
+        <v>22.34578832457215</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-42165.91147927743</v>
+        <v>22.423386428068</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>318016.9359695977</v>
+        <v>22.44908143073046</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1354999.401747187</v>
+        <v>22.30156427017756</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-92111.70293892444</v>
+        <v>22.42036591852173</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>314375.9327835062</v>
+        <v>22.45451588810444</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-1427140.548752143</v>
+        <v>22.32304380646264</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>921132.7301781086</v>
+        <v>22.50178041322086</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-3743720.05195197</v>
+        <v>22.36998037992119</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-2188204.08242149</v>
+        <v>22.39977550221005</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-215747.7030581987</v>
+        <v>22.42397524397558</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-3231648.1855635</v>
+        <v>22.36594896227483</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>114044.7480304237</v>
+        <v>22.43592812816719</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1185974.717812771</v>
+        <v>22.45527042369194</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-3474917.575091351</v>
+        <v>22.37644669870728</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2457756.772448823</v>
+        <v>22.47343537873213</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3232635.316681176</v>
+        <v>22.492290334305</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1489799.473890522</v>
+        <v>22.46670844185278</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1888914.065672574</v>
+        <v>22.48256971098536</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2293958.09772601</v>
+        <v>22.4997239817858</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-2347450.61080473</v>
+        <v>22.36787277834374</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-457240.6108572887</v>
+        <v>22.42777684552265</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1128994.970792654</v>
+        <v>22.46950604144358</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-1764518.11042418</v>
+        <v>22.35011333206316</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-299052.6462208292</v>
+        <v>22.40935602759144</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>281735.5468832844</v>
+        <v>22.44156367166127</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1968638.146811508</v>
+        <v>22.322002956105</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-342079.2378520017</v>
+        <v>22.40910294898639</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>420394.0884185422</v>
+        <v>22.44616974737782</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2136229.799541858</v>
+        <v>22.32684625810543</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>839889.7092048938</v>
+        <v>22.46517359906094</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>130251.2304578102</v>
+        <v>22.45732263153873</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-208901.8283671985</v>
+        <v>22.38632152045141</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>269646.9150970083</v>
+        <v>22.44084513299925</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>365061.1495668645</v>
+        <v>22.4576058047043</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-748129.5114834101</v>
+        <v>22.33048705332175</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-258407.7335109552</v>
+        <v>22.39378815504947</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35748.12671992418</v>
+        <v>22.42377353517431</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-574268.7306533101</v>
+        <v>22.39528249354779</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-58318.22472695421</v>
+        <v>22.42848432701141</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>509465.9799926121</v>
+        <v>22.46909975594052</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1352012.504946232</v>
+        <v>22.30166108650175</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-721299.7646363247</v>
+        <v>22.3707094251143</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-372854.8469110252</v>
+        <v>22.39955882962332</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-1223684.579667224</v>
+        <v>22.31940577035273</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>237753.8850589323</v>
+        <v>22.45714209979335</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1004403.641255965</v>
+        <v>22.51218706989555</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>88844.86267035242</v>
+        <v>22.45751563600173</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>555604.0508780192</v>
+        <v>22.5240518020773</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>788116.4010182656</v>
+        <v>22.55690209308784</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-589350.0138748519</v>
+        <v>22.32573553826914</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-35602.49706618229</v>
+        <v>22.43657415190225</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>399909.7220881159</v>
+        <v>22.49781340693514</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1569793.490824072</v>
+        <v>22.54270479042964</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>742315.5001134534</v>
+        <v>22.53205368547142</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1072537.078663428</v>
+        <v>22.57400989874845</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1136332.233378674</v>
+        <v>22.58894890945196</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-269800.8185039539</v>
+        <v>22.38439077735823</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>916623.9120815104</v>
+        <v>22.55464376323074</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>997855.1137888863</v>
+        <v>22.57104156342344</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-98048.54447043268</v>
+        <v>22.40019709843992</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>607965.4589188682</v>
+        <v>22.50033116755812</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>866426.9410792715</v>
+        <v>22.52250033725368</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-865328.8043297278</v>
+        <v>22.33241307569124</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>585927.3807096295</v>
+        <v>22.49657703829314</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>719688.3686810511</v>
+        <v>22.51001893477747</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-732034.3047408261</v>
+        <v>22.36536420051557</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1705867.526453714</v>
+        <v>22.59526640993185</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1953527.895599614</v>
+        <v>22.63046492998156</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1371954.389515504</v>
+        <v>22.68670538085069</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1521039.972935639</v>
+        <v>22.72848063126107</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1713342.260334046</v>
+        <v>22.75495752509647</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>131024.4310480983</v>
+        <v>22.44368947905167</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1324821.852766786</v>
+        <v>22.68314084646141</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1445996.749408482</v>
+        <v>22.71142091637221</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1686893.444710939</v>
+        <v>22.5394977345032</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>516528.1549292605</v>
+        <v>22.51096447547903</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>799344.2813108555</v>
+        <v>22.54446314592256</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1076099.83936678</v>
+        <v>22.57534970292793</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-618831.7442969328</v>
+        <v>22.33626340718771</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>765844.7731571284</v>
+        <v>22.52325799868956</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>924092.0507042385</v>
+        <v>22.55238232139085</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-501110.1130136981</v>
+        <v>22.36717106074282</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>371521.10779129</v>
+        <v>22.47515072526354</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>758870.0118519507</v>
+        <v>22.50522361369044</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1073239.558649983</v>
+        <v>22.31411565107893</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>477131.104676741</v>
+        <v>22.4854937291676</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>707515.7305655541</v>
+        <v>22.5092005001151</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-969223.1157727346</v>
+        <v>22.3506776594036</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1693139.807316032</v>
+        <v>22.58748151277966</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>2099772.649699091</v>
+        <v>22.63024189901193</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1359064.832417361</v>
+        <v>22.68084218928096</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1476610.641353861</v>
+        <v>22.71128349653494</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1886887.9325319</v>
+        <v>22.75448890489649</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-239094.8458786532</v>
+        <v>22.39988099866971</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1278041.763529508</v>
+        <v>22.66386943072521</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1480106.610280036</v>
+        <v>22.70203575770081</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1899135.546620328</v>
+        <v>22.50825760968957</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-70266.68495261567</v>
+        <v>22.4317518574741</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>360460.1234449389</v>
+        <v>22.4659794199707</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>696519.7983360495</v>
+        <v>22.50509120979836</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-1105003.450641551</v>
+        <v>22.32205281181942</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>735173.5757385344</v>
+        <v>22.46796525305238</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1119119.923601051</v>
+        <v>22.51045911786847</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1004917.918878569</v>
+        <v>22.37391950787322</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>513522.3369135664</v>
+        <v>22.46197572871018</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1229731.729876389</v>
+        <v>22.50492087041489</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1420472.326900997</v>
+        <v>22.33789996582225</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>607024.403971956</v>
+        <v>22.47090354595309</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1118361.327975949</v>
+        <v>22.50743182695147</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1402200.467757655</v>
+        <v>22.35508907470934</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>2079483.080199627</v>
+        <v>22.54497744192365</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>2983868.114043333</v>
+        <v>22.6000519572838</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1526254.480954553</v>
+        <v>22.58544780506526</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1860332.880340691</v>
+        <v>22.62557269593964</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>2468443.607404736</v>
+        <v>22.68229351669159</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-651942.3630183159</v>
+        <v>22.37126062260556</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1633722.49321642</v>
+        <v>22.58774027933014</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>2096206.133964079</v>
+        <v>22.65143903656908</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1521806.928056464</v>
+        <v>22.40368483420338</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1132578.015902916</v>
+        <v>22.42362067936157</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>83434.86907093092</v>
+        <v>22.44487932922952</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2425771.50559037</v>
+        <v>22.35960790394373</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-668708.7651776272</v>
+        <v>22.42245818915038</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-284828.530282329</v>
+        <v>22.43433358243355</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2174236.827660853</v>
+        <v>22.37585650826445</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1735925.346975384</v>
+        <v>22.47222152246706</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>1875994.011553084</v>
+        <v>22.48908147479461</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-698336.7412745366</v>
+        <v>22.42770926331979</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-411181.3792856638</v>
+        <v>22.45738532381709</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-366761.4804560472</v>
+        <v>22.4640079774647</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-115077.6410889822</v>
+        <v>22.39955450818073</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-442981.2155912053</v>
+        <v>22.41475248667122</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>515653.8509633347</v>
+        <v>22.46021894160978</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-482208.3512730463</v>
+        <v>22.42332447065375</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>345945.2387593657</v>
+        <v>22.46041673410756</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>548597.2884628254</v>
+        <v>22.47277310232925</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1255542.646475148</v>
+        <v>22.34482140040934</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-434457.5961716587</v>
+        <v>22.40414321405311</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-214554.1673466919</v>
+        <v>22.41875157899243</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1499920.809461962</v>
+        <v>22.34054441208414</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>217664.6401290344</v>
+        <v>22.46484452852207</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-378215.0113117855</v>
+        <v>22.40615989312296</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1015175.852490885</v>
+        <v>22.46542853561582</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1136474.020194775</v>
+        <v>22.47305028993441</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1811873.72704416</v>
+        <v>22.366850483434</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1110388.867549024</v>
+        <v>22.48435869847297</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1058412.68635092</v>
+        <v>22.48668026116283</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1636838.837919775</v>
+        <v>22.38979674707338</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>3086545.158875953</v>
+        <v>22.54155222483346</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>2669319.760591592</v>
+        <v>22.5434706667045</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1485035.321435282</v>
+        <v>22.55320999503559</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>2001651.903715433</v>
+        <v>22.58020138063891</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>2078461.848510158</v>
+        <v>22.58268540930275</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>414785.7666938303</v>
+        <v>22.45062934333518</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1239670.872832639</v>
+        <v>22.53911987412812</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1346328.116924192</v>
+        <v>22.56436713804654</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>64566.78176144577</v>
+        <v>22.43042904084683</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1199982.493065541</v>
+        <v>22.52864468144945</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1105734.00353414</v>
+        <v>22.5301396171053</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-860172.1914672751</v>
+        <v>22.36686854657561</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>718293.5562754987</v>
+        <v>22.5089232870486</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>784342.7284119688</v>
+        <v>22.51832955625319</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-857444.1509313218</v>
+        <v>22.38132687625926</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>1887487.268947596</v>
+        <v>22.5888535502736</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1610814.784767866</v>
+        <v>22.38553320307938</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>171100.3391141033</v>
+        <v>22.44710502198799</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>573682.1457842754</v>
+        <v>22.45990552089914</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2030722.094499788</v>
+        <v>22.35849938469459</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>852788.2417566176</v>
+        <v>22.47622176029109</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1021814.289685355</v>
+        <v>22.48592886335745</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1843343.0148983</v>
+        <v>22.38201959019229</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3089597.000416</v>
+        <v>22.5350468929621</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2970131.880146805</v>
+        <v>22.54244471709029</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>2027738.583829232</v>
+        <v>22.55507675393976</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>2478463.495707395</v>
+        <v>22.57674129984134</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2837852.729746248</v>
+        <v>22.58912489123561</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-460472.9752121896</v>
+        <v>22.41997959262086</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>520587.5419262297</v>
+        <v>22.52068760800569</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>859025.7553886392</v>
+        <v>22.55243981856742</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-407475.3472498855</v>
+        <v>22.3978668274109</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>766680.597171799</v>
+        <v>22.50030231370921</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>938432.5042055481</v>
+        <v>22.51272377505945</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1051325.713709783</v>
+        <v>22.34655937719103</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>351197.2536856337</v>
+        <v>22.49149806596115</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>715459.3812358795</v>
+        <v>22.51440836985413</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1087169.524490074</v>
+        <v>22.36545503162035</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1670346.617032306</v>
+        <v>22.57643766711091</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2842673.066504097</v>
+        <v>22.38302370466421</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-537282.3432861465</v>
+        <v>22.43032639020359</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>828540.8483554242</v>
+        <v>22.45414105951385</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2703828.124808582</v>
+        <v>22.37688622238784</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1448528.538824857</v>
+        <v>22.46871578299222</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2047272.971115699</v>
+        <v>22.4882612722878</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-2811475.879837214</v>
+        <v>22.38755533680696</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>4268054.785060277</v>
+        <v>22.50799189993029</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>4548843.481974535</v>
+        <v>22.52790175877193</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2794918.139533408</v>
+        <v>22.5043507403856</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>3213200.090325399</v>
+        <v>22.52419371003142</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>3820258.198776918</v>
+        <v>22.54490587976835</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-899108.2423055982</v>
+        <v>22.40577289678345</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>249138.1216436559</v>
+        <v>22.48144975046284</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1608987.240339522</v>
+        <v>22.53075933742105</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-938164.6739297054</v>
+        <v>22.39542582547897</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>852925.143953218</v>
+        <v>22.47438076588094</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1381839.688650758</v>
+        <v>22.49856927849824</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1353180.275060636</v>
+        <v>22.36591672081287</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>593002.3891252251</v>
+        <v>22.47396976740843</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1424628.999710822</v>
+        <v>22.50514655373367</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1603625.756218896</v>
+        <v>22.36490328607679</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>1971673.409439837</v>
+        <v>22.52910751464717</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>445449.7331773643</v>
+        <v>22.49156739172388</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>47843.31506850271</v>
+        <v>22.44125296270586</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>645406.69325804</v>
+        <v>22.49737680312085</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>683329.2399201214</v>
+        <v>22.51548903032243</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-537770.0209044998</v>
+        <v>22.38180502287373</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>1195.360929792895</v>
+        <v>22.464697812191</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>231567.1362431177</v>
+        <v>22.49247413423208</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-305989.8835200501</v>
+        <v>22.41295184479314</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>155884.2594809946</v>
+        <v>22.45635863397118</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>610145.873935072</v>
+        <v>22.48694161117317</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1090715.066259255</v>
+        <v>22.30890597896903</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-533762.8212585058</v>
+        <v>22.39059029760683</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-190557.3890622777</v>
+        <v>22.41099906079209</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1243467.461145217</v>
+        <v>22.31793070853606</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>240604.8615807252</v>
+        <v>22.47220818831093</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>985073.3091852688</v>
+        <v>22.5210208503853</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>84444.98305719145</v>
+        <v>22.48527592865306</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>671972.4087577679</v>
+        <v>22.55557977873413</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>865499.2150736561</v>
+        <v>22.582230211378</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-464526.7059903823</v>
+        <v>22.35465134391749</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>91353.9414751665</v>
+        <v>22.47570158583145</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>480825.8398822765</v>
+        <v>22.53634205070319</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>2103995.369392387</v>
+        <v>22.60530637217426</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1387307.142641947</v>
+        <v>22.6381294282579</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1763041.519531784</v>
+        <v>22.67879615728224</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1709846.406301983</v>
+        <v>22.69106609597715</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>182989.2285706051</v>
+        <v>22.48305871568593</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1573663.141135206</v>
+        <v>22.68117842124065</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1598715.518634211</v>
+        <v>22.68874039570099</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>302786.9430544467</v>
+        <v>22.43812580240498</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1063327.405523497</v>
+        <v>22.55591419726426</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1116458.132863788</v>
+        <v>22.56171075415585</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-671805.8154748082</v>
+        <v>22.36173013482418</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>794873.6649207869</v>
+        <v>22.54573703174528</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>802444.5577773767</v>
+        <v>22.54478118230017</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-636124.5473659169</v>
+        <v>22.38838012097986</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1983977.985072889</v>
+        <v>22.64352615578885</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>2114162.814886429</v>
+        <v>22.66627804804383</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1653735.212925322</v>
+        <v>22.76512025618265</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1818387.494066625</v>
+        <v>22.80736998269328</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1869869.759319513</v>
+        <v>22.8220379885122</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>409975.2324622153</v>
+        <v>22.51939017849368</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1708324.431641967</v>
+        <v>22.77743610107752</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1706446.558794067</v>
+        <v>22.79769288202263</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2347669.899720989</v>
+        <v>22.60388750618427</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1167583.380135689</v>
+        <v>22.62069075246039</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1531149.453313255</v>
+        <v>22.6529445988805</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1714402.544010694</v>
+        <v>22.68112883808451</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-132069.8471346295</v>
+        <v>22.43799734105473</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1482628.888739865</v>
+        <v>22.65447248375457</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>1614388.146838008</v>
+        <v>22.67444305334835</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-139537.917212862</v>
+        <v>22.40413803726556</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>765107.5043428554</v>
+        <v>22.53079701700798</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>1009097.129568711</v>
+        <v>22.54477883377056</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-897305.7470050729</v>
+        <v>22.34447323851257</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>567228.597301058</v>
+        <v>22.53620221611724</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>755242.2223894106</v>
+        <v>22.5461554431418</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-893795.4200621757</v>
+        <v>22.37548942238964</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1909042.561773259</v>
+        <v>22.63854917344666</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>2289881.263267167</v>
+        <v>22.66897017873826</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1651414.681323151</v>
+        <v>22.76439582193029</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1773393.364507995</v>
+        <v>22.79513402556032</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>2025574.362378402</v>
+        <v>22.82648368331552</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>87799.53993194221</v>
+        <v>22.48004280364393</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1675067.44107275</v>
+        <v>22.76430189460403</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1785111.315688999</v>
+        <v>22.79399876125495</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>3097095.337843359</v>
+        <v>22.56663755162452</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>704154.5792066162</v>
+        <v>22.51755666617525</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>1139642.202472222</v>
+        <v>22.55410383021955</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1578074.793828337</v>
+        <v>22.59429060856554</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-408971.0285965483</v>
+        <v>22.40358146139991</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1672050.981848984</v>
+        <v>22.57401155887896</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>2024261.481287154</v>
+        <v>22.61307490120527</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-506423.9106357532</v>
+        <v>22.40785163367767</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>1079603.918383647</v>
+        <v>22.50973055608873</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1603610.267776138</v>
+        <v>22.54260599723098</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1094911.083836342</v>
+        <v>22.37032078388894</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>987758.6781647059</v>
+        <v>22.51864038504427</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1434745.616020413</v>
+        <v>22.54752089211715</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1300063.576474622</v>
+        <v>22.3792623902447</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>2387719.983230487</v>
+        <v>22.58924008407519</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>3206766.087164379</v>
+        <v>22.63735225204978</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1833449.815066364</v>
+        <v>22.6497702664292</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>2191094.379064803</v>
+        <v>22.69390007135079</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2695562.121980896</v>
+        <v>22.74431086834946</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-78011.74112331637</v>
+        <v>22.43562114649048</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>2037985.189613609</v>
+        <v>22.66773425133124</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2496196.329872073</v>
+        <v>22.72902864997957</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1527971.791188953</v>
+        <v>22.40927462887502</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1594753.353553925</v>
+        <v>22.39952410438472</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-696415.1023104149</v>
+        <v>22.41405187151112</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2466563.228707783</v>
+        <v>22.36623280708219</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1946773.281733106</v>
+        <v>22.38475712861557</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1701142.544395727</v>
+        <v>22.39302065458006</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2290823.438180248</v>
+        <v>22.37700162628687</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-557065.5475755509</v>
+        <v>22.42698061096648</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-352427.8055662366</v>
+        <v>22.43712908425485</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1052497.795973271</v>
+        <v>22.39069788192349</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-889507.5470602444</v>
+        <v>22.411151509858</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-952660.1483566092</v>
+        <v>22.41439932754901</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1337243.647606671</v>
+        <v>22.37957637716282</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1220623.904926774</v>
+        <v>22.37081001147748</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-687713.4225623038</v>
+        <v>22.39430439381945</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-993574.829842538</v>
+        <v>22.40616529728114</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-430465.3014040046</v>
+        <v>22.40979010853181</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-209248.3092097829</v>
+        <v>22.42973444737908</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1465733.921253797</v>
+        <v>22.34367997847306</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1090627.142434999</v>
+        <v>22.35925986186696</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-845191.8656321125</v>
+        <v>22.38278091219513</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1649467.43799423</v>
+        <v>22.3393991671106</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-655638.1953764291</v>
+        <v>22.41082388818038</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1127757.781334472</v>
+        <v>22.39915916834063</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-496602.4956880741</v>
+        <v>22.42037357314097</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-260004.4177456468</v>
+        <v>22.42578521148962</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1950726.515279814</v>
+        <v>22.36185994739318</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-433406.4258772486</v>
+        <v>22.4247980831708</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-354771.2070529838</v>
+        <v>22.42809307012327</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1909728.497455466</v>
+        <v>22.37600618453812</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>719881.5430739449</v>
+        <v>22.47077501584255</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>564973.0141219462</v>
+        <v>22.47057566340358</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>287294.3618029756</v>
+        <v>22.47498522875862</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>669719.3804070207</v>
+        <v>22.49459975119164</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>706038.8124220783</v>
+        <v>22.49765481221919</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-740150.7213117208</v>
+        <v>22.39892271020445</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>318052.6359975011</v>
+        <v>22.45198289021444</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>464378.8308839968</v>
+        <v>22.46092915961033</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-646651.7935477126</v>
+        <v>22.39410061140216</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>125962.5588798914</v>
+        <v>22.44791639182796</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>339427.8029457213</v>
+        <v>22.46463616553486</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1075948.466350945</v>
+        <v>22.34744437607284</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-50972.24937244339</v>
+        <v>22.43292260936798</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>245164.4984212636</v>
+        <v>22.45894754911596</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1144067.361681509</v>
+        <v>22.35691167226128</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>704377.8119093789</v>
+        <v>22.49767682491521</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1945964.547636042</v>
+        <v>22.38151687809554</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1147103.016821534</v>
+        <v>22.40432340741969</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-626921.0340874509</v>
+        <v>22.41517925808123</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-2139243.561494901</v>
+        <v>22.35442819730271</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-748159.1712326274</v>
+        <v>22.41746430069486</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-401525.9944231829</v>
+        <v>22.42809357466735</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-2044159.505674129</v>
+        <v>22.3690279741595</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>600206.8763641053</v>
+        <v>22.46469375637683</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>737827.958137616</v>
+        <v>22.47026589141353</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>401999.010940627</v>
+        <v>22.47407295464806</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>665400.3638885488</v>
+        <v>22.48879630246525</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>1018871.755772579</v>
+        <v>22.5015697652637</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-1406713.106677833</v>
+        <v>22.36917584645579</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-369671.1283919583</v>
+        <v>22.43196529559645</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-48275.02324601274</v>
+        <v>22.44844448577217</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-1020876.170192086</v>
+        <v>22.3650918457103</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-303006.092017317</v>
+        <v>22.42165680590518</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>164312.6169845396</v>
+        <v>22.44910834245067</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1238614.287952723</v>
+        <v>22.32753379485906</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-378882.2215137488</v>
+        <v>22.4149023720195</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>176723.9729002578</v>
+        <v>22.45389839557233</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-1340705.185792937</v>
+        <v>22.3408851319706</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>384600.1138139767</v>
+        <v>22.48396259104815</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-3217926.231981827</v>
+        <v>22.38217233543632</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-2267375.095083167</v>
+        <v>22.39714331494969</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-839418.8505124067</v>
+        <v>22.4162980968666</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-3178867.696911359</v>
+        <v>22.36963060359939</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-1456444.237606385</v>
+        <v>22.41581928580935</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-236288.2721721989</v>
+        <v>22.43292247920797</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-3394619.6978874</v>
+        <v>22.37603305733755</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>192930.2046618444</v>
+        <v>22.44861421001126</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>1021342.414419821</v>
+        <v>22.46407370382671</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>239727.2710215697</v>
+        <v>22.44313327096337</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>463240.4492607735</v>
+        <v>22.45460613799963</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>936973.1293880391</v>
+        <v>22.47245679070429</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-2265634.39581961</v>
+        <v>22.36857833459297</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-742958.773642543</v>
+        <v>22.41265272563779</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>95596.26361901351</v>
+        <v>22.4443355026356</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-1694155.358065557</v>
+        <v>22.36617606589785</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-683360.3610763332</v>
+        <v>22.40636212834307</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>20326.23651576156</v>
+        <v>22.43893955301799</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-1805433.176128589</v>
+        <v>22.34087319137887</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-838294.1164211115</v>
+        <v>22.40059370788117</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>94323.10333577543</v>
+        <v>22.44057113414275</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-2039071.615283579</v>
+        <v>22.34008767503564</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-57132.83189107708</v>
+        <v>22.44723770212916</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-384316.3476324016</v>
+        <v>22.44356387955014</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-366053.6444546694</v>
+        <v>22.37808337002393</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>79292.2645984994</v>
+        <v>22.42478216853975</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>109014.8113187959</v>
+        <v>22.44588607296589</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-889322.8859528919</v>
+        <v>22.33939489628769</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-559398.9884897219</v>
+        <v>22.38038926255793</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-312988.1260195281</v>
+        <v>22.40841061809406</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-551913.1316602876</v>
+        <v>22.4067727527633</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-186464.3072341048</v>
+        <v>22.42161464950643</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>281415.8406333984</v>
+        <v>22.45950542526055</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1265186.850621329</v>
+        <v>22.31521254784866</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-907059.0273814932</v>
+        <v>22.35644834876415</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-620308.0325866819</v>
+        <v>22.38681971263891</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1237337.80557541</v>
+        <v>22.32822763554672</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-224054.7732506777</v>
+        <v>22.43299377265964</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>406853.2205293087</v>
+        <v>22.48624778619061</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-140043.2957139157</v>
+        <v>22.43697619029603</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>296507.503507406</v>
+        <v>22.49289838047508</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>473276.6585594124</v>
+        <v>22.53492822081344</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-644503.0837381728</v>
+        <v>22.33158876634881</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-259401.2177032865</v>
+        <v>22.41287275925749</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>73071.11042770473</v>
+        <v>22.4713012351601</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1233080.158543685</v>
+        <v>22.5278150727904</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>457923.4633273664</v>
+        <v>22.51452381310051</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>814142.0678090607</v>
+        <v>22.55034825099576</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>886894.966701939</v>
+        <v>22.57208758219044</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-452459.6772839176</v>
+        <v>22.39126445900075</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>585211.3498709858</v>
+        <v>22.53177825955031</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>737649.8104934833</v>
+        <v>22.55011826700924</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-131287.2604234713</v>
+        <v>22.41948922391713</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>496822.7705005043</v>
+        <v>22.49675202753817</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>761764.239327197</v>
+        <v>22.51921095199838</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-751201.6134888204</v>
+        <v>22.35583782046818</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>406785.6432495063</v>
+        <v>22.48506661556729</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>616927.3123217653</v>
+        <v>22.50366563701704</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-634529.5568361639</v>
+        <v>22.38193943485087</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1388484.869663751</v>
+        <v>22.57231176722051</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1665931.827510718</v>
+        <v>22.60895993753694</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1151664.888862279</v>
+        <v>22.66120596728671</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1324597.689881226</v>
+        <v>22.69475544157754</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1559385.824121166</v>
+        <v>22.73381131267255</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>92400.35616827864</v>
+        <v>22.45316733467718</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1102160.945593084</v>
+        <v>22.65392148792987</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1237858.014539973</v>
+        <v>22.68472917109999</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1335570.520425653</v>
+        <v>22.52498205622884</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>185724.0049262006</v>
+        <v>22.49302743321628</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>470298.9069090235</v>
+        <v>22.52095063529604</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>787155.65627582</v>
+        <v>22.55802264993998</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-731665.6073362525</v>
+        <v>22.34556786898617</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>395296.0796385478</v>
+        <v>22.50086018187027</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>657925.2651570041</v>
+        <v>22.53232660605118</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-479358.9099952271</v>
+        <v>22.38897584931594</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>239604.1702463703</v>
+        <v>22.47320523022184</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>689306.8020520352</v>
+        <v>22.50399535416406</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-959019.1311278479</v>
+        <v>22.33886743454467</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>218194.2043823315</v>
+        <v>22.47446460690913</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>594272.3239069744</v>
+        <v>22.50372846572671</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-855722.146216067</v>
+        <v>22.36857665457097</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1295219.781638764</v>
+        <v>22.5652797130941</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1816317.825484201</v>
+        <v>22.60991081728518</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1078760.673902193</v>
+        <v>22.65488571607317</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1203875.949861217</v>
+        <v>22.67792368557073</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1708873.700490428</v>
+        <v>22.73300518506366</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-224179.6956846459</v>
+        <v>22.41227944021599</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>995694.9489499151</v>
+        <v>22.63519302592599</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1260486.806628795</v>
+        <v>22.67659226868595</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>1212557.761607372</v>
+        <v>22.49199182756134</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-417060.5776685108</v>
+        <v>22.41712778259346</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>-87202.93792527472</v>
+        <v>22.44528432045626</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>265180.8438471121</v>
+        <v>22.48812156282739</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-1193831.53352235</v>
+        <v>22.32981281469156</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>141132.4578903955</v>
+        <v>22.44745868605683</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>606441.4500814143</v>
+        <v>22.49010563440681</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-924120.6183776039</v>
+        <v>22.38702069405726</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>253080.6627423802</v>
+        <v>22.45343947766881</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1051798.710015931</v>
+        <v>22.49555766149937</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1306025.666203048</v>
+        <v>22.34997376621158</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>164272.5100380455</v>
+        <v>22.45176495892666</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>841262.2740775644</v>
+        <v>22.49139993783694</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-1336113.427493425</v>
+        <v>22.36268362504363</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1346021.390169234</v>
+        <v>22.51737786790767</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2402786.53532677</v>
+        <v>22.57257504985944</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1061935.878703227</v>
+        <v>22.55654879950733</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1327699.281649898</v>
+        <v>22.58855027317678</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2064799.042052941</v>
+        <v>22.65348820090935</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-635553.9784039601</v>
+        <v>22.37529926499995</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1145070.966429656</v>
+        <v>22.55516564493895</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1683569.972234085</v>
+        <v>22.61911124603946</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-1284658.213802493</v>
+        <v>22.42387333570495</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-1610438.332488816</v>
+        <v>22.4337304702738</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2228227.877888976</v>
+        <v>22.44848971102365</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-3490983.756121503</v>
+        <v>22.41287354438567</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>2261533.26676684</v>
+        <v>22.45261034347881</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>3144421.462379912</v>
+        <v>22.460416296392</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-3338760.207334211</v>
+        <v>22.40948714884987</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>6004724.209242636</v>
+        <v>22.46697453864126</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>7123983.416479968</v>
+        <v>22.47938625357776</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-635688.3396603013</v>
+        <v>22.44290851434561</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-400844.2582965959</v>
+        <v>22.46025475261743</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-218637.3713468183</v>
+        <v>22.46467569337586</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1100031.798434995</v>
+        <v>22.43072842287565</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-485765.4122593774</v>
+        <v>22.43528756720104</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>3418410.564773499</v>
+        <v>22.46877183983617</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-679175.7820175788</v>
+        <v>22.42858904549202</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>545088.3101099876</v>
+        <v>22.44468895622851</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>1513671.366679613</v>
+        <v>22.45467146503875</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>90765.78156770646</v>
+        <v>22.40681845510342</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>1043831.701155636</v>
+        <v>22.43817869728503</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>1444207.989892063</v>
+        <v>22.44812972273769</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-3272508.589565222</v>
+        <v>22.37975117869025</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>10818.94112000961</v>
+        <v>22.44968028420837</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>339020.7948952002</v>
+        <v>22.42455986883859</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2585047.037481254</v>
+        <v>22.45908572035257</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3730559.881773725</v>
+        <v>22.46537708234654</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-2868723.647967491</v>
+        <v>22.4182520130496</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>5529947.676696975</v>
+        <v>22.492413362331</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>5149129.37002058</v>
+        <v>22.49436502295869</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-2806575.792653946</v>
+        <v>22.41817125136228</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>8333587.784051732</v>
+        <v>22.51044874366508</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>8104429.425482909</v>
+        <v>22.51363820604503</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>5046115.463586501</v>
+        <v>22.52355639872379</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>5458022.185400167</v>
+        <v>22.53884028228885</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>5596797.959546776</v>
+        <v>22.54033524752791</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>2828332.545850538</v>
+        <v>22.46549740323625</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>4556357.988021944</v>
+        <v>22.51596145766618</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>6108028.286725994</v>
+        <v>22.53695269229605</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>255836.8548156507</v>
+        <v>22.43198881080984</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2203471.555020883</v>
+        <v>22.48608112331674</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>2263568.643082603</v>
+        <v>22.48952778659696</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>367430.4403016898</v>
+        <v>22.42256302229016</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>3061510.401487484</v>
+        <v>22.50543430896614</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>2951135.550325416</v>
+        <v>22.51249319203897</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1957719.100483864</v>
+        <v>22.40567037403807</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>3796113.998457377</v>
+        <v>22.52751038265259</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-2837902.364511596</v>
+        <v>22.4100705136555</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>270245.4858015352</v>
+        <v>22.44609587738233</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>2122800.003016169</v>
+        <v>22.45569218255623</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-3424581.659558889</v>
+        <v>22.41109461454257</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>4862226.72926253</v>
+        <v>22.48527178325369</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>5000387.769677765</v>
+        <v>22.49203078296277</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-3571733.761797131</v>
+        <v>22.41184803164349</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>8015941.53195665</v>
+        <v>22.5050037409649</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>8558506.105024016</v>
+        <v>22.51167630485364</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>6467521.943642086</v>
+        <v>22.52327720099236</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>6519456.673127797</v>
+        <v>22.53519979884124</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>7285041.073668278</v>
+        <v>22.54294405041741</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>550825.68591779</v>
+        <v>22.44455585236594</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>2813107.064714124</v>
+        <v>22.50282817722628</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>5006686.953873341</v>
+        <v>22.52785626101842</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-698683.4037132193</v>
+        <v>22.41072843732383</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1215410.855702854</v>
+        <v>22.46764246631245</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1937155.834830964</v>
+        <v>22.47806327321018</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>115027.6384786595</v>
+        <v>22.40836933766452</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>2201808.408140161</v>
+        <v>22.49307968563624</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2846485.137366802</v>
+        <v>22.50889453308724</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-2366475.547920411</v>
+        <v>22.39509945000236</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>3303616.444730666</v>
+        <v>22.51933365712341</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-6098707.151091546</v>
+        <v>22.40617964219989</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-2044293.440529238</v>
+        <v>22.43375770906018</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>2300337.697630778</v>
+        <v>22.44989025393381</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-4738989.81176696</v>
+        <v>22.41805978943365</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>7544842.328990347</v>
+        <v>22.47606738880025</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>8262574.286966955</v>
+        <v>22.48872481248834</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-6359439.189249035</v>
+        <v>22.41255980678793</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>10595163.95669085</v>
+        <v>22.48580066493083</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>12118207.88756363</v>
+        <v>22.49983658092243</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>8196485.402295695</v>
+        <v>22.48691409416717</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>8151081.089140874</v>
+        <v>22.49825095621711</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>9656299.275602477</v>
+        <v>22.51152994323345</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1093420.616774847</v>
+        <v>22.4298961399937</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1398087.305017065</v>
+        <v>22.47337725545991</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>6618981.016855241</v>
+        <v>22.50871327959151</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-1936043.60132814</v>
+        <v>22.40934975416843</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1386825.313217809</v>
+        <v>22.4528881240951</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2987818.945166423</v>
+        <v>22.47010398765435</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>500201.7537680656</v>
+        <v>22.41669543161944</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>3743444.673824906</v>
+        <v>22.47948302943762</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>5340336.452218954</v>
+        <v>22.50002488612454</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-3499240.793784246</v>
+        <v>22.39423896665459</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>4124972.160276785</v>
+        <v>22.49057733519589</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>723136.8582160294</v>
+        <v>22.46960251664019</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-313602.5998156628</v>
+        <v>22.43365726940179</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>1116917.376516991</v>
+        <v>22.4648089613752</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>1286392.326894793</v>
+        <v>22.47744669581293</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-1221767.841453407</v>
+        <v>22.4013823434105</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-678048.4357674828</v>
+        <v>22.44151916486996</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>140700.5526950526</v>
+        <v>22.46357250060987</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-1043030.596670528</v>
+        <v>22.42184551180286</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-208473.9790509662</v>
+        <v>22.44159746068757</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1081747.430030424</v>
+        <v>22.46190285368918</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>38550.91788874942</v>
+        <v>22.39048682627661</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>753818.9350845282</v>
+        <v>22.43585528647091</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1280993.628513148</v>
+        <v>22.44822066643944</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-2886885.365138895</v>
+        <v>22.36983537545611</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>522867.5821500879</v>
+        <v>22.4583760789099</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>2319442.654579583</v>
+        <v>22.49108357113015</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>228847.4764738098</v>
+        <v>22.46820364530225</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1648989.460726882</v>
+        <v>22.5086296604198</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>2368867.903245603</v>
+        <v>22.52553731076075</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-1166684.722918145</v>
+        <v>22.39121905700199</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-34880.46509549205</v>
+        <v>22.45515746769124</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>967225.2338401116</v>
+        <v>22.49711958299396</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>4431032.313775694</v>
+        <v>22.54138047050762</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>2824021.311959302</v>
+        <v>22.55927963479427</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>3687790.227040991</v>
+        <v>22.57976263302216</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>3441151.086977066</v>
+        <v>22.58839879075319</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>584990.2677332908</v>
+        <v>22.46788265065138</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>3180312.114270617</v>
+        <v>22.57959333621052</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>3510602.205085443</v>
+        <v>22.58925777388293</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>629068.0172400284</v>
+        <v>22.43894752051181</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>2054399.520871458</v>
+        <v>22.50503745289531</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>2300866.125556763</v>
+        <v>22.50997415611621</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>565487.0762061537</v>
+        <v>22.42857137942342</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>3410054.676285759</v>
+        <v>22.53778197380213</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2984848.617358615</v>
+        <v>22.53705267710497</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>-1490027.833936387</v>
+        <v>22.41723764084925</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>4581279.979649266</v>
+        <v>22.56882074702658</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>4835201.486671628</v>
+        <v>22.58545622074961</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>4064260.267320817</v>
+        <v>22.64975809109034</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>4290868.720706947</v>
+        <v>22.67150144495421</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>4483485.396325232</v>
+        <v>22.68040664171641</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1111301.46597432</v>
+        <v>22.50139587956664</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>3918704.780275971</v>
+        <v>22.65049290814697</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>3975252.50173492</v>
+        <v>22.66740893869886</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>5117026.675669321</v>
+        <v>22.54020029295597</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>2311637.23359645</v>
+        <v>22.54812420061838</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3118972.692051551</v>
+        <v>22.56333868175411</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>3407689.376461813</v>
+        <v>22.58202784286987</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-111462.6287363053</v>
+        <v>22.43926559427223</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2951563.50333113</v>
+        <v>22.56284137483658</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>3570057.107685423</v>
+        <v>22.58032637622729</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-269845.4792510789</v>
+        <v>22.41745484140668</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1423369.503492735</v>
+        <v>22.48930294738905</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>2158592.642731982</v>
+        <v>22.49954717199176</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>252752.4450421498</v>
+        <v>22.41675670795507</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2960537.569805268</v>
+        <v>22.53083845336696</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>3012911.685506159</v>
+        <v>22.53730683108477</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-1969457.952300292</v>
+        <v>22.40906465417748</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>4463710.265539816</v>
+        <v>22.56585986687195</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>5362172.783939749</v>
+        <v>22.58745217506968</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>4150320.538295747</v>
+        <v>22.64971795966446</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4199134.310433412</v>
+        <v>22.66421863935553</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>4881868.558823117</v>
+        <v>22.68368507711143</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>420747.7245163647</v>
+        <v>22.47692254269026</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>3831832.449980382</v>
+        <v>22.64279681731826</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>4217784.271216395</v>
+        <v>22.66574216132924</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6848339.558394977</v>
+        <v>22.51697879028989</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1157648.595300011</v>
+        <v>22.48259423073636</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>2029588.306409713</v>
+        <v>22.50189113701875</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>3012317.369728494</v>
+        <v>22.52840623146552</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-887587.1488066041</v>
+        <v>22.41580855189449</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>3132561.117988885</v>
+        <v>22.51280368184497</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>4250260.981965745</v>
+        <v>22.54151387808482</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1326154.632083953</v>
+        <v>22.41837243884282</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>2111262.063959063</v>
+        <v>22.47608241728032</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>3422831.060273079</v>
+        <v>22.4977516192803</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>773354.8517544989</v>
+        <v>22.42639143963099</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>4893801.038625341</v>
+        <v>22.51446648212656</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5428523.969613825</v>
+        <v>22.53250360861124</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-2849846.923418304</v>
+        <v>22.40848206476668</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>5906119.743341357</v>
+        <v>22.53344573040184</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>7598939.999283876</v>
+        <v>22.56551336625173</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>4775110.678895974</v>
+        <v>22.57363149451089</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>5291521.955941729</v>
+        <v>22.5980137996213</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>6834502.087718509</v>
+        <v>22.62994533891387</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-6480.615146255089</v>
+        <v>22.44375154163991</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>4551328.88882195</v>
+        <v>22.57932059117749</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5860200.382678534</v>
+        <v>22.62139655741786</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.767</v>
+        <v>15.167</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.493</v>
+        <v>21.161</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.901</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.550000000000001</v>
+        <v>4.701</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22.41117476605187</v>
+        <v>17.73855267928392</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.41685940603335</v>
+        <v>18.20509482941686</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.43643067368102</v>
+        <v>30.14482974608433</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.37013194730695</v>
+        <v>3.971743898776083</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.41350438203526</v>
+        <v>21.85464693145843</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.42404910413468</v>
+        <v>27.4676476521868</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.38097844288554</v>
+        <v>8.093603445484597</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.44976637984642</v>
+        <v>40.09388989438173</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.46653618527896</v>
+        <v>44.36771595402762</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.41446196757806</v>
+        <v>17.13724555067483</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.43928622098724</v>
+        <v>19.92087418743119</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.44616196752604</v>
+        <v>20.47510253623721</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.40072804890542</v>
+        <v>23.57403555100966</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.4063639996436</v>
+        <v>20.03957157757025</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22.4464727520842</v>
+        <v>42.3337351976594</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22.42112592966183</v>
+        <v>17.34454862695673</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.44012190225697</v>
+        <v>26.2216834916189</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22.45787573840307</v>
+        <v>31.46614329059888</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.35454336294719</v>
+        <v>5.229197561350741</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.39143020111363</v>
+        <v>14.29869695129825</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.41021946764674</v>
+        <v>18.99358863434178</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.34464773857443</v>
+        <v>-1.170151362186068</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.43470551466121</v>
+        <v>19.78344751205915</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.40804944403236</v>
+        <v>21.91160036083194</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.44744683062583</v>
+        <v>32.18606779169586</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.45608969604118</v>
+        <v>35.25469277676876</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>22.37264052336575</v>
+        <v>2.128077518435852</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.46294882565731</v>
+        <v>36.05451012335468</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.46635463822712</v>
+        <v>35.79422926152525</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.38892087518144</v>
+        <v>6.553627319598966</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.50519843980692</v>
+        <v>51.41396759243071</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22.51002738039766</v>
+        <v>50.66919810609171</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>22.52004076199473</v>
+        <v>48.22183975075289</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>22.54299574077498</v>
+        <v>53.22242338098607</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22.54616546698476</v>
+        <v>54.16232360443526</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.44302463708332</v>
+        <v>33.14632702434063</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.51253141043823</v>
+        <v>49.75105357942955</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>22.53591298477062</v>
+        <v>58.23364681065543</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22.42381283893248</v>
+        <v>23.86477548600796</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>22.49584305811136</v>
+        <v>40.53414167845471</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>22.50623032651156</v>
+        <v>41.11993392594997</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.3734742205908</v>
+        <v>8.763217280432304</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.48189981041224</v>
+        <v>36.44377428724999</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>22.49866437134619</v>
+        <v>38.75633843096921</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22.37942727358717</v>
+        <v>7.328270820764896</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>22.54150162343974</v>
+        <v>52.93141717434236</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.38689654683247</v>
+        <v>8.220466511838303</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.42835998931589</v>
+        <v>21.31103849292525</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.44195010724329</v>
+        <v>27.45652467117653</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.36226664982345</v>
+        <v>-0.2735395563382141</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.45269435225606</v>
+        <v>30.8996693111462</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.46314314826599</v>
+        <v>33.75692353380816</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.37919160178505</v>
+        <v>3.901971992700247</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>22.49675042779505</v>
+        <v>47.88088398098687</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>22.5067729409824</v>
+        <v>51.05130673009852</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>22.51818569235472</v>
+        <v>54.12158655420048</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>22.53653156837471</v>
+        <v>56.78893876544763</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>22.54853234373345</v>
+        <v>62.27185349944027</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.41278971441363</v>
+        <v>17.18553689260938</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>22.49277550410308</v>
+        <v>35.83521854281528</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>22.52247089441985</v>
+        <v>48.40068412014772</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>22.39272192345603</v>
+        <v>14.99513949972764</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>22.46843281111482</v>
+        <v>30.75940548705026</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>22.48893389954804</v>
+        <v>37.13262801712958</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.35309077880025</v>
+        <v>4.995333578806438</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>22.46393136736562</v>
+        <v>26.64143555148707</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.4932995814546</v>
+        <v>36.35192442672118</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.36319726702908</v>
+        <v>3.171430028025366</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>22.52844608671634</v>
+        <v>45.73097947482555</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>22.38490367681935</v>
+        <v>3.776447347539893</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.41528330903299</v>
+        <v>15.52300207108043</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>22.43780251139231</v>
+        <v>26.99914997685578</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.37779034793651</v>
+        <v>0.8460569005935099</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.44704565145861</v>
+        <v>32.87310426813909</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22.46534790979501</v>
+        <v>39.52740220228042</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.38402045309368</v>
+        <v>0.4602159903621512</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>22.47505359427514</v>
+        <v>45.48681190103516</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>22.49511932645335</v>
+        <v>52.12185625598663</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.47349668924474</v>
+        <v>50.12370651267513</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22.48995089049601</v>
+        <v>51.15094086539285</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>22.50961633033263</v>
+        <v>59.1040069507094</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.39804153845875</v>
+        <v>10.49552310629764</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.4566238761666</v>
+        <v>24.75734256477575</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>22.50138158959458</v>
+        <v>49.05316831337909</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22.39246481197703</v>
+        <v>11.27318707789551</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>22.44889819750496</v>
+        <v>28.86509026017977</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>22.47777662935521</v>
+        <v>39.07268963178472</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.36977519353321</v>
+        <v>8.040429239191358</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.45003452845983</v>
+        <v>29.21479565784397</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>22.48458094740164</v>
+        <v>44.05579977029804</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.3632098906124</v>
+        <v>2.529202465249792</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22.489596104081</v>
+        <v>41.17733000143939</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.46708159519222</v>
+        <v>24.76716474378587</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.41110475422834</v>
+        <v>19.43314640589148</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.45919046489723</v>
+        <v>33.13865048969288</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>22.48086028012925</v>
+        <v>35.53093985064891</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.36379278383769</v>
+        <v>4.518333588636143</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.42603353968126</v>
+        <v>14.04170156359623</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.45606263569539</v>
+        <v>22.51059896184005</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.40867404020783</v>
+        <v>15.11474815485196</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.43312093748475</v>
+        <v>22.10160030395636</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>22.46685528060043</v>
+        <v>32.52417730774806</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.32459572391061</v>
+        <v>3.090738324366939</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22.38117761880766</v>
+        <v>11.52925548651243</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>22.40502745260445</v>
+        <v>19.60517563153773</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.32615863436169</v>
+        <v>-2.426930746905711</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.44233746724818</v>
+        <v>22.67275350976887</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.49408146620988</v>
+        <v>37.95736859705434</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.45413800932454</v>
+        <v>23.29390811503612</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.51554379596229</v>
+        <v>39.43753783147821</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>22.54425821206196</v>
+        <v>47.32986995099647</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.34678454535821</v>
+        <v>2.703695405113923</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.44224113955971</v>
+        <v>18.14183368657173</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>22.50091291834103</v>
+        <v>31.21028317774994</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>22.56726547999651</v>
+        <v>59.60802011220061</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>22.58315613589</v>
+        <v>57.24000169407762</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>22.61833367270035</v>
+        <v>67.99448161146691</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.63526915169216</v>
+        <v>67.30107063384945</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.45320120464943</v>
+        <v>24.31447272365945</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>22.61639013741825</v>
+        <v>62.60810963679847</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.630836162598</v>
+        <v>66.02643750318462</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.43302056466435</v>
+        <v>28.59951317983771</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>22.52225261077056</v>
+        <v>44.16572557924755</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22.53666538108081</v>
+        <v>47.79900127747797</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>22.3771314567623</v>
+        <v>11.11792776319466</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>22.52253219052905</v>
+        <v>46.19821517037889</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.53054168440797</v>
+        <v>46.98453956165804</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>22.39355205481763</v>
+        <v>10.36920246436824</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>22.59735354442951</v>
+        <v>67.72544670623699</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>22.62888778523815</v>
+        <v>72.13277905405887</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>22.70720171085759</v>
+        <v>81.56462643296483</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>22.74491800728295</v>
+        <v>85.39613610015218</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22.76347480441008</v>
+        <v>88.03380546259405</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>22.50038777279489</v>
+        <v>34.85646617552467</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>22.7157436592317</v>
+        <v>80.96910910494977</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>22.74162548405069</v>
+        <v>82.84793411647526</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.56435535566959</v>
+        <v>62.58005941193139</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>22.56529894619087</v>
+        <v>47.3624544062621</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>22.59314337267555</v>
+        <v>57.4054516836099</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.62421429419217</v>
+        <v>64.10771478720561</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.41153005913336</v>
+        <v>13.69973721563933</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>22.59053810719066</v>
+        <v>56.16378278817794</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.61669106602355</v>
+        <v>63.85073384861589</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.40210285973072</v>
+        <v>18.01349505622046</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.49912519512861</v>
+        <v>35.65261091393673</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.52135493573848</v>
+        <v>44.45123995518761</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.36073109382663</v>
+        <v>5.991723555404622</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>22.51280171072199</v>
+        <v>38.79836340062704</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.53126954674143</v>
+        <v>45.50249491171245</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.38122351758118</v>
+        <v>4.493721712572441</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>22.59214595536244</v>
+        <v>62.65656072129352</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.63101623296336</v>
+        <v>74.39963968195636</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>22.70539443186911</v>
+        <v>77.26196498087171</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>22.73309483788728</v>
+        <v>79.57138838610157</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.76652562603897</v>
+        <v>90.14402486165838</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.4650011628761</v>
+        <v>21.70617081758921</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>22.70305505526778</v>
+        <v>75.10338977239749</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>22.73823102511142</v>
+        <v>83.01525921248414</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>22.53204528937538</v>
+        <v>60.61103539271129</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.47599362492994</v>
+        <v>29.99330511436027</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>22.50721256379273</v>
+        <v>36.81352584576224</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>22.54862185415312</v>
+        <v>48.40888462962518</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.38176741155286</v>
+        <v>8.999079107953328</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>22.52078403209046</v>
+        <v>46.1301114954199</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22.56232297892402</v>
+        <v>58.37183241763472</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.40331549294689</v>
+        <v>13.3660132347285</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22.47988150331168</v>
+        <v>35.64371448092779</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>22.51661497823757</v>
+        <v>47.64601033990856</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.37789801956973</v>
+        <v>9.057680539991402</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22.49362973586058</v>
+        <v>41.47502797315133</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.52642804329954</v>
+        <v>52.59172297464326</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.3798903945532</v>
+        <v>3.232392675716941</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22.54638300092919</v>
+        <v>57.40848417003031</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>22.59835905278664</v>
+        <v>74.61501798858446</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>22.59914713301806</v>
+        <v>63.70127809128904</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>22.6379872070432</v>
+        <v>70.36577916843996</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22.6881361140065</v>
+        <v>88.89958062081294</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.41904990124113</v>
+        <v>14.9096390291106</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>22.61197207331576</v>
+        <v>63.90596331962652</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>22.67326636365115</v>
+        <v>81.73084485703733</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.39802351892263</v>
+        <v>10.60249953684772</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.40184829028164</v>
+        <v>12.04891883359859</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.42274712767244</v>
+        <v>25.7807149918592</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.36257733576986</v>
+        <v>0.5675403309645333</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.40402344083264</v>
+        <v>16.74973376605415</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.41554023369628</v>
+        <v>20.88635180629362</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>22.37792144331661</v>
+        <v>4.90665418018089</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.45190658221616</v>
+        <v>36.00265088772818</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>22.46659858429869</v>
+        <v>40.07734052197746</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.40990500683315</v>
+        <v>14.82871113927721</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.43590612111393</v>
+        <v>17.38876103934663</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>22.4381832011042</v>
+        <v>16.17783454886503</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.37953498739212</v>
+        <v>12.11431039367623</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.38232931445009</v>
+        <v>13.29978636434858</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.41826856215535</v>
+        <v>31.70011091359725</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.390544656077</v>
+        <v>8.002353907712052</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.41090604028903</v>
+        <v>21.47612647413218</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.43136292522201</v>
+        <v>24.69764742881732</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.32272696504453</v>
+        <v>-3.865858080376121</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22.36331184735632</v>
+        <v>10.0635568780821</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.3846216700766</v>
+        <v>14.22728059493752</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.32424093290613</v>
+        <v>-3.060527738518704</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.42551658489447</v>
+        <v>23.72342024961691</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>22.38689898274087</v>
+        <v>14.3926200879024</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.42430008024651</v>
+        <v>22.37495732316347</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>22.43486909409467</v>
+        <v>28.95934143813749</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>22.35594304612114</v>
+        <v>1.767169053637129</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.44611010921736</v>
+        <v>30.40170853253809</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.45116036634816</v>
+        <v>30.96762761645216</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.37605767435076</v>
+        <v>4.705592078488216</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.4987614345074</v>
+        <v>47.31923536811155</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.50170389762451</v>
+        <v>45.96442552050041</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22.50210704276181</v>
+        <v>40.3133204429816</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.52641989060669</v>
+        <v>48.08483072052287</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.5271408690081</v>
+        <v>47.67633271138818</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.40015183296602</v>
+        <v>19.11414294186118</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.46952541900831</v>
+        <v>37.90641720477025</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>22.48891978527092</v>
+        <v>45.31540342451337</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.37640681346188</v>
+        <v>16.25017163667919</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.4506661154077</v>
+        <v>32.53054680950395</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>22.46572957939473</v>
+        <v>35.22282127331315</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>22.32209961177499</v>
+        <v>0.7235499519718083</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.43847512572292</v>
+        <v>29.48110978840167</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>22.45974145648068</v>
+        <v>33.67061897463036</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.33969596390585</v>
+        <v>2.486423249486091</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.51582341342502</v>
+        <v>47.89250724573533</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.36747748603847</v>
+        <v>3.990447149292155</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.40675936159616</v>
+        <v>14.7385383043598</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.42248115176213</v>
+        <v>23.48505102807608</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.34728787755453</v>
+        <v>-0.7599659910047158</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.43766966003224</v>
+        <v>26.44854203272551</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.44981838447634</v>
+        <v>29.12094172463597</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>22.36775086437752</v>
+        <v>2.75834991394224</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>22.49139389278664</v>
+        <v>45.12022090661932</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>22.49987425418546</v>
+        <v>46.15190570284331</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>22.50116869969968</v>
+        <v>43.84810713722753</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>22.52016801178386</v>
+        <v>50.35710824772596</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>22.53098106754121</v>
+        <v>54.65813807971395</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.3677248679963</v>
+        <v>4.627269809790537</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.44819530928311</v>
+        <v>24.83819759670936</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.47456039638581</v>
+        <v>34.41085061811139</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.34578832457215</v>
+        <v>8.983190433253029</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.423386428068</v>
+        <v>24.91033638308595</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>22.44908143073046</v>
+        <v>31.24138950231541</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.30156427017756</v>
+        <v>-1.780138340228891</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.42036591852173</v>
+        <v>23.78665739079302</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.45451588810444</v>
+        <v>32.0158818574723</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>22.32304380646264</v>
+        <v>-0.4581485492160979</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.50178041322086</v>
+        <v>42.50366635788072</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.36998037992119</v>
+        <v>-1.193127651377285</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.39977550221005</v>
+        <v>9.960928355643759</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.42397524397558</v>
+        <v>24.10471688483785</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.36594896227483</v>
+        <v>-1.037798640801636</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.43592812816719</v>
+        <v>26.5936124462787</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.45527042369194</v>
+        <v>35.44646841348825</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.37644669870728</v>
+        <v>-0.2830999659007603</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.47343537873213</v>
+        <v>43.99509516694583</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>22.492290334305</v>
+        <v>49.77835940426307</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>22.46670844185278</v>
+        <v>42.2269493420179</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>22.48256971098536</v>
+        <v>46.66743783563506</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.4997239817858</v>
+        <v>51.17389638356903</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>22.36787277834374</v>
+        <v>-0.9632379103020234</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>22.42777684552265</v>
+        <v>20.46756328327795</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>22.46950604144358</v>
+        <v>38.45196681382091</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>22.35011333206316</v>
+        <v>3.308600606702139</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.40935602759144</v>
+        <v>21.864903785345</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>22.44156367166127</v>
+        <v>29.21907354032787</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>22.322002956105</v>
+        <v>-3.058899518208342</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.40910294898639</v>
+        <v>20.66271839741386</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.44616974737782</v>
+        <v>31.78257444259891</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>22.32684625810543</v>
+        <v>-2.502696967304239</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.46517359906094</v>
+        <v>36.7208885738373</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.45732263153873</v>
+        <v>27.82355161606312</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.38632152045141</v>
+        <v>20.45829906733909</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.44084513299925</v>
+        <v>32.35436856272993</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.4576058047043</v>
+        <v>34.7262363810133</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.33048705332175</v>
+        <v>6.699552144762894</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.39378815504947</v>
+        <v>19.1052710944701</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.42377353517431</v>
+        <v>26.5568795251638</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.39528249354779</v>
+        <v>14.72984033064799</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.42848432701141</v>
+        <v>24.54234926760678</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.46909975594052</v>
+        <v>35.34064778477131</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.30166108650175</v>
+        <v>-3.963585368647738</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.3707094251143</v>
+        <v>9.851776492377931</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.39955882962332</v>
+        <v>17.48424103502376</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.31940577035273</v>
+        <v>1.428742976004099</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.45714209979335</v>
+        <v>30.35775549828594</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.51218706989555</v>
+        <v>45.53350249861141</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.45751563600173</v>
+        <v>28.27287123759608</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.5240518020773</v>
+        <v>42.04622476043139</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.55690209308784</v>
+        <v>48.90731047189693</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.32573553826914</v>
+        <v>7.929074282665287</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.43657415190225</v>
+        <v>24.58059180432465</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.49781340693514</v>
+        <v>37.67670353036646</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.54270479042964</v>
+        <v>55.77904715617483</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>22.53205368547142</v>
+        <v>46.88875277697964</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.57400989874845</v>
+        <v>56.33634265361558</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.58894890945196</v>
+        <v>58.1615124699335</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.38439077735823</v>
+        <v>17.78520155202652</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.55464376323074</v>
+        <v>52.37523499683974</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.57104156342344</v>
+        <v>54.74351838758989</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.40019709843992</v>
+        <v>23.50528262089774</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>22.50033116755812</v>
+        <v>38.95866704485707</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>22.52250033725368</v>
+        <v>44.61592684910552</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.33241307569124</v>
+        <v>3.836562227513607</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.49657703829314</v>
+        <v>40.42240091992117</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.51001893477747</v>
+        <v>43.79448503553643</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.36536420051557</v>
+        <v>8.974180768149665</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>22.59526640993185</v>
+        <v>64.51439620058282</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>22.63046492998156</v>
+        <v>70.15658822014385</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>22.68670538085069</v>
+        <v>72.24451893082974</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>22.72848063126107</v>
+        <v>77.30766828734578</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.75495752509647</v>
+        <v>83.83851573993888</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.44368947905167</v>
+        <v>30.18559682625455</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>22.68314084646141</v>
+        <v>71.5008990707766</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>22.71142091637221</v>
+        <v>75.69455654407942</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>22.5394977345032</v>
+        <v>56.51330926276137</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.51096447547903</v>
+        <v>39.73835601313634</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.54446314592256</v>
+        <v>47.45150812384591</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>22.57534970292793</v>
+        <v>54.99937232834117</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.33626340718771</v>
+        <v>8.45254260442341</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>22.52325799868956</v>
+        <v>46.93575004043686</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>22.55238232139085</v>
+        <v>51.33379011063865</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.36717106074282</v>
+        <v>15.19565626650794</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>22.47515072526354</v>
+        <v>33.40327638790919</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.50522361369044</v>
+        <v>41.48538659830452</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.31411565107893</v>
+        <v>-0.1402330688132416</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>22.4854937291676</v>
+        <v>37.1175163093779</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>22.5092005001151</v>
+        <v>42.65400694029282</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>22.3506776594036</v>
+        <v>4.602598646182255</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>22.58748151277966</v>
+        <v>62.42162132270315</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>22.63024189901193</v>
+        <v>71.25254115368051</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.68084218928096</v>
+        <v>69.64957409046085</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>22.71128349653494</v>
+        <v>73.45500973793419</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.75448890489649</v>
+        <v>86.7373533903662</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.39988099866971</v>
+        <v>17.76318230956534</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.66386943072521</v>
+        <v>67.81468599209204</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>22.70203575770081</v>
+        <v>74.48096070890146</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.50825760968957</v>
+        <v>50.68115448078565</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.4317518574741</v>
+        <v>24.27093565048188</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.4659794199707</v>
+        <v>32.73331657508945</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.50509120979836</v>
+        <v>39.33579621388564</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.32205281181942</v>
+        <v>3.528158184705159</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.46796525305238</v>
+        <v>40.37035177191679</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.51045911786847</v>
+        <v>48.05734355165832</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.37391950787322</v>
+        <v>10.54673148866468</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.46197572871018</v>
+        <v>33.37027575447917</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.50492087041489</v>
+        <v>44.13555724746186</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.33789996582225</v>
+        <v>1.060473184899198</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>22.47090354595309</v>
+        <v>36.16023576646273</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.50743182695147</v>
+        <v>45.01243481489217</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.35508907470934</v>
+        <v>3.714585324760829</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>22.54497744192365</v>
+        <v>58.18437851774408</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.6000519572838</v>
+        <v>72.33318471502118</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.58544780506526</v>
+        <v>61.24619985475074</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22.62557269593964</v>
+        <v>69.03747551793327</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>22.68229351669159</v>
+        <v>83.21965047147829</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.37126062260556</v>
+        <v>10.15730496383177</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.58774027933014</v>
+        <v>64.47832706537818</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.65143903656908</v>
+        <v>75.46969528899535</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.40368483420338</v>
+        <v>11.69527913999741</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.42362067936157</v>
+        <v>15.26488361215986</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.44487932922952</v>
+        <v>26.41689441319099</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.35960790394373</v>
+        <v>0.02906065612175368</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.42245818915038</v>
+        <v>18.58833161125423</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.43433358243355</v>
+        <v>22.64313120939961</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>22.37585650826445</v>
+        <v>4.897654367816934</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.47222152246706</v>
+        <v>42.22188187150489</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.48908147479461</v>
+        <v>43.55889923020867</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.42770926331979</v>
+        <v>15.71460010284704</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.45738532381709</v>
+        <v>19.80067883958158</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.4640079774647</v>
+        <v>20.43275202407139</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>22.39955450818073</v>
+        <v>23.98288835036641</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.41475248667122</v>
+        <v>19.22810032921008</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.46021894160978</v>
+        <v>33.12885312836239</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.42332447065375</v>
+        <v>17.84232324342896</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.46041673410756</v>
+        <v>31.25401051386153</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.47277310232925</v>
+        <v>34.5358968065101</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>22.34482140040934</v>
+        <v>2.232780908637032</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.40414321405311</v>
+        <v>17.54786241586331</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.41875157899243</v>
+        <v>21.64955557776897</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>22.34054441208414</v>
+        <v>0.3689086390847365</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.46484452852207</v>
+        <v>29.32046630042484</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.40615989312296</v>
+        <v>21.6596668745518</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.46542853561582</v>
+        <v>36.36673939229759</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.47305028993441</v>
+        <v>37.64702692326529</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.366850483434</v>
+        <v>3.62542629020918</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.48435869847297</v>
+        <v>39.15018629168564</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.48668026116283</v>
+        <v>38.51833295780909</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.38979674707338</v>
+        <v>7.669576230616361</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.54155222483346</v>
+        <v>59.56004358284835</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>22.5434706667045</v>
+        <v>54.97646093894664</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.55320999503559</v>
+        <v>49.97160328113334</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.58020138063891</v>
+        <v>58.43211075490871</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>22.58268540930275</v>
+        <v>59.69000903825037</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.45062934333518</v>
+        <v>32.57377088571579</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>22.53911987412812</v>
+        <v>46.34005542141627</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>22.56436713804654</v>
+        <v>48.12002933418422</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.43042904084683</v>
+        <v>26.8549008676182</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>22.52864468144945</v>
+        <v>48.01733889769534</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>22.5301396171053</v>
+        <v>46.26068906514575</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>22.36686854657561</v>
+        <v>7.18616590829679</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.5089232870486</v>
+        <v>41.07094046080673</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>22.51832955625319</v>
+        <v>42.48881177694047</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.38132687625926</v>
+        <v>9.01741559540859</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.5888535502736</v>
+        <v>62.26787408365806</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.38553320307938</v>
+        <v>9.444380119039185</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.44710502198799</v>
+        <v>27.37323007295805</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.45990552089914</v>
+        <v>31.42383198391928</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.35849938469459</v>
+        <v>2.118802866060282</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.47622176029109</v>
+        <v>35.53411864176715</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.48592886335745</v>
+        <v>37.49286270966286</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.38201959019229</v>
+        <v>6.347446324706244</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.5350468929621</v>
+        <v>58.00719706182919</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.54244471709029</v>
+        <v>56.75610981654997</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.55507675393976</v>
+        <v>57.30726983846395</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>22.57674129984134</v>
+        <v>64.34369021304823</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.58912489123561</v>
+        <v>69.95423815959899</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.41997959262086</v>
+        <v>18.32600461813536</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>22.52068760800569</v>
+        <v>33.93342833437826</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.55243981856742</v>
+        <v>39.31754940234611</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.3978668274109</v>
+        <v>18.41173381493249</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.50030231370921</v>
+        <v>39.27338716241191</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.51272377505945</v>
+        <v>42.32496541598975</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.34655937719103</v>
+        <v>4.137540259999518</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>22.49149806596115</v>
+        <v>32.83817909514227</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>22.51440836985413</v>
+        <v>40.29228573523191</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.36545503162035</v>
+        <v>5.546607216440773</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.57643766711091</v>
+        <v>56.54095715223443</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.38302370466421</v>
+        <v>5.047588406574501</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.43032639020359</v>
+        <v>21.7574518639108</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.45414105951385</v>
+        <v>31.65717029746873</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.37688622238784</v>
+        <v>3.079943244115299</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.46871578299222</v>
+        <v>37.74418046086366</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.4882612722878</v>
+        <v>42.74255143773799</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.38755533680696</v>
+        <v>4.441606222656031</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.50799189993029</v>
+        <v>57.85053657759977</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>22.52790175877193</v>
+        <v>59.9688442264824</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.5043507403856</v>
+        <v>57.08367981071166</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.52419371003142</v>
+        <v>61.78773361983069</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.54490587976835</v>
+        <v>68.61478891593136</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.40577289678345</v>
+        <v>15.34755087282981</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.48144975046284</v>
+        <v>28.50687072469621</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.53075933742105</v>
+        <v>44.09123490387001</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.39542582547897</v>
+        <v>13.64378125384618</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.47438076588094</v>
+        <v>36.56845953084395</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.49856927849824</v>
+        <v>43.3381902568818</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.36591672081287</v>
+        <v>5.703535556392698</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.47396976740843</v>
+        <v>34.39337531396477</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>22.50514655373367</v>
+        <v>46.65287933426941</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.36490328607679</v>
+        <v>4.288229966752034</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.52910751464717</v>
+        <v>51.9180921877925</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>22.49156739172388</v>
+        <v>33.16000351666814</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.44125296270586</v>
+        <v>26.85348437566159</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.49737680312085</v>
+        <v>41.86869052955618</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.51548903032243</v>
+        <v>42.82158502877574</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.38180502287373</v>
+        <v>11.88113033103763</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.464697812191</v>
+        <v>25.68190308038985</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.49247413423208</v>
+        <v>31.5808135227336</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.41295184479314</v>
+        <v>19.76913212971342</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>22.45635863397118</v>
+        <v>28.64816544849173</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.48694161117317</v>
+        <v>37.38085609874685</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>22.30890597896903</v>
+        <v>1.501669804896867</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>22.39059029760683</v>
+        <v>13.83324719934818</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.41099906079209</v>
+        <v>21.43221890170334</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.31793070853606</v>
+        <v>0.7710292576313158</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.47220818831093</v>
+        <v>30.46567542175296</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>22.5210208503853</v>
+        <v>45.36166586200611</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.48527592865306</v>
+        <v>28.16996892656132</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.55557977873413</v>
+        <v>45.69444231444598</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.582230211378</v>
+        <v>51.46686283265593</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.35465134391749</v>
+        <v>11.53156090632572</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.47570158583145</v>
+        <v>28.42793804862603</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>22.53634205070319</v>
+        <v>40.26620605061078</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>22.60530637217426</v>
+        <v>66.4680357094134</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.6381294282579</v>
+        <v>65.77095965239829</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.67879615728224</v>
+        <v>76.63688026523229</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>22.69106609597715</v>
+        <v>75.09852255058692</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.48305871568593</v>
+        <v>31.04389635886839</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.68117842124065</v>
+        <v>72.02711963578787</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>22.68874039570099</v>
+        <v>72.76541433692776</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.43812580240498</v>
+        <v>32.35049916818883</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>22.55591419726426</v>
+        <v>49.17734171167696</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>22.56171075415585</v>
+        <v>50.35285100709781</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.36173013482418</v>
+        <v>8.532127824673353</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>22.54573703174528</v>
+        <v>45.90652192183131</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>22.54478118230017</v>
+        <v>46.09944582720497</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.38838012097986</v>
+        <v>11.00251133057871</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>22.64352615578885</v>
+        <v>71.33894636888708</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>22.66627804804383</v>
+        <v>74.33687810238558</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>22.76512025618265</v>
+        <v>82.42135613497723</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>22.80736998269328</v>
+        <v>88.0736255538299</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>22.8220379885122</v>
+        <v>89.84093561771201</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.51939017849368</v>
+        <v>39.99299508831267</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>22.77743610107752</v>
+        <v>85.41244030420914</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>22.79769288202263</v>
+        <v>85.34674769778893</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.60388750618427</v>
+        <v>69.06659933325069</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.62069075246039</v>
+        <v>57.83862554380271</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>22.6529445988805</v>
+        <v>67.86124149132556</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>22.68112883808451</v>
+        <v>72.9130752149855</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.43799734105473</v>
+        <v>21.94103679045946</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.65447248375457</v>
+        <v>67.30222822762272</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.67444305334835</v>
+        <v>71.00369698920652</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.40413803726556</v>
+        <v>22.70844822313148</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.53079701700798</v>
+        <v>41.78811736870828</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.54477883377056</v>
+        <v>46.93404660610727</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.34447323851257</v>
+        <v>3.854588652355819</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>22.53620221611724</v>
+        <v>39.43005885295199</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>22.5461554431418</v>
+        <v>43.99715770088368</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>22.37548942238964</v>
+        <v>6.030817984739397</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.63854917344666</v>
+        <v>67.55863363648884</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.66897017873826</v>
+        <v>75.91879343538814</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.76439582193029</v>
+        <v>79.69211333668061</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.79513402556032</v>
+        <v>83.68375168952208</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>22.82648368331552</v>
+        <v>91.93613904667919</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.48004280364393</v>
+        <v>28.57898561351175</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.76430189460403</v>
+        <v>81.51030115684738</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.79399876125495</v>
+        <v>85.17998227793454</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.56663755162452</v>
+        <v>66.91087710080629</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.51755666617525</v>
+        <v>39.6353542372343</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>22.55410383021955</v>
+        <v>48.28376876181667</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>22.59429060856554</v>
+        <v>56.99066785277319</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.40358146139991</v>
+        <v>17.37489967677526</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.57401155887896</v>
+        <v>59.48948827073121</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>22.61307490120527</v>
+        <v>66.61733228576614</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.40785163367767</v>
+        <v>17.95725324445477</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.50973055608873</v>
+        <v>42.05443172688939</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>22.54260599723098</v>
+        <v>50.01587748225604</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.37032078388894</v>
+        <v>6.491618302408984</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.51864038504427</v>
+        <v>42.93632345110529</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>22.54752089211715</v>
+        <v>50.75816225276814</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.3792623902447</v>
+        <v>5.092590840903657</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>22.58924008407519</v>
+        <v>63.41048966099494</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>22.63735225204978</v>
+        <v>76.3627269723479</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.6497702664292</v>
+        <v>68.87278497301811</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>22.69390007135079</v>
+        <v>77.30383790077873</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>22.74431086834946</v>
+        <v>89.19607580682474</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.43562114649048</v>
+        <v>23.77726713186576</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.66773425133124</v>
+        <v>74.60964534360497</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.72902864997957</v>
+        <v>85.61720478006366</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.40927462887502</v>
+        <v>12.47196766707971</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>22.39952410438472</v>
+        <v>11.89593273100724</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.41405187151112</v>
+        <v>19.6446915021566</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.36623280708219</v>
+        <v>1.147349280228713</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.38475712861557</v>
+        <v>6.311260447713952</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.39302065458006</v>
+        <v>8.751506387437647</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.37700162628687</v>
+        <v>5.085006646092726</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.42698061096648</v>
+        <v>20.6504592139868</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.43712908425485</v>
+        <v>22.48767021334726</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.39069788192349</v>
+        <v>11.56559011782372</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.411151509858</v>
+        <v>13.7469567615618</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.41439932754901</v>
+        <v>12.90175909573875</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.37957637716282</v>
+        <v>7.413787007747647</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.37081001147748</v>
+        <v>9.00428941874473</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.39430439381945</v>
+        <v>16.2723161487725</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.40616529728114</v>
+        <v>10.51767835378561</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.40979010853181</v>
+        <v>19.09482132716984</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.42973444737908</v>
+        <v>22.46434301765397</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>22.34367997847306</v>
+        <v>-0.06213802901378074</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>22.35925986186696</v>
+        <v>6.518429107589728</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.38278091219513</v>
+        <v>10.82414526067592</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>22.3393991671106</v>
+        <v>-0.4986286225495995</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.41082388818038</v>
+        <v>15.25724895797715</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.39915916834063</v>
+        <v>14.45612314600525</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.42037357314097</v>
+        <v>20.72178196623483</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.42578521148962</v>
+        <v>23.07055867400057</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>22.36185994739318</v>
+        <v>3.347514960362343</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.4247980831708</v>
+        <v>20.6961921263369</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.42809307012327</v>
+        <v>21.59528852319226</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.37600618453812</v>
+        <v>5.919136893681276</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.47077501584255</v>
+        <v>33.08996792520464</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.47057566340358</v>
+        <v>31.48935285277048</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.47498522875862</v>
+        <v>30.07675139622678</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.49459975119164</v>
+        <v>35.96724395877726</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.49765481221919</v>
+        <v>36.5266721701994</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.39892271020445</v>
+        <v>14.03383456490729</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.45198289021444</v>
+        <v>30.64383556682671</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.46092915961033</v>
+        <v>32.94063251694465</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.39410061140216</v>
+        <v>14.31553588409266</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.44791639182796</v>
+        <v>27.85965658625254</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.46463616553486</v>
+        <v>31.60175511478642</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.34744437607284</v>
+        <v>3.92751561928165</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.43292260936798</v>
+        <v>24.62227925980728</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.45894754911596</v>
+        <v>30.6014228724565</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.35691167226128</v>
+        <v>4.776761762429842</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.49767682491521</v>
+        <v>38.50360318188225</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.38151687809554</v>
+        <v>7.236460082155027</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.40432340741969</v>
+        <v>14.79632735899861</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.41517925808123</v>
+        <v>19.71896613629165</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.35442819730271</v>
+        <v>2.335269855987448</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.41746430069486</v>
+        <v>17.49721001989909</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.42809357466735</v>
+        <v>21.27529244423044</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.3690279741595</v>
+        <v>5.517307862019759</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.46469375637683</v>
+        <v>31.56356616692766</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>22.47026589141353</v>
+        <v>32.91909476100645</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>22.47407295464806</v>
+        <v>31.55416244081806</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.48879630246525</v>
+        <v>35.42170819624588</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.5015697652637</v>
+        <v>40.6117604341952</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.36917584645579</v>
+        <v>4.603210641600629</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.43196529559645</v>
+        <v>20.12025506963614</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.44844448577217</v>
+        <v>24.92923845407996</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.3650918457103</v>
+        <v>8.591749563433776</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.42165680590518</v>
+        <v>20.58801424024242</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.44910834245067</v>
+        <v>28.39733669572701</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.32753379485906</v>
+        <v>1.812080216476151</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.4149023720195</v>
+        <v>18.35918249011101</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.45389839557233</v>
+        <v>29.05283099029307</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.3408851319706</v>
+        <v>2.332257897563043</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.48396259104815</v>
+        <v>32.3409589371355</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>22.38217233543632</v>
+        <v>3.714551667030054</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.39714331494969</v>
+        <v>10.19464244019471</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.4162980968666</v>
+        <v>19.92929608030875</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.36963060359939</v>
+        <v>0.6922032506890901</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.41581928580935</v>
+        <v>14.21617248525725</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.43292247920797</v>
+        <v>23.79648309282734</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.37603305733755</v>
+        <v>1.565042795354174</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.44861421001126</v>
+        <v>27.02071722337378</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.46407370382671</v>
+        <v>32.89876549492897</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>22.44313327096337</v>
+        <v>28.18737995670837</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>22.45460613799963</v>
+        <v>30.55157626136339</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.47245679070429</v>
+        <v>35.56245329588279</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.36857833459297</v>
+        <v>1.230562835188749</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.41265272563779</v>
+        <v>17.64337514200425</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.4443355026356</v>
+        <v>26.68210028809277</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.36617606589785</v>
+        <v>5.25698769443872</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.40636212834307</v>
+        <v>17.4251841349193</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.43893955301799</v>
+        <v>25.8963348405904</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.34087319137887</v>
+        <v>0.6191556958222897</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.40059370788117</v>
+        <v>14.02859720642009</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>22.44057113414275</v>
+        <v>26.95939131982195</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.34008767503564</v>
+        <v>0.1024679985781951</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.44723770212916</v>
+        <v>24.93576701614743</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.44356387955014</v>
+        <v>19.55870602389829</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.37808337002393</v>
+        <v>17.00028560539823</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.42478216853975</v>
+        <v>27.5252839639931</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>22.44588607296589</v>
+        <v>28.22772615350263</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.33939489628769</v>
+        <v>4.233317292926959</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.38038926255793</v>
+        <v>12.17904268716996</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>22.40841061809406</v>
+        <v>18.11348109069701</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>22.4067727527633</v>
+        <v>15.67241907094548</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.42161464950643</v>
+        <v>22.28005108979889</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.45950542526055</v>
+        <v>30.73973036469995</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.31521254784866</v>
+        <v>-0.6956686518040271</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.35644834876415</v>
+        <v>6.762221479820017</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.38681971263891</v>
+        <v>12.73371343195828</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.32822763554672</v>
+        <v>2.36580530174464</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.43299377265964</v>
+        <v>21.43494512842214</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>22.48624778619061</v>
+        <v>33.30810629599566</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.43697619029603</v>
+        <v>21.72246368372236</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.49289838047508</v>
+        <v>33.96943959683903</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.53492822081344</v>
+        <v>38.92851328990174</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.33158876634881</v>
+        <v>7.225930157780606</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.41287275925749</v>
+        <v>18.23536200038315</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>22.4713012351601</v>
+        <v>27.74020152192919</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>22.5278150727904</v>
+        <v>48.15033788507455</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>22.51452381310051</v>
+        <v>38.10659802688066</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.55034825099576</v>
+        <v>47.7956087842744</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>22.57208758219044</v>
+        <v>49.77446000410464</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>22.39126445900075</v>
+        <v>13.11007405950403</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.53177825955031</v>
+        <v>41.87198513442212</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.55011826700924</v>
+        <v>46.09723700528093</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.41948922391713</v>
+        <v>22.91942117235164</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.49675202753817</v>
+        <v>35.98995362000283</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>22.51921095199838</v>
+        <v>41.50320113164278</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.35583782046818</v>
+        <v>7.647183410344137</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.48506661556729</v>
+        <v>35.4008245765454</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>22.50366563701704</v>
+        <v>40.43731910060905</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>22.38193943485087</v>
+        <v>11.90811378967921</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>22.57231176722051</v>
+        <v>55.72460365960966</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>22.60895993753694</v>
+        <v>61.73383011825484</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>22.66120596728671</v>
+        <v>62.83532587492346</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>22.69475544157754</v>
+        <v>68.41886704235168</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.73381131267255</v>
+        <v>75.99955275048855</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>22.45316733467718</v>
+        <v>28.69130076409056</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>22.65392148792987</v>
+        <v>61.91484581542711</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>22.68472917109999</v>
+        <v>66.37960481939967</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>22.52498205622884</v>
+        <v>48.88144405359126</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>22.49302743321628</v>
+        <v>30.46680449200304</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>22.52095063529604</v>
+        <v>37.84536390497973</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>22.55802264993998</v>
+        <v>46.06093855444978</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.34556786898617</v>
+        <v>6.319004526904667</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.50086018187027</v>
+        <v>36.09589499907392</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>22.53232660605118</v>
+        <v>43.03515529723975</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.38897584931594</v>
+        <v>16.1425378360092</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>22.47320523022184</v>
+        <v>30.40440159093389</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>22.50399535416406</v>
+        <v>39.32502330476183</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>22.33886743454467</v>
+        <v>3.74069815517683</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.47446460690913</v>
+        <v>30.63643862579272</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>22.50372846572671</v>
+        <v>39.22867861688035</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.36857665457097</v>
+        <v>7.98357934040385</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.5652797130941</v>
+        <v>52.39344222907358</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>22.60991081728518</v>
+        <v>63.15239967884973</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.65488571607317</v>
+        <v>58.85357101288209</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>22.67792368557073</v>
+        <v>62.7044052848879</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.73300518506366</v>
+        <v>78.24737260444816</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.41227944021599</v>
+        <v>18.61984130126011</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>22.63519302592599</v>
+        <v>56.88071673749663</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.67659226868595</v>
+        <v>65.18580638563533</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22.49199182756134</v>
+        <v>40.84473778373687</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>22.41712778259346</v>
+        <v>17.86147936116843</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>22.44528432045626</v>
+        <v>24.02266751779607</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>22.48812156282739</v>
+        <v>30.60460627335672</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>22.32981281469156</v>
+        <v>2.927913263354462</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>22.44745868605683</v>
+        <v>28.33779737509391</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>22.49010563440681</v>
+        <v>37.19455129788088</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>22.38702069405726</v>
+        <v>12.44588890026537</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>22.45343947766881</v>
+        <v>29.26811094478479</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>22.49555766149937</v>
+        <v>40.68180251791816</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>22.34997376621158</v>
+        <v>4.156255274427618</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>22.45176495892666</v>
+        <v>28.35521473022181</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>22.49139993783694</v>
+        <v>39.49747697111135</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>22.36268362504363</v>
+        <v>5.778863503172012</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>22.51737786790767</v>
+        <v>45.67164259866232</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>22.57257504985944</v>
+        <v>61.38945745791725</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>22.55654879950733</v>
+        <v>49.19676386825414</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>22.58855027317678</v>
+        <v>55.08930479153611</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>22.65348820090935</v>
+        <v>71.43237706769797</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.37529926499995</v>
+        <v>11.29135066525341</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>22.55516564493895</v>
+        <v>51.52367211240033</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>22.61911124603946</v>
+        <v>63.69078521690498</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.42387333570495</v>
+        <v>20.82453341918427</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.4337304702738</v>
+        <v>19.60035923638373</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.44848971102365</v>
+        <v>34.02480014481439</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.41287354438567</v>
+        <v>10.54320975710896</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.45261034347881</v>
+        <v>35.43953161339836</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.460416296392</v>
+        <v>39.26058396207333</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>22.40948714884987</v>
+        <v>12.59360287355751</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.46697453864126</v>
+        <v>49.13696972718721</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>22.47938625357776</v>
+        <v>53.51451219323028</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.44290851434561</v>
+        <v>21.94552655340703</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.46025475261743</v>
+        <v>23.31474598740263</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.46467569337586</v>
+        <v>24.37707299675631</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.43072842287565</v>
+        <v>32.18752574125926</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.43528756720104</v>
+        <v>22.76567341581189</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>22.46877183983617</v>
+        <v>45.9619366328823</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.42858904549202</v>
+        <v>21.14508429322699</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.44468895622851</v>
+        <v>29.26873563055481</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.45467146503875</v>
+        <v>35.69580565034182</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.40681845510342</v>
+        <v>26.34543186767402</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.43817869728503</v>
+        <v>33.62922733393513</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.44812972273769</v>
+        <v>36.68909857343748</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.37975117869025</v>
+        <v>3.050235316966816</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.44968028420837</v>
+        <v>25.72649517208351</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.42455986883859</v>
+        <v>27.11800686937105</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>22.45908572035257</v>
+        <v>36.83141721278596</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>22.46537708234654</v>
+        <v>41.78542714343295</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.4182520130496</v>
+        <v>11.3627438918703</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.492413362331</v>
+        <v>53.19643003453362</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>22.49436502295869</v>
+        <v>51.29957838942926</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.41817125136228</v>
+        <v>13.01859625054973</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.51044874366508</v>
+        <v>63.16381505249539</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>22.51363820604503</v>
+        <v>62.13230452290507</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>22.52355639872379</v>
+        <v>59.51193025596973</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>22.53884028228885</v>
+        <v>62.27588281887165</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.54033524752791</v>
+        <v>63.20708795903602</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>22.46549740323625</v>
+        <v>44.99181680889839</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>22.51596145766618</v>
+        <v>56.80799540225976</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>22.53695269229605</v>
+        <v>67.41826358469044</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>22.43198881080984</v>
+        <v>27.60554402441571</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>22.48608112331674</v>
+        <v>42.47934403988563</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>22.48952778659696</v>
+        <v>42.93829667060615</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>22.42256302229016</v>
+        <v>28.88355358057217</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.50543430896614</v>
+        <v>52.58001807417462</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>22.51249319203897</v>
+        <v>51.60918803971734</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>22.40567037403807</v>
+        <v>10.09044791242663</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.52751038265259</v>
+        <v>55.8258759126039</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.4100705136555</v>
+        <v>13.95236722214335</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.44609587738233</v>
+        <v>26.76595424061615</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.45569218255623</v>
+        <v>34.40325775898084</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.41109461454257</v>
+        <v>9.391280152177718</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.48527178325369</v>
+        <v>48.7385848574673</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.49203078296277</v>
+        <v>49.39459912744248</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.41184803164349</v>
+        <v>10.32582854006754</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>22.5050037409649</v>
+        <v>60.04758056999552</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>22.51167630485364</v>
+        <v>62.37568007903339</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>22.52327720099236</v>
+        <v>67.02142915146698</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.53519979884124</v>
+        <v>67.35363075408026</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>22.54294405041741</v>
+        <v>72.25070766800073</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.44455585236594</v>
+        <v>29.24227027988776</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.50282817722628</v>
+        <v>43.98865901379517</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.52785626101842</v>
+        <v>58.28722596820047</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.41072843732383</v>
+        <v>20.56540576848462</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>22.46764246631245</v>
+        <v>34.4998579198236</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>22.47806327321018</v>
+        <v>39.75410327772877</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.40836933766452</v>
+        <v>26.61620348023933</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.49307968563624</v>
+        <v>44.11314104309781</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.50889453308724</v>
+        <v>49.51853323546314</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>22.39509945000236</v>
+        <v>7.72054479346955</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>22.51933365712341</v>
+        <v>50.68385507997087</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.40617964219989</v>
+        <v>7.539734955613323</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>22.43375770906018</v>
+        <v>19.58066563515406</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.44989025393381</v>
+        <v>32.48349354008053</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>22.41805978943365</v>
+        <v>9.442110326682229</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>22.47606738880025</v>
+        <v>51.45905857372819</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>22.48872481248834</v>
+        <v>53.91406660281843</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.41255980678793</v>
+        <v>5.994210035145759</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>22.48580066493083</v>
+        <v>58.40258289139838</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>22.49983658092243</v>
+        <v>63.11046390274173</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>22.48691409416717</v>
+        <v>63.42074402942647</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>22.49825095621711</v>
+        <v>63.21152369068994</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.51152994323345</v>
+        <v>70.14747838227073</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>22.4298961399937</v>
+        <v>20.51743623736393</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.47337725545991</v>
+        <v>32.21685459175287</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>22.50871327959151</v>
+        <v>56.73269866527356</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>22.40934975416843</v>
+        <v>15.49857691467632</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>22.4528881240951</v>
+        <v>32.92477827054194</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>22.47010398765435</v>
+        <v>41.32090767476413</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.41669543161944</v>
+        <v>28.67309315351976</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.47948302943762</v>
+        <v>48.26278642368825</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>22.50002488612454</v>
+        <v>57.90826192320631</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.39423896665459</v>
+        <v>6.551326182861487</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.49057733519589</v>
+        <v>48.16782978694802</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.46960251664019</v>
+        <v>30.64610981197706</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.43365726940179</v>
+        <v>22.42296564268155</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.4648089613752</v>
+        <v>37.15100332922352</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.47744669581293</v>
+        <v>38.89584681088395</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.4013823434105</v>
+        <v>12.83325168489734</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.44151916486996</v>
+        <v>18.53779656889241</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.46357250060987</v>
+        <v>27.1278713474774</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.42184551180286</v>
+        <v>17.4360844738002</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.44159746068757</v>
+        <v>24.0096572508222</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.46190285368918</v>
+        <v>34.17237617486603</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.39048682627661</v>
+        <v>26.00145368982194</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.43585528647091</v>
+        <v>32.4903840719351</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.44822066643944</v>
+        <v>37.27292684279956</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>22.36983537545611</v>
+        <v>1.984029900613432</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.4583760789099</v>
+        <v>29.93839524388865</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>22.49108357113015</v>
+        <v>44.66735558726073</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.46820364530225</v>
+        <v>28.44847133503371</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.5086296604198</v>
+        <v>45.8045749146524</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>22.52553731076075</v>
+        <v>54.60248734286721</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.39121905700199</v>
+        <v>11.12151249905763</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.45515746769124</v>
+        <v>25.21722385603576</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>22.49711958299396</v>
+        <v>37.69764402034374</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>22.54138047050762</v>
+        <v>60.87264393609316</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.55927963479427</v>
+        <v>59.11405629394858</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.57976263302216</v>
+        <v>69.34903165178223</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>22.58839879075319</v>
+        <v>66.4265538029552</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.46788265065138</v>
+        <v>32.71535526769372</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.57959333621052</v>
+        <v>64.05367167961958</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.58925777388293</v>
+        <v>68.04189972443396</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.43894752051181</v>
+        <v>31.35443232072257</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>22.50503745289531</v>
+        <v>44.27554236277894</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>22.50997415611621</v>
+        <v>46.50984512863884</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.42857137942342</v>
+        <v>31.55594075955613</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.53778197380213</v>
+        <v>61.25610412894571</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>22.53705267710497</v>
+        <v>56.81652272633218</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>22.41723764084925</v>
+        <v>11.5925493636451</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>22.56882074702658</v>
+        <v>68.87838413134348</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>22.58545622074961</v>
+        <v>71.27426092459339</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>22.64975809109034</v>
+        <v>82.817912304193</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>22.67150144495421</v>
+        <v>86.00529964762562</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.68040664171641</v>
+        <v>88.71457171945617</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.50139587956664</v>
+        <v>41.58048548316674</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>22.65049290814697</v>
+        <v>81.82055788549302</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>22.66740893869886</v>
+        <v>82.63108781331013</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>22.54020029295597</v>
+        <v>64.42439165848043</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.54812420061838</v>
+        <v>51.76251443009414</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.56333868175411</v>
+        <v>60.88168630796088</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>22.58202784286987</v>
+        <v>64.1428549356624</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.43926559427223</v>
+        <v>24.36865853175438</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>22.56284137483658</v>
+        <v>59.62581509414125</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.58032637622729</v>
+        <v>66.74502495437007</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>22.41745484140668</v>
+        <v>23.31982275630331</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.48930294738905</v>
+        <v>37.95197418795755</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>22.49954717199176</v>
+        <v>44.30550662125332</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>22.41675670795507</v>
+        <v>28.16734539126742</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.53083845336696</v>
+        <v>55.11797533083107</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>22.53730683108477</v>
+        <v>55.63925576691807</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.40906465417748</v>
+        <v>7.93742663720138</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>22.56585986687195</v>
+        <v>65.80057300864381</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.58745217506968</v>
+        <v>73.88179620241311</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.64971795966446</v>
+        <v>81.29998676217221</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>22.66421863935553</v>
+        <v>81.95449218640181</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.68368507711143</v>
+        <v>91.10873799264819</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.47692254269026</v>
+        <v>31.4005421307599</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.64279681731826</v>
+        <v>78.00834123786564</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>22.66574216132924</v>
+        <v>83.28184406671795</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>22.51697879028989</v>
+        <v>63.0332368554464</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>22.48259423073636</v>
+        <v>35.07152933084326</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>22.50189113701875</v>
+        <v>42.16650274747222</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>22.52840623146552</v>
+        <v>50.16296912141649</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.41580855189449</v>
+        <v>18.29186221771582</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.51280368184497</v>
+        <v>51.62694929179177</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.54151387808482</v>
+        <v>60.89492146985572</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.41837243884282</v>
+        <v>17.39610528084093</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.47608241728032</v>
+        <v>38.79499337298833</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>22.4977516192803</v>
+        <v>46.95988016415389</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>22.42639143963099</v>
+        <v>31.19670277301584</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.51446648212656</v>
+        <v>60.74020044569076</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>22.53250360861124</v>
+        <v>64.57415069057463</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>22.40848206476668</v>
+        <v>7.186262294729499</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>22.53344573040184</v>
+        <v>63.92036338631836</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>22.56551336625173</v>
+        <v>74.88895648239888</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.57363149451089</v>
+        <v>71.77467356597847</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>22.5980137996213</v>
+        <v>76.76270910678954</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>22.62994533891387</v>
+        <v>91.66641101681988</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.44375154163991</v>
+        <v>25.58791004281141</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>22.57932059117749</v>
+        <v>70.45058855929473</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.62139655741786</v>
+        <v>83.33385649692011</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.73855267928392</v>
+        <v>17.73855267928394</v>
       </c>
     </row>
     <row r="3">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.14482974608433</v>
+        <v>30.14482974608438</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.971743898776083</v>
+        <v>3.971743898776051</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.85464693145843</v>
+        <v>21.85464693145836</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.4676476521868</v>
+        <v>27.4676476521867</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.093603445484597</v>
+        <v>8.093603445484636</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>40.09388989438173</v>
+        <v>40.09388989438184</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>44.36771595402762</v>
+        <v>44.36771595402779</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.13724555067483</v>
+        <v>17.13724555067488</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.92087418743119</v>
+        <v>19.92087418743127</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.47510253623721</v>
+        <v>20.47510253623728</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.57403555100966</v>
+        <v>23.57403555100955</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.03957157757025</v>
+        <v>20.03957157757028</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.3337351976594</v>
+        <v>42.33373519765924</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.34454862695673</v>
+        <v>17.34454862695667</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.2216834916189</v>
+        <v>26.22168349161877</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.46614329059888</v>
+        <v>31.46614329059881</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.229197561350741</v>
+        <v>5.229197561350606</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.29869695129825</v>
+        <v>14.29869695129824</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.99358863434178</v>
+        <v>18.99358863434166</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.170151362186068</v>
+        <v>-1.170151362186107</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.78344751205915</v>
+        <v>19.78344751205912</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.91160036083194</v>
+        <v>21.91160036083198</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.18606779169586</v>
+        <v>32.18606779169568</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.25469277676876</v>
+        <v>35.25469277676883</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.128077518435852</v>
+        <v>2.128077518435873</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.05451012335468</v>
+        <v>36.05451012335465</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.79422926152525</v>
+        <v>35.79422926152517</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.553627319598966</v>
+        <v>6.553627319598853</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>51.41396759243071</v>
+        <v>51.41396759243061</v>
       </c>
     </row>
     <row r="33">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48.22183975075289</v>
+        <v>48.22183975075298</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53.22242338098607</v>
+        <v>53.2224233809861</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>54.16232360443526</v>
+        <v>54.16232360443536</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>33.14632702434063</v>
+        <v>33.14632702434051</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>49.75105357942955</v>
+        <v>49.75105357942964</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>58.23364681065543</v>
+        <v>58.23364681065561</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.86477548600796</v>
+        <v>23.86477548600801</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.53414167845471</v>
+        <v>40.53414167845474</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.11993392594997</v>
+        <v>41.11993392594982</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.763217280432304</v>
+        <v>8.76321728043235</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.44377428724999</v>
+        <v>36.44377428725009</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.75633843096921</v>
+        <v>38.75633843096934</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7.328270820764896</v>
+        <v>7.328270820765013</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>52.93141717434236</v>
+        <v>52.93141717434246</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.220466511838303</v>
+        <v>8.22046651183825</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.31103849292525</v>
+        <v>21.31103849292516</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.45652467117653</v>
+        <v>27.4565246711765</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.2735395563382141</v>
+        <v>-0.2735395563382674</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.8996693111462</v>
+        <v>30.89966931114625</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.75692353380816</v>
+        <v>33.75692353380814</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.901971992700247</v>
+        <v>3.901971992700197</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>47.88088398098687</v>
+        <v>47.88088398098677</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.05130673009852</v>
+        <v>51.05130673009858</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>54.12158655420048</v>
+        <v>54.12158655420023</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.78893876544763</v>
+        <v>56.78893876544765</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>62.27185349944027</v>
+        <v>62.2718534994401</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.18553689260938</v>
+        <v>17.18553689260949</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.83521854281528</v>
+        <v>35.83521854281526</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.40068412014772</v>
+        <v>48.4006841201477</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14.99513949972764</v>
+        <v>14.99513949972765</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.75940548705026</v>
+        <v>30.75940548705019</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>37.13262801712958</v>
+        <v>37.13262801712949</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.995333578806438</v>
+        <v>4.995333578806417</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.64143555148707</v>
+        <v>26.64143555148702</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.35192442672118</v>
+        <v>36.35192442672114</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3.171430028025366</v>
+        <v>3.171430028025437</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.73097947482555</v>
+        <v>45.73097947482569</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.776447347539893</v>
+        <v>3.776447347539776</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.52300207108043</v>
+        <v>15.52300207108049</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.99914997685578</v>
+        <v>26.99914997685556</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8460569005935099</v>
+        <v>0.8460569005935454</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.87310426813909</v>
+        <v>32.87310426813899</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>39.52740220228042</v>
+        <v>39.52740220228043</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.4602159903621512</v>
+        <v>0.4602159903623146</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.48681190103516</v>
+        <v>45.48681190103507</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.12185625598663</v>
+        <v>52.12185625598673</v>
       </c>
     </row>
     <row r="80">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>51.15094086539285</v>
+        <v>51.15094086539273</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.1040069507094</v>
+        <v>59.10400695070929</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.49552310629764</v>
+        <v>10.49552310629765</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.75734256477575</v>
+        <v>24.75734256477583</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.05316831337909</v>
+        <v>49.05316831337912</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.27318707789551</v>
+        <v>11.27318707789545</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.86509026017977</v>
+        <v>28.86509026017972</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>39.07268963178472</v>
+        <v>39.07268963178461</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.040429239191358</v>
+        <v>8.040429239191344</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.21479565784397</v>
+        <v>29.21479565784396</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>44.05579977029804</v>
+        <v>44.05579977029795</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.529202465249792</v>
+        <v>2.529202465249778</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.17733000143939</v>
+        <v>41.17733000143934</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.76716474378587</v>
+        <v>24.76716474378597</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>19.43314640589148</v>
+        <v>19.43314640589137</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.13865048969288</v>
+        <v>33.13865048969283</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.53093985064891</v>
+        <v>35.53093985064896</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.518333588636143</v>
+        <v>4.518333588636057</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14.04170156359623</v>
+        <v>14.0417015635962</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.51059896184005</v>
+        <v>22.51059896184</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>15.11474815485196</v>
+        <v>15.1147481548519</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.10160030395636</v>
+        <v>22.10160030395635</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.52417730774806</v>
+        <v>32.52417730774803</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.090738324366939</v>
+        <v>3.090738324366868</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.52925548651243</v>
+        <v>11.52925548651247</v>
       </c>
     </row>
     <row r="106">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-2.426930746905711</v>
+        <v>-2.426930746905747</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.67275350976887</v>
+        <v>22.6727535097689</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.95736859705434</v>
+        <v>37.95736859705447</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>23.29390811503612</v>
+        <v>23.29390811503605</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>39.43753783147821</v>
+        <v>39.43753783147811</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.32986995099647</v>
+        <v>47.3298699509964</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.703695405113923</v>
+        <v>2.703695405113901</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18.14183368657173</v>
+        <v>18.14183368657168</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.21028317774994</v>
+        <v>31.21028317774996</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.60802011220061</v>
+        <v>59.60802011220046</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>57.24000169407762</v>
+        <v>57.24000169407774</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.99448161146691</v>
+        <v>67.99448161146698</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>67.30107063384945</v>
+        <v>67.30107063384911</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.31447272365945</v>
+        <v>24.31447272365937</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.60810963679847</v>
+        <v>62.60810963679877</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>66.02643750318462</v>
+        <v>66.02643750318468</v>
       </c>
     </row>
     <row r="123">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.16572557924755</v>
+        <v>44.16572557924756</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>47.79900127747797</v>
+        <v>47.799001277478</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>11.11792776319466</v>
+        <v>11.11792776319473</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.19821517037889</v>
+        <v>46.19821517037893</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.98453956165804</v>
+        <v>46.98453956165805</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.36920246436824</v>
+        <v>10.36920246436836</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.72544670623699</v>
+        <v>67.72544670623694</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.13277905405887</v>
+        <v>72.13277905405883</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.56462643296483</v>
+        <v>81.56462643296487</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.39613610015218</v>
+        <v>85.39613610015245</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.03380546259405</v>
+        <v>88.03380546259416</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>34.85646617552467</v>
+        <v>34.85646617552476</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>80.96910910494977</v>
+        <v>80.96910910495002</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>82.84793411647526</v>
+        <v>82.84793411647544</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>62.58005941193139</v>
+        <v>62.5800594119313</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.3624544062621</v>
+        <v>47.36245440626206</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>57.4054516836099</v>
+        <v>57.40545168361011</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>64.10771478720561</v>
+        <v>64.10771478720562</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.69973721563933</v>
+        <v>13.69973721563937</v>
       </c>
     </row>
     <row r="143">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>63.85073384861589</v>
+        <v>63.8507338486159</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>18.01349505622046</v>
+        <v>18.01349505622054</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.65261091393673</v>
+        <v>35.65261091393681</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.45123995518761</v>
+        <v>44.45123995518768</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.991723555404622</v>
+        <v>5.991723555404665</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.79836340062704</v>
+        <v>38.79836340062714</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>45.50249491171245</v>
+        <v>45.50249491171235</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4.493721712572441</v>
+        <v>4.493721712572434</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>62.65656072129352</v>
+        <v>62.6565607212936</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>74.39963968195636</v>
+        <v>74.3996396819563</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.26196498087171</v>
+        <v>77.26196498087157</v>
       </c>
     </row>
     <row r="155">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>90.14402486165838</v>
+        <v>90.14402486165829</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.70617081758921</v>
+        <v>21.70617081758929</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>75.10338977239749</v>
+        <v>75.1033897723977</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>83.01525921248414</v>
+        <v>83.01525921248438</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>60.61103539271129</v>
+        <v>60.61103539271137</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.99330511436027</v>
+        <v>29.99330511436025</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.81352584576224</v>
+        <v>36.81352584576219</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.40888462962518</v>
+        <v>48.40888462962531</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.999079107953328</v>
+        <v>8.999079107953289</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.1301114954199</v>
+        <v>46.13011149541988</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.37183241763472</v>
+        <v>58.37183241763458</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.3660132347285</v>
+        <v>13.3660132347284</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.64371448092779</v>
+        <v>35.64371448092785</v>
       </c>
     </row>
     <row r="169">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9.057680539991402</v>
+        <v>9.057680539991456</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.47502797315133</v>
+        <v>41.47502797315126</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.59172297464326</v>
+        <v>52.59172297464321</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.232392675716941</v>
+        <v>3.232392675716927</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.40848417003031</v>
+        <v>57.40848417003012</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>74.61501798858446</v>
+        <v>74.61501798858465</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.70127809128904</v>
+        <v>63.70127809128893</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>70.36577916843996</v>
+        <v>70.36577916843977</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.89958062081294</v>
+        <v>88.89958062081284</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>14.9096390291106</v>
+        <v>14.90963902911062</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.90596331962652</v>
+        <v>63.90596331962637</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>81.73084485703733</v>
+        <v>81.73084485703734</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.60249953684772</v>
+        <v>10.60249953684774</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>12.04891883359859</v>
+        <v>12.04891883359852</v>
       </c>
     </row>
     <row r="184">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.5675403309645333</v>
+        <v>0.5675403309644835</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.74973376605415</v>
+        <v>16.74973376605423</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.88635180629362</v>
+        <v>20.88635180629367</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4.90665418018089</v>
+        <v>4.90665418018094</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.00265088772818</v>
+        <v>36.00265088772814</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.07734052197746</v>
+        <v>40.07734052197752</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>14.82871113927721</v>
+        <v>14.82871113927724</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.38876103934663</v>
+        <v>17.3887610393467</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.17783454886503</v>
+        <v>16.17783454886513</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.11431039367623</v>
+        <v>12.11431039367609</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13.29978636434858</v>
+        <v>13.2997863643485</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.70011091359725</v>
+        <v>31.70011091359729</v>
       </c>
     </row>
     <row r="197">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.47612647413218</v>
+        <v>21.47612647413217</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.69764742881732</v>
+        <v>24.69764742881733</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.865858080376121</v>
+        <v>-3.865858080376068</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.0635568780821</v>
+        <v>10.06355687808205</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.22728059493752</v>
+        <v>14.22728059493749</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-3.060527738518704</v>
+        <v>-3.060527738518783</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.72342024961691</v>
+        <v>23.72342024961685</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>14.3926200879024</v>
+        <v>14.39262008790251</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.37495732316347</v>
+        <v>22.37495732316341</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.95934143813749</v>
+        <v>28.95934143813738</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.767169053637129</v>
+        <v>1.767169053637087</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.40170853253809</v>
+        <v>30.40170853253835</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.96762761645216</v>
+        <v>30.96762761645217</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4.705592078488216</v>
+        <v>4.705592078488277</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.31923536811155</v>
+        <v>47.31923536811151</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.96442552050041</v>
+        <v>45.96442552050046</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.3133204429816</v>
+        <v>40.31332044298174</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.08483072052287</v>
+        <v>48.08483072052296</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.67633271138818</v>
+        <v>47.67633271138795</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>19.11414294186118</v>
+        <v>19.11414294186111</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.90641720477025</v>
+        <v>37.90641720477033</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45.31540342451337</v>
+        <v>45.31540342451339</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16.25017163667919</v>
+        <v>16.25017163667916</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.53054680950395</v>
+        <v>32.53054680950397</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.22282127331315</v>
+        <v>35.22282127331317</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.7235499519718083</v>
+        <v>0.7235499519717514</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.48110978840167</v>
+        <v>29.48110978840158</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.67061897463036</v>
+        <v>33.67061897463033</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.486423249486091</v>
+        <v>2.486423249486052</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.89250724573533</v>
+        <v>47.89250724573525</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>3.990447149292155</v>
+        <v>3.99044714929223</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>14.7385383043598</v>
+        <v>14.73853830435973</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.48505102807608</v>
+        <v>23.48505102807611</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.7599659910047158</v>
+        <v>-0.7599659910046697</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.44854203272551</v>
+        <v>26.44854203272557</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.12094172463597</v>
+        <v>29.12094172463591</v>
       </c>
     </row>
     <row r="234">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.12022090661932</v>
+        <v>45.12022090661937</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.15190570284331</v>
+        <v>46.15190570284349</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43.84810713722753</v>
+        <v>43.84810713722739</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.35710824772596</v>
+        <v>50.35710824772587</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>54.65813807971395</v>
+        <v>54.65813807971375</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4.627269809790537</v>
+        <v>4.627269809790558</v>
       </c>
     </row>
     <row r="241">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.41085061811139</v>
+        <v>34.41085061811141</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.983190433253029</v>
+        <v>8.98319043325305</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.91033638308595</v>
+        <v>24.91033638308582</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.24138950231541</v>
+        <v>31.24138950231546</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1.780138340228891</v>
+        <v>-1.780138340228984</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.78665739079302</v>
+        <v>23.78665739079294</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.0158818574723</v>
+        <v>32.01588185747237</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-0.4581485492160979</v>
+        <v>-0.4581485492161939</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>42.50366635788072</v>
+        <v>42.50366635788077</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-1.193127651377285</v>
+        <v>-1.193127651377242</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>9.960928355643759</v>
+        <v>9.960928355643697</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.10471688483785</v>
+        <v>24.10471688483784</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.037798640801636</v>
+        <v>-1.037798640801576</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.5936124462787</v>
+        <v>26.59361244627862</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.44646841348825</v>
+        <v>35.44646841348818</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-0.2830999659007603</v>
+        <v>-0.2830999659008206</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.99509516694583</v>
+        <v>43.99509516694581</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>49.77835940426307</v>
+        <v>49.77835940426284</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.2269493420179</v>
+        <v>42.22694934201769</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.66743783563506</v>
+        <v>46.66743783563502</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>51.17389638356903</v>
+        <v>51.17389638356909</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-0.9632379103020234</v>
+        <v>-0.963237910302027</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.46756328327795</v>
+        <v>20.467563283278</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.45196681382091</v>
+        <v>38.45196681382085</v>
       </c>
     </row>
     <row r="266">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.864903785345</v>
+        <v>21.86490378534493</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.21907354032787</v>
+        <v>29.21907354032794</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-3.058899518208342</v>
+        <v>-3.058899518208314</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.66271839741386</v>
+        <v>20.66271839741375</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.78257444259891</v>
+        <v>31.78257444259883</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2.502696967304239</v>
+        <v>-2.502696967304203</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.7208885738373</v>
+        <v>36.72088857383734</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.82355161606312</v>
+        <v>27.82355161606319</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.45829906733909</v>
+        <v>20.45829906733905</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.35436856272993</v>
+        <v>32.35436856272973</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.7262363810133</v>
+        <v>34.72623638101331</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.699552144762894</v>
+        <v>6.69955214476283</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.1052710944701</v>
+        <v>19.10527109447006</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.5568795251638</v>
+        <v>26.55687952516373</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.72984033064799</v>
+        <v>14.72984033064805</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.54234926760678</v>
+        <v>24.54234926760684</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.34064778477131</v>
+        <v>35.34064778477135</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-3.963585368647738</v>
+        <v>-3.96358536864787</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.851776492377931</v>
+        <v>9.851776492377855</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.48424103502376</v>
+        <v>17.48424103502372</v>
       </c>
     </row>
     <row r="287">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.35775549828594</v>
+        <v>30.3577554982859</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.53350249861141</v>
+        <v>45.53350249861131</v>
       </c>
     </row>
     <row r="290">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.04622476043139</v>
+        <v>42.04622476043146</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.90731047189693</v>
+        <v>48.90731047189692</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.929074282665287</v>
+        <v>7.929074282665116</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.58059180432465</v>
+        <v>24.58059180432453</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>37.67670353036646</v>
+        <v>37.67670353036632</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>55.77904715617483</v>
+        <v>55.7790471561748</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.88875277697964</v>
+        <v>46.88875277697948</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>56.33634265361558</v>
+        <v>56.33634265361543</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.1615124699335</v>
+        <v>58.16151246993331</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.78520155202652</v>
+        <v>17.7852015520266</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.37523499683974</v>
+        <v>52.37523499683977</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.74351838758989</v>
+        <v>54.74351838758993</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.50528262089774</v>
+        <v>23.50528262089781</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.95866704485707</v>
+        <v>38.95866704485717</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.61592684910552</v>
+        <v>44.61592684910558</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3.836562227513607</v>
+        <v>3.836562227513511</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.42240091992117</v>
+        <v>40.42240091992123</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.79448503553643</v>
+        <v>43.7944850355364</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>8.974180768149665</v>
+        <v>8.974180768149644</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>64.51439620058282</v>
+        <v>64.51439620058288</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>70.15658822014385</v>
+        <v>70.15658822014393</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.24451893082974</v>
+        <v>72.24451893082981</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.30766828734578</v>
+        <v>77.30766828734566</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.83851573993888</v>
+        <v>83.83851573993883</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.18559682625455</v>
+        <v>30.18559682625459</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.5008990707766</v>
+        <v>71.5008990707764</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>75.69455654407942</v>
+        <v>75.69455654407966</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>56.51330926276137</v>
+        <v>56.51330926276135</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>39.73835601313634</v>
+        <v>39.73835601313625</v>
       </c>
     </row>
     <row r="320">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.99937232834117</v>
+        <v>54.99937232834122</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.45254260442341</v>
+        <v>8.452542604423339</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.93575004043686</v>
+        <v>46.93575004043694</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.33379011063865</v>
+        <v>51.33379011063874</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.19565626650794</v>
+        <v>15.19565626650785</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.40327638790919</v>
+        <v>33.40327638790927</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.48538659830452</v>
+        <v>41.48538659830454</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.1402330688132416</v>
+        <v>-0.1402330688131848</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.1175163093779</v>
+        <v>37.11751630937793</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.65400694029282</v>
+        <v>42.65400694029277</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.602598646182255</v>
+        <v>4.602598646182177</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>62.42162132270315</v>
+        <v>62.42162132270305</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>71.25254115368051</v>
+        <v>71.2525411536806</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>69.64957409046085</v>
+        <v>69.6495740904607</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>73.45500973793419</v>
+        <v>73.45500973793405</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>86.7373533903662</v>
+        <v>86.73735339036617</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.76318230956534</v>
+        <v>17.76318230956531</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>67.81468599209204</v>
+        <v>67.81468599209214</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>74.48096070890146</v>
+        <v>74.48096070890145</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.68115448078565</v>
+        <v>50.68115448078558</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.27093565048188</v>
+        <v>24.2709356504817</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.73331657508945</v>
+        <v>32.7333165750895</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.33579621388564</v>
+        <v>39.33579621388562</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>3.528158184705159</v>
+        <v>3.528158184705017</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.37035177191679</v>
+        <v>40.3703517719168</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.05734355165832</v>
+        <v>48.05734355165848</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.54673148866468</v>
+        <v>10.54673148866459</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.37027575447917</v>
+        <v>33.3702757544792</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.13555724746186</v>
+        <v>44.13555724746193</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1.060473184899198</v>
+        <v>1.060473184899049</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.16023576646273</v>
+        <v>36.16023576646261</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.01243481489217</v>
+        <v>45.01243481489206</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>3.714585324760829</v>
+        <v>3.714585324760808</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>58.18437851774408</v>
+        <v>58.18437851774394</v>
       </c>
     </row>
     <row r="355">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61.24619985475074</v>
+        <v>61.24619985475054</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>69.03747551793327</v>
+        <v>69.03747551793313</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>83.21965047147829</v>
+        <v>83.21965047147854</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10.15730496383177</v>
+        <v>10.1573049638317</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64.47832706537818</v>
+        <v>64.47832706537805</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>75.46969528899535</v>
+        <v>75.46969528899537</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.69527913999741</v>
+        <v>11.69527913999742</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.26488361215986</v>
+        <v>15.26488361215978</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.41689441319099</v>
+        <v>26.41689441319083</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.02906065612175368</v>
+        <v>0.02906065612168973</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.58833161125423</v>
+        <v>18.58833161125424</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.64313120939961</v>
+        <v>22.64313120939952</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.897654367816934</v>
+        <v>4.897654367816955</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.22188187150489</v>
+        <v>42.22188187150493</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.55889923020867</v>
+        <v>43.55889923020879</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>15.71460010284704</v>
+        <v>15.71460010284701</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.80067883958158</v>
+        <v>19.80067883958144</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.43275202407139</v>
+        <v>20.43275202407127</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.98288835036641</v>
+        <v>23.98288835036622</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.22810032921008</v>
+        <v>19.22810032920969</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.12885312836239</v>
+        <v>33.12885312836236</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.84232324342896</v>
+        <v>17.84232324342901</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.25401051386153</v>
+        <v>31.25401051386156</v>
       </c>
     </row>
     <row r="379">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.232780908637032</v>
+        <v>2.232780908637004</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.54786241586331</v>
+        <v>17.54786241586311</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.64955557776897</v>
+        <v>21.64955557776885</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.3689086390847365</v>
+        <v>0.3689086390846867</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.32046630042484</v>
+        <v>29.32046630042477</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.6596668745518</v>
+        <v>21.65966687455187</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.36673939229759</v>
+        <v>36.36673939229754</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.64702692326529</v>
+        <v>37.64702692326512</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.62542629020918</v>
+        <v>3.625426290209326</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>39.15018629168564</v>
+        <v>39.15018629168556</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.51833295780909</v>
+        <v>38.51833295780904</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>7.669576230616361</v>
+        <v>7.669576230616475</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>59.56004358284835</v>
+        <v>59.56004358284852</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>54.97646093894664</v>
+        <v>54.97646093894667</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.97160328113334</v>
+        <v>49.97160328113335</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>58.43211075490871</v>
+        <v>58.43211075490888</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>59.69000903825037</v>
+        <v>59.69000903825048</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>32.57377088571579</v>
+        <v>32.57377088571585</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.34005542141627</v>
+        <v>46.3400554214163</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>48.12002933418422</v>
+        <v>48.12002933418438</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.8549008676182</v>
+        <v>26.85490086761813</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>48.01733889769534</v>
+        <v>48.01733889769537</v>
       </c>
     </row>
     <row r="402">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.18616590829679</v>
+        <v>7.186165908296907</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>41.07094046080673</v>
+        <v>41.07094046080675</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.48881177694047</v>
+        <v>42.48881177694063</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.01741559540859</v>
+        <v>9.017415595408558</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>62.26787408365806</v>
+        <v>62.26787408365804</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.444380119039185</v>
+        <v>9.444380119039131</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.37323007295805</v>
+        <v>27.37323007295809</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.42383198391928</v>
+        <v>31.42383198391926</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.118802866060282</v>
+        <v>2.118802866060317</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>35.53411864176715</v>
+        <v>35.53411864176711</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.49286270966286</v>
+        <v>37.49286270966287</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>6.347446324706244</v>
+        <v>6.347446324706194</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>58.00719706182919</v>
+        <v>58.00719706182932</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.75610981654997</v>
+        <v>56.75610981654996</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>57.30726983846395</v>
+        <v>57.30726983846387</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>64.34369021304823</v>
+        <v>64.34369021304829</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>69.95423815959899</v>
+        <v>69.95423815959893</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.32600461813536</v>
+        <v>18.32600461813542</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.93342833437826</v>
+        <v>33.93342833437816</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.31754940234611</v>
+        <v>39.31754940234616</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.41173381493249</v>
+        <v>18.41173381493251</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>39.27338716241191</v>
+        <v>39.27338716241192</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>42.32496541598975</v>
+        <v>42.32496541598972</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.137540259999518</v>
+        <v>4.137540259999447</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.83817909514227</v>
+        <v>32.83817909514226</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.29228573523191</v>
+        <v>40.29228573523184</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.546607216440773</v>
+        <v>5.546607216440751</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>56.54095715223443</v>
+        <v>56.54095715223438</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>5.047588406574501</v>
+        <v>5.047588406574416</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.7574518639108</v>
+        <v>21.75745186391075</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.65717029746873</v>
+        <v>31.65717029746859</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.079943244115299</v>
+        <v>3.079943244115309</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.74418046086366</v>
+        <v>37.74418046086352</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.74255143773799</v>
+        <v>42.74255143773791</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.441606222656031</v>
+        <v>4.441606222656066</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>57.85053657759977</v>
+        <v>57.85053657759974</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>59.9688442264824</v>
+        <v>59.96884422648232</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>57.08367981071166</v>
+        <v>57.08367981071158</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>61.78773361983069</v>
+        <v>61.78773361983052</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>68.61478891593136</v>
+        <v>68.61478891593127</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.34755087282981</v>
+        <v>15.34755087282989</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.50687072469621</v>
+        <v>28.50687072469622</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>44.09123490387001</v>
+        <v>44.09123490387</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.64378125384618</v>
+        <v>13.64378125384616</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.56845953084395</v>
+        <v>36.56845953084391</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>43.3381902568818</v>
+        <v>43.33819025688177</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.703535556392698</v>
+        <v>5.70353555639263</v>
       </c>
     </row>
     <row r="450">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.288229966752034</v>
+        <v>4.288229966751942</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>51.9180921877925</v>
+        <v>51.91809218779255</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>33.16000351666814</v>
+        <v>33.16000351666806</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.85348437566159</v>
+        <v>26.85348437566149</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.86869052955618</v>
+        <v>41.86869052955612</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.82158502877574</v>
+        <v>42.82158502877573</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.88113033103763</v>
+        <v>11.88113033103752</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.68190308038985</v>
+        <v>25.68190308038987</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.5808135227336</v>
+        <v>31.58081352273357</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.76913212971342</v>
+        <v>19.76913212971341</v>
       </c>
     </row>
     <row r="462">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.38085609874685</v>
+        <v>37.38085609874675</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.501669804896867</v>
+        <v>1.501669804896949</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>13.83324719934818</v>
+        <v>13.83324719934808</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.43221890170334</v>
+        <v>21.43221890170331</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.7710292576313158</v>
+        <v>0.7710292576313122</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.46567542175296</v>
+        <v>30.46567542175291</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.36166586200611</v>
+        <v>45.36166586200608</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.16996892656132</v>
+        <v>28.1699689265613</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.69444231444598</v>
+        <v>45.69444231444601</v>
       </c>
     </row>
     <row r="472">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.53156090632572</v>
+        <v>11.53156090632568</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.42793804862603</v>
+        <v>28.42793804862589</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>40.26620605061078</v>
+        <v>40.26620605061069</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.4680357094134</v>
+        <v>66.4680357094135</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>65.77095965239829</v>
+        <v>65.77095965239845</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>76.63688026523229</v>
+        <v>76.63688026523219</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>75.09852255058692</v>
+        <v>75.09852255058718</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.04389635886839</v>
+        <v>31.04389635886849</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>72.02711963578787</v>
+        <v>72.02711963578784</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>72.76541433692776</v>
+        <v>72.76541433692773</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.35049916818883</v>
+        <v>32.35049916818888</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>49.17734171167696</v>
+        <v>49.17734171167685</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.35285100709781</v>
+        <v>50.3528510070979</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.532127824673353</v>
+        <v>8.5321278246732</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.90652192183131</v>
+        <v>45.90652192183136</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>46.09944582720497</v>
+        <v>46.09944582720505</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>11.00251133057871</v>
+        <v>11.00251133057876</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.33894636888708</v>
+        <v>71.33894636888699</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.33687810238558</v>
+        <v>74.33687810238548</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>82.42135613497723</v>
+        <v>82.42135613497715</v>
       </c>
     </row>
     <row r="493">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>89.84093561771201</v>
+        <v>89.84093561771211</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.99299508831267</v>
+        <v>39.99299508831294</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>85.41244030420914</v>
+        <v>85.41244030420924</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>85.34674769778893</v>
+        <v>85.34674769778911</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>69.06659933325069</v>
+        <v>69.06659933325064</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>57.83862554380271</v>
+        <v>57.83862554380259</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>67.86124149132556</v>
+        <v>67.86124149132537</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>72.9130752149855</v>
+        <v>72.91307521498548</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.94103679045946</v>
+        <v>21.94103679045949</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>67.30222822762272</v>
+        <v>67.30222822762262</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>71.00369698920652</v>
+        <v>71.00369698920646</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.70844822313148</v>
+        <v>22.70844822313149</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>41.78811736870828</v>
+        <v>41.78811736870836</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.93404660610727</v>
+        <v>46.9340466061072</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.854588652355819</v>
+        <v>3.854588652355726</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.43005885295199</v>
+        <v>39.43005885295204</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.99715770088368</v>
+        <v>43.99715770088358</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.030817984739397</v>
+        <v>6.030817984739343</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>67.55863363648884</v>
+        <v>67.55863363648891</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>75.91879343538814</v>
+        <v>75.91879343538822</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>79.69211333668061</v>
+        <v>79.69211333668065</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>83.68375168952208</v>
+        <v>83.68375168952201</v>
       </c>
     </row>
     <row r="516">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.57898561351175</v>
+        <v>28.57898561351167</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>81.51030115684738</v>
+        <v>81.51030115684723</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>85.17998227793454</v>
+        <v>85.17998227793467</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>66.91087710080629</v>
+        <v>66.91087710080606</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.6353542372343</v>
+        <v>39.63535423723418</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>48.28376876181667</v>
+        <v>48.28376876181638</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>56.99066785277319</v>
+        <v>56.99066785277318</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.37489967677526</v>
+        <v>17.37489967677523</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>59.48948827073121</v>
+        <v>59.48948827073109</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>66.61733228576614</v>
+        <v>66.61733228576615</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.95725324445477</v>
+        <v>17.95725324445473</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.05443172688939</v>
+        <v>42.05443172688938</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>50.01587748225604</v>
+        <v>50.01587748225602</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.491618302408984</v>
+        <v>6.491618302408934</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.93632345110529</v>
+        <v>42.93632345110517</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>50.75816225276814</v>
+        <v>50.75816225276816</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.092590840903657</v>
+        <v>5.092590840903714</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>63.41048966099494</v>
+        <v>63.41048966099488</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>76.3627269723479</v>
+        <v>76.36272697234796</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>68.87278497301811</v>
+        <v>68.8727849730181</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>77.30383790077873</v>
+        <v>77.30383790077853</v>
       </c>
     </row>
     <row r="538">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.77726713186576</v>
+        <v>23.77726713186563</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>74.60964534360497</v>
+        <v>74.60964534360484</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>85.61720478006366</v>
+        <v>85.61720478006353</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.47196766707971</v>
+        <v>12.47196766707977</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.89593273100724</v>
+        <v>11.89593273100726</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.6446915021566</v>
+        <v>19.64469150215663</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.147349280228713</v>
+        <v>1.147349280228756</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.311260447713952</v>
+        <v>6.311260447714037</v>
       </c>
     </row>
     <row r="547">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.085006646092726</v>
+        <v>5.085006646092761</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.6504592139868</v>
+        <v>20.65045921398696</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.48767021334726</v>
+        <v>22.48767021334733</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.56559011782372</v>
+        <v>11.56559011782363</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.7469567615618</v>
+        <v>13.74695676156178</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.90175909573875</v>
+        <v>12.90175909573893</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.413787007747647</v>
+        <v>7.413787007747633</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.00428941874473</v>
+        <v>9.004289418744644</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.2723161487725</v>
+        <v>16.27231614877227</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.51767835378561</v>
+        <v>10.51767835378558</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.09482132716984</v>
+        <v>19.0948213271698</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.46434301765397</v>
+        <v>22.46434301765409</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.06213802901378074</v>
+        <v>-0.06213802901374521</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.518429107589728</v>
+        <v>6.518429107589718</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.82414526067592</v>
+        <v>10.82414526067601</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.4986286225495995</v>
+        <v>-0.4986286225496706</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.25724895797715</v>
+        <v>15.25724895797714</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.45612314600525</v>
+        <v>14.45612314600534</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.72178196623483</v>
+        <v>20.72178196623489</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.07055867400057</v>
+        <v>23.0705586740006</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.347514960362343</v>
+        <v>3.347514960362432</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.6961921263369</v>
+        <v>20.696192126337</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.59528852319226</v>
+        <v>21.59528852319232</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.919136893681276</v>
+        <v>5.919136893681241</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.08996792520464</v>
+        <v>33.08996792520465</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.48935285277048</v>
+        <v>31.48935285277028</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.07675139622678</v>
+        <v>30.07675139622688</v>
       </c>
     </row>
     <row r="575">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.5266721701994</v>
+        <v>36.52667217019943</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.03383456490729</v>
+        <v>14.03383456490734</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.64383556682671</v>
+        <v>30.6438355668269</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.94063251694465</v>
+        <v>32.94063251694479</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.31553588409266</v>
+        <v>14.31553588409274</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.85965658625254</v>
+        <v>27.85965658625252</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.60175511478642</v>
+        <v>31.60175511478644</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.92751561928165</v>
+        <v>3.927515619281632</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.62227925980728</v>
+        <v>24.62227925980726</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.6014228724565</v>
+        <v>30.60142287245647</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.776761762429842</v>
+        <v>4.776761762429899</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>38.50360318188225</v>
+        <v>38.50360318188231</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.236460082155027</v>
+        <v>7.236460082155059</v>
       </c>
     </row>
     <row r="589">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.71896613629165</v>
+        <v>19.71896613629171</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.335269855987448</v>
+        <v>2.335269855987463</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.49721001989909</v>
+        <v>17.49721001989925</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.27529244423044</v>
+        <v>21.27529244423049</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>5.517307862019759</v>
+        <v>5.517307862019781</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.56356616692766</v>
+        <v>31.56356616692777</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.91909476100645</v>
+        <v>32.91909476100638</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.55416244081806</v>
+        <v>31.55416244081812</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.42170819624588</v>
+        <v>35.42170819624594</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.6117604341952</v>
+        <v>40.61176043419508</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>4.603210641600629</v>
+        <v>4.603210641600562</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.12025506963614</v>
+        <v>20.1202550696361</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.92923845407996</v>
+        <v>24.92923845407994</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.591749563433776</v>
+        <v>8.591749563433769</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.58801424024242</v>
+        <v>20.58801424024228</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.39733669572701</v>
+        <v>28.39733669572692</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.812080216476151</v>
+        <v>1.812080216476168</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.35918249011101</v>
+        <v>18.35918249011103</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.05283099029307</v>
+        <v>29.05283099029304</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>2.332257897563043</v>
+        <v>2.332257897563057</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.3409589371355</v>
+        <v>32.34095893713548</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.714551667030054</v>
+        <v>3.714551667030111</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>10.19464244019471</v>
+        <v>10.19464244019457</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.92929608030875</v>
+        <v>19.92929608030881</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.6922032506890901</v>
+        <v>0.6922032506891327</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>14.21617248525725</v>
+        <v>14.21617248525715</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.79648309282734</v>
+        <v>23.79648309282726</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1.565042795354174</v>
+        <v>1.565042795354067</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.02071722337378</v>
+        <v>27.02071722337397</v>
       </c>
     </row>
     <row r="619">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.18737995670837</v>
+        <v>28.18737995670842</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.55157626136339</v>
+        <v>30.55157626136346</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.56245329588279</v>
+        <v>35.56245329588278</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1.230562835188749</v>
+        <v>1.230562835188618</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.64337514200425</v>
+        <v>17.64337514200412</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.68210028809277</v>
+        <v>26.68210028809271</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.25698769443872</v>
+        <v>5.256987694438727</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.4251841349193</v>
+        <v>17.42518413491937</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.8963348405904</v>
+        <v>25.89633484059031</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.6191556958222897</v>
+        <v>0.6191556958223075</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>14.02859720642009</v>
+        <v>14.02859720642006</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.95939131982195</v>
+        <v>26.95939131982187</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>0.1024679985781951</v>
+        <v>0.1024679985781525</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.93576701614743</v>
+        <v>24.93576701614728</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19.55870602389829</v>
+        <v>19.5587060238982</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.00028560539823</v>
+        <v>17.0002856053982</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.5252839639931</v>
+        <v>27.52528396399307</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.22772615350263</v>
+        <v>28.22772615350256</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>4.233317292926959</v>
+        <v>4.233317292926966</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>12.17904268716996</v>
+        <v>12.17904268716993</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>18.11348109069701</v>
+        <v>18.11348109069691</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.67241907094548</v>
+        <v>15.67241907094541</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.28005108979889</v>
+        <v>22.28005108979875</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.73973036469995</v>
+        <v>30.73973036469988</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-0.6956686518040271</v>
+        <v>-0.695668651803949</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>6.762221479820017</v>
+        <v>6.762221479819956</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>12.73371343195828</v>
+        <v>12.7337134319583</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>2.36580530174464</v>
+        <v>2.365805301744615</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.43494512842214</v>
+        <v>21.43494512842197</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.30810629599566</v>
+        <v>33.30810629599562</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>21.72246368372236</v>
+        <v>21.7224636837223</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.96943959683903</v>
+        <v>33.96943959683905</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.92851328990174</v>
+        <v>38.92851328990162</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>7.225930157780606</v>
+        <v>7.225930157780478</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>18.23536200038315</v>
+        <v>18.23536200038297</v>
       </c>
     </row>
     <row r="655">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>48.15033788507455</v>
+        <v>48.15033788507471</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.10659802688066</v>
+        <v>38.1065980268808</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.7956087842744</v>
+        <v>47.79560878427441</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.77446000410464</v>
+        <v>49.77446000410457</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.11007405950403</v>
+        <v>13.11007405950406</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.87198513442212</v>
+        <v>41.87198513442205</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.09723700528093</v>
+        <v>46.09723700528091</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.91942117235164</v>
+        <v>22.91942117235178</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.98995362000283</v>
+        <v>35.98995362000291</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.50320113164278</v>
+        <v>41.50320113164292</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>7.647183410344137</v>
+        <v>7.647183410344109</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.4008245765454</v>
+        <v>35.40082457654539</v>
       </c>
     </row>
     <row r="668">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>11.90811378967921</v>
+        <v>11.90811378967922</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.72460365960966</v>
+        <v>55.72460365960964</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.73383011825484</v>
+        <v>61.73383011825477</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>62.83532587492346</v>
+        <v>62.83532587492334</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>68.41886704235168</v>
+        <v>68.41886704235174</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>75.99955275048855</v>
+        <v>75.99955275048869</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.69130076409056</v>
+        <v>28.69130076409068</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.91484581542711</v>
+        <v>61.91484581542701</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>66.37960481939967</v>
+        <v>66.37960481939979</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.88144405359126</v>
+        <v>48.88144405359127</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.46680449200304</v>
+        <v>30.46680449200293</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.84536390497973</v>
+        <v>37.84536390497964</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>46.06093855444978</v>
+        <v>46.06093855444995</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>6.319004526904667</v>
+        <v>6.319004526904614</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.09589499907392</v>
+        <v>36.09589499907403</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.03515529723975</v>
+        <v>43.03515529723966</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.1425378360092</v>
+        <v>16.14253783600917</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.40440159093389</v>
+        <v>30.40440159093396</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.32502330476183</v>
+        <v>39.32502330476173</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.74069815517683</v>
+        <v>3.740698155176776</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.63643862579272</v>
+        <v>30.63643862579269</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.22867861688035</v>
+        <v>39.22867861688027</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>7.98357934040385</v>
+        <v>7.983579340403875</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>52.39344222907358</v>
+        <v>52.39344222907349</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.15239967884973</v>
+        <v>63.15239967884966</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>58.85357101288209</v>
+        <v>58.85357101288203</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.7044052848879</v>
+        <v>62.70440528488788</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>78.24737260444816</v>
+        <v>78.24737260444809</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.61984130126011</v>
+        <v>18.61984130126005</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.88071673749663</v>
+        <v>56.88071673749629</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>65.18580638563533</v>
+        <v>65.18580638563508</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.84473778373687</v>
+        <v>40.84473778373678</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>17.86147936116843</v>
+        <v>17.86147936116833</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>24.02266751779607</v>
+        <v>24.02266751779592</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.60460627335672</v>
+        <v>30.6046062733567</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2.927913263354462</v>
+        <v>2.927913263354473</v>
       </c>
     </row>
     <row r="705">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.44588890026537</v>
+        <v>12.4458889002654</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.26811094478479</v>
+        <v>29.26811094478474</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.68180251791816</v>
+        <v>40.68180251791813</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>4.156255274427618</v>
+        <v>4.156255274427611</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.35521473022181</v>
+        <v>28.35521473022177</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.49747697111135</v>
+        <v>39.49747697111134</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>5.778863503172012</v>
+        <v>5.778863503171966</v>
       </c>
     </row>
     <row r="714">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>61.38945745791725</v>
+        <v>61.38945745791726</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.19676386825414</v>
+        <v>49.1967638682541</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.08930479153611</v>
+        <v>55.08930479153604</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.43237706769797</v>
+        <v>71.43237706769801</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.29135066525341</v>
+        <v>11.2913506652535</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>51.52367211240033</v>
+        <v>51.52367211240029</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>63.69078521690498</v>
+        <v>63.69078521690496</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.82453341918427</v>
+        <v>20.82453341918423</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.60035923638373</v>
+        <v>19.6003592363838</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.02480014481439</v>
+        <v>34.02480014481444</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.54320975710896</v>
+        <v>10.54320975710891</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.43953161339836</v>
+        <v>35.43953161339829</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.26058396207333</v>
+        <v>39.26058396207319</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.59360287355751</v>
+        <v>12.59360287355757</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>49.13696972718721</v>
+        <v>49.13696972718719</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>53.51451219323028</v>
+        <v>53.51451219323023</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.94552655340703</v>
+        <v>21.94552655340692</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.31474598740263</v>
+        <v>23.31474598740262</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.37707299675631</v>
+        <v>24.3770729967562</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.18752574125926</v>
+        <v>32.18752574125918</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.76567341581189</v>
+        <v>22.7656734158119</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>45.9619366328823</v>
+        <v>45.96193663288226</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.14508429322699</v>
+        <v>21.14508429322687</v>
       </c>
     </row>
     <row r="738">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.69580565034182</v>
+        <v>35.69580565034174</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.34543186767402</v>
+        <v>26.345431867674</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.62922733393513</v>
+        <v>33.62922733393508</v>
       </c>
     </row>
     <row r="742">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>3.050235316966816</v>
+        <v>3.050235316966717</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.72649517208351</v>
+        <v>25.72649517208341</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.11800686937105</v>
+        <v>27.11800686937117</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.83141721278596</v>
+        <v>36.83141721278609</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>41.78542714343295</v>
+        <v>41.78542714343313</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.3627438918703</v>
+        <v>11.36274389187023</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>53.19643003453362</v>
+        <v>53.19643003453352</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.29957838942926</v>
+        <v>51.29957838942924</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.01859625054973</v>
+        <v>13.0185962505497</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>63.16381505249539</v>
+        <v>63.16381505249535</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>62.13230452290507</v>
+        <v>62.13230452290502</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>59.51193025596973</v>
+        <v>59.51193025596965</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>62.27588281887165</v>
+        <v>62.27588281887159</v>
       </c>
     </row>
     <row r="756">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.99181680889839</v>
+        <v>44.99181680889826</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>56.80799540225976</v>
+        <v>56.80799540225969</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>67.41826358469044</v>
+        <v>67.41826358469045</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.60554402441571</v>
+        <v>27.6055440244157</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>42.47934403988563</v>
+        <v>42.47934403988557</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.93829667060615</v>
+        <v>42.93829667060614</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.88355358057217</v>
+        <v>28.88355358057198</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>52.58001807417462</v>
+        <v>52.58001807417454</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>51.60918803971734</v>
+        <v>51.60918803971738</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.09044791242663</v>
+        <v>10.09044791242654</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.8258759126039</v>
+        <v>55.82587591260398</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.95236722214335</v>
+        <v>13.9523672221435</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.76595424061615</v>
+        <v>26.76595424061609</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.40325775898084</v>
+        <v>34.40325775898094</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.391280152177718</v>
+        <v>9.391280152177689</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.7385848574673</v>
+        <v>48.73858485746716</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>49.39459912744248</v>
+        <v>49.3945991274425</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>10.32582854006754</v>
+        <v>10.32582854006747</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>60.04758056999552</v>
+        <v>60.04758056999543</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.37568007903339</v>
+        <v>62.3756800790334</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.02142915146698</v>
+        <v>67.021429151467</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>67.35363075408026</v>
+        <v>67.35363075408044</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>72.25070766800073</v>
+        <v>72.25070766800076</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.24227027988776</v>
+        <v>29.24227027988778</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>43.98865901379517</v>
+        <v>43.98865901379507</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>58.28722596820047</v>
+        <v>58.28722596820043</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.56540576848462</v>
+        <v>20.56540576848451</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.4998579198236</v>
+        <v>34.49985791982357</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.75410327772877</v>
+        <v>39.75410327772858</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.61620348023933</v>
+        <v>26.61620348023927</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.11314104309781</v>
+        <v>44.11314104309779</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.51853323546314</v>
+        <v>49.51853323546321</v>
       </c>
     </row>
     <row r="789">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>50.68385507997087</v>
+        <v>50.68385507997085</v>
       </c>
     </row>
     <row r="791">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>19.58066563515406</v>
+        <v>19.58066563515426</v>
       </c>
     </row>
     <row r="793">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.442110326682229</v>
+        <v>9.442110326682119</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>51.45905857372819</v>
+        <v>51.45905857372809</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.91406660281843</v>
+        <v>53.91406660281839</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.994210035145759</v>
+        <v>5.994210035145748</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>58.40258289139838</v>
+        <v>58.4025828913985</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>63.11046390274173</v>
+        <v>63.11046390274181</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>63.42074402942647</v>
+        <v>63.4207440294265</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>63.21152369068994</v>
+        <v>63.21152369068992</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>70.14747838227073</v>
+        <v>70.14747838227089</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>20.51743623736393</v>
+        <v>20.51743623736368</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.21685459175287</v>
+        <v>32.21685459175278</v>
       </c>
     </row>
     <row r="805">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.49857691467632</v>
+        <v>15.49857691467625</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.92477827054194</v>
+        <v>32.92477827054185</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.32090767476413</v>
+        <v>41.32090767476421</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.67309315351976</v>
+        <v>28.67309315351972</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.26278642368825</v>
+        <v>48.26278642368821</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>57.90826192320631</v>
+        <v>57.9082619232063</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.551326182861487</v>
+        <v>6.551326182861491</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>48.16782978694802</v>
+        <v>48.16782978694808</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.64610981197706</v>
+        <v>30.64610981197701</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.42296564268155</v>
+        <v>22.42296564268148</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>37.15100332922352</v>
+        <v>37.15100332922366</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>38.89584681088395</v>
+        <v>38.89584681088399</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.83325168489734</v>
+        <v>12.83325168489735</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.53779656889241</v>
+        <v>18.53779656889237</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.1278713474774</v>
+        <v>27.12787134747739</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.4360844738002</v>
+        <v>17.43608447380021</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.0096572508222</v>
+        <v>24.00965725082223</v>
       </c>
     </row>
     <row r="823">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.00145368982194</v>
+        <v>26.00145368982189</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.4903840719351</v>
+        <v>32.49038407193504</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>37.27292684279956</v>
+        <v>37.27292684279953</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>1.984029900613432</v>
+        <v>1.984029900613404</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.93839524388865</v>
+        <v>29.93839524388864</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.66735558726073</v>
+        <v>44.66735558726067</v>
       </c>
     </row>
     <row r="830">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.8045749146524</v>
+        <v>45.80457491465241</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.60248734286721</v>
+        <v>54.60248734286719</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>11.12151249905763</v>
+        <v>11.12151249905748</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.21722385603576</v>
+        <v>25.21722385603572</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>37.69764402034374</v>
+        <v>37.69764402034367</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>60.87264393609316</v>
+        <v>60.87264393609335</v>
       </c>
     </row>
     <row r="837">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>69.34903165178223</v>
+        <v>69.34903165178245</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>66.4265538029552</v>
+        <v>66.42655380295542</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.71535526769372</v>
+        <v>32.71535526769382</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>64.05367167961958</v>
+        <v>64.05367167961948</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>68.04189972443396</v>
+        <v>68.041899724434</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.35443232072257</v>
+        <v>31.35443232072251</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.27554236277894</v>
+        <v>44.27554236277902</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.50984512863884</v>
+        <v>46.50984512863889</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.55594075955613</v>
+        <v>31.55594075955601</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>61.25610412894571</v>
+        <v>61.25610412894575</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.81652272633218</v>
+        <v>56.81652272633231</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>11.5925493636451</v>
+        <v>11.59254936364513</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.87838413134348</v>
+        <v>68.8783841313434</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>71.27426092459339</v>
+        <v>71.27426092459362</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>82.817912304193</v>
+        <v>82.81791230419313</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>86.00529964762562</v>
+        <v>86.00529964762563</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>88.71457171945617</v>
+        <v>88.71457171945632</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.58048548316674</v>
+        <v>41.58048548316695</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>81.82055788549302</v>
+        <v>81.82055788549319</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>82.63108781331013</v>
+        <v>82.63108781331015</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>64.42439165848043</v>
+        <v>64.42439165848053</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>51.76251443009414</v>
+        <v>51.76251443009413</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>60.88168630796088</v>
+        <v>60.88168630796082</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>64.1428549356624</v>
+        <v>64.14285493566244</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.36865853175438</v>
+        <v>24.36865853175431</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>59.62581509414125</v>
+        <v>59.62581509414129</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>66.74502495437007</v>
+        <v>66.74502495437029</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.31982275630331</v>
+        <v>23.31982275630327</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.95197418795755</v>
+        <v>37.95197418795756</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.30550662125332</v>
+        <v>44.30550662125324</v>
       </c>
     </row>
     <row r="868">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>55.11797533083107</v>
+        <v>55.11797533083094</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>55.63925576691807</v>
+        <v>55.63925576691801</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.93742663720138</v>
+        <v>7.937426637201462</v>
       </c>
     </row>
     <row r="872">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>73.88179620241311</v>
+        <v>73.88179620241307</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>81.29998676217221</v>
+        <v>81.29998676217213</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>81.95449218640181</v>
+        <v>81.95449218640179</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>91.10873799264819</v>
+        <v>91.10873799264827</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.4005421307599</v>
+        <v>31.40054213075994</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>78.00834123786564</v>
+        <v>78.00834123786555</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>83.28184406671795</v>
+        <v>83.28184406671789</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>63.0332368554464</v>
+        <v>63.03323685544656</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.07152933084326</v>
+        <v>35.07152933084338</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.16650274747222</v>
+        <v>42.16650274747225</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.16296912141649</v>
+        <v>50.16296912141638</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.29186221771582</v>
+        <v>18.2918622177158</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>51.62694929179177</v>
+        <v>51.62694929179172</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>60.89492146985572</v>
+        <v>60.8949214698556</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.39610528084093</v>
+        <v>17.39610528084101</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.79499337298833</v>
+        <v>38.79499337298832</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.95988016415389</v>
+        <v>46.95988016415379</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.19670277301584</v>
+        <v>31.19670277301574</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>60.74020044569076</v>
+        <v>60.7402004456907</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>64.57415069057463</v>
+        <v>64.57415069057464</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>7.186262294729499</v>
+        <v>7.186262294729609</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>63.92036338631836</v>
+        <v>63.92036338631833</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>74.88895648239888</v>
+        <v>74.88895648239897</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>71.77467356597847</v>
+        <v>71.77467356597829</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>76.76270910678954</v>
+        <v>76.76270910678946</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>91.66641101681988</v>
+        <v>91.66641101681978</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.58791004281141</v>
+        <v>25.58791004281134</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>70.45058855929473</v>
+        <v>70.45058855929476</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>83.33385649692011</v>
+        <v>83.33385649692001</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.59</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.167</v>
+        <v>15.668</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.161</v>
+        <v>20.636</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.97</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.701</v>
+        <v>1.625</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.73855267928394</v>
+        <v>17.22058416888145</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.20509482941686</v>
+        <v>17.07924362346496</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.14482974608438</v>
+        <v>32.51619798124582</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.971743898776051</v>
+        <v>3.077955728357448</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.85464693145836</v>
+        <v>25.02000090758347</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.4676476521867</v>
+        <v>30.55876431228684</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.093603445484636</v>
+        <v>7.068438962308274</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>40.09388989438184</v>
+        <v>47.45878197520877</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>44.36771595402779</v>
+        <v>49.03897696333278</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.13724555067488</v>
+        <v>17.6570928660046</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.92087418743127</v>
+        <v>20.92335570348931</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.47510253623728</v>
+        <v>20.71818769048757</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.57403555100955</v>
+        <v>21.29602331791693</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.03957157757028</v>
+        <v>22.4539003692975</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.33373519765924</v>
+        <v>54.26142028001276</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.34454862695667</v>
+        <v>16.62210968959628</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.22168349161877</v>
+        <v>27.73984041819056</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.46614329059881</v>
+        <v>34.86820414905194</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.229197561350606</v>
+        <v>5.722946972941656</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.29869695129824</v>
+        <v>13.46407808808841</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.99358863434166</v>
+        <v>15.90162322616841</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.170151362186107</v>
+        <v>3.180427876167862</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.78344751205912</v>
+        <v>18.23415747146495</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.91160036083198</v>
+        <v>24.9043592556429</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.18606779169568</v>
+        <v>31.13090008686471</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.25469277676883</v>
+        <v>32.7373454114038</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.128077518435873</v>
+        <v>1.961603887052156</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.05451012335465</v>
+        <v>37.55052266603384</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.79422926152517</v>
+        <v>36.7028678911554</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.553627319598853</v>
+        <v>8.104878116897144</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>51.41396759243061</v>
+        <v>50.81470595551752</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.66919810609171</v>
+        <v>50.30138091816438</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48.22183975075298</v>
+        <v>48.1306525654999</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53.2224233809861</v>
+        <v>52.23843779026741</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>54.16232360443536</v>
+        <v>54.24838590912904</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>33.14632702434051</v>
+        <v>32.81309363962826</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>49.75105357942964</v>
+        <v>48.25241236407305</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>58.23364681065561</v>
+        <v>61.51484649760413</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.86477548600801</v>
+        <v>24.67879412338464</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.53414167845474</v>
+        <v>38.40663644327181</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.11993392594982</v>
+        <v>37.76621073007833</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.76321728043235</v>
+        <v>5.995889268216491</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.44377428725009</v>
+        <v>35.98067878319316</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.75633843096934</v>
+        <v>35.99134954415052</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7.328270820765013</v>
+        <v>4.955357577383069</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>52.93141717434246</v>
+        <v>51.47874049843552</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.22046651183825</v>
+        <v>8.854013385776554</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.31103849292516</v>
+        <v>21.64046046284376</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.4565246711765</v>
+        <v>27.33580403070453</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.2735395563382674</v>
+        <v>2.241975882063798</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.89966931114625</v>
+        <v>33.78653028931421</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.75692353380814</v>
+        <v>37.83965351948609</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.901971992700197</v>
+        <v>8.626022395266126</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>47.88088398098677</v>
+        <v>49.66521157221901</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.05130673009858</v>
+        <v>54.31464824678119</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>54.12158655420023</v>
+        <v>59.60931325328407</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.78893876544765</v>
+        <v>60.59116197513189</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>62.2718534994401</v>
+        <v>65.1272619746095</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.18553689260949</v>
+        <v>15.66640503666304</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.83521854281526</v>
+        <v>35.97147547570327</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.4006841201477</v>
+        <v>48.63313890531734</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14.99513949972765</v>
+        <v>13.548182215879</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.75940548705019</v>
+        <v>32.5146815244644</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>37.13262801712949</v>
+        <v>35.31975376510966</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.995333578806417</v>
+        <v>5.261826736845684</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.64143555148702</v>
+        <v>27.17344252361381</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.35192442672114</v>
+        <v>37.43632800039603</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3.171430028025437</v>
+        <v>4.83505182803183</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.73097947482569</v>
+        <v>47.33363184860141</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.776447347539776</v>
+        <v>4.412606759643275</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.52300207108049</v>
+        <v>16.53292333342366</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.99914997685556</v>
+        <v>25.10148752545508</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8460569005935454</v>
+        <v>1.19423820798966</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.87310426813899</v>
+        <v>33.04872159859602</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>39.52740220228043</v>
+        <v>39.24249064175705</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.4602159903623146</v>
+        <v>1.775234169670316</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.48681190103507</v>
+        <v>47.39274894350987</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.12185625598673</v>
+        <v>52.83386401972392</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>50.12370651267513</v>
+        <v>51.09017498159854</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>51.15094086539273</v>
+        <v>52.65602226358089</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.10400695070929</v>
+        <v>60.71571601126903</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.49552310629765</v>
+        <v>11.55075704624228</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.75734256477583</v>
+        <v>26.18148605728623</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.05316831337912</v>
+        <v>52.66136892063385</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.27318707789545</v>
+        <v>9.444299315000752</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.86509026017972</v>
+        <v>27.78566514008223</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>39.07268963178461</v>
+        <v>36.12331977440337</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.040429239191344</v>
+        <v>5.725216273183818</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.21479565784396</v>
+        <v>28.23564427168203</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>44.05579977029795</v>
+        <v>41.52936739434088</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.529202465249778</v>
+        <v>1.227038387098474</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.17733000143934</v>
+        <v>42.53968879887776</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.76716474378597</v>
+        <v>22.64898113278876</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>19.43314640589137</v>
+        <v>20.00064523409473</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.13865048969283</v>
+        <v>33.44540892847374</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.53093985064896</v>
+        <v>36.23765410487584</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.518333588636057</v>
+        <v>7.392840953292325</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14.0417015635962</v>
+        <v>15.32129438953236</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.51059896184</v>
+        <v>22.4510237173756</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>15.1147481548519</v>
+        <v>13.9269194663389</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.10160030395635</v>
+        <v>23.27199338491925</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.52417730774803</v>
+        <v>34.48327881974279</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.090738324366868</v>
+        <v>4.876809113373028</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.52925548651247</v>
+        <v>11.08645047731273</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.60517563153773</v>
+        <v>17.9909109572711</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-2.426930746905747</v>
+        <v>3.155451579203017</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.6727535097689</v>
+        <v>20.41925807786316</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.95736859705447</v>
+        <v>40.24788340324698</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>23.29390811503605</v>
+        <v>22.15355798050738</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>39.43753783147811</v>
+        <v>41.94605963844153</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.3298699509964</v>
+        <v>49.40577843246591</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.703695405113901</v>
+        <v>5.204804708940443</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18.14183368657168</v>
+        <v>19.47429787436187</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.21028317774996</v>
+        <v>32.78762839692948</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.60802011220046</v>
+        <v>58.71243209971598</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>57.24000169407774</v>
+        <v>59.87441097121551</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.99448161146698</v>
+        <v>65.25818902439919</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>67.30107063384911</v>
+        <v>64.05850963181716</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.31447272365937</v>
+        <v>25.34843891757643</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.60810963679877</v>
+        <v>61.46904001985423</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>66.02643750318468</v>
+        <v>64.67691819404889</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.59951317983771</v>
+        <v>29.82469516943774</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.16572557924756</v>
+        <v>41.88355497275174</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>47.799001277478</v>
+        <v>44.85909522651752</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>11.11792776319473</v>
+        <v>6.92407596327287</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.19821517037893</v>
+        <v>46.41243783304928</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.98453956165805</v>
+        <v>46.03979240623404</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.36920246436836</v>
+        <v>8.261875929324987</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.72544670623694</v>
+        <v>69.25531487538579</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.13277905405883</v>
+        <v>68.45666398724252</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.56462643296487</v>
+        <v>80.89977570487865</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.39613610015245</v>
+        <v>83.67196948367726</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.03380546259416</v>
+        <v>85.14936614004435</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>34.85646617552476</v>
+        <v>38.5139828719574</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>80.96910910495002</v>
+        <v>78.88602226717697</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>82.84793411647544</v>
+        <v>79.78288520907745</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>62.5800594119313</v>
+        <v>60.83436194240524</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.36245440626206</v>
+        <v>48.43512977262982</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>57.40545168361011</v>
+        <v>55.13179064167906</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>64.10771478720562</v>
+        <v>62.9725183924391</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.69973721563937</v>
+        <v>12.45949808487499</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>56.16378278817794</v>
+        <v>54.45626809874641</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>63.8507338486159</v>
+        <v>61.75059007820694</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>18.01349505622054</v>
+        <v>16.02638174304609</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.65261091393681</v>
+        <v>36.76130115871327</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.45123995518768</v>
+        <v>43.34592561493378</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.991723555404665</v>
+        <v>5.708976809099667</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.79836340062714</v>
+        <v>39.51354537942386</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>45.50249491171235</v>
+        <v>47.44091216365356</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4.493721712572434</v>
+        <v>7.656990298933898</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>62.6565607212936</v>
+        <v>64.16796399885968</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>74.3996396819563</v>
+        <v>72.82791854966743</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.26196498087157</v>
+        <v>78.42057260653444</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.57138838610157</v>
+        <v>79.41371709968962</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>90.14402486165829</v>
+        <v>88.3367384008038</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.70617081758929</v>
+        <v>18.87518056885765</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>75.1033897723977</v>
+        <v>72.73094026816888</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>83.01525921248438</v>
+        <v>82.21627243781535</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>60.61103539271137</v>
+        <v>59.33821196465175</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.99330511436025</v>
+        <v>29.37002832186993</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.81352584576219</v>
+        <v>33.89067949492297</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.40888462962531</v>
+        <v>45.72285672518628</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.999079107953289</v>
+        <v>9.295698494676479</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.13011149541988</v>
+        <v>49.72768854869587</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.37183241763458</v>
+        <v>59.60202663484022</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.3660132347284</v>
+        <v>12.70354531481505</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.64371448092785</v>
+        <v>35.45522370038734</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.64601033990856</v>
+        <v>45.80975999046726</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9.057680539991456</v>
+        <v>6.473777807129927</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.47502797315126</v>
+        <v>40.02945549730228</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.59172297464321</v>
+        <v>50.33925745036775</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.232392675716927</v>
+        <v>2.159369412850449</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.40848417003012</v>
+        <v>58.13120785848371</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>74.61501798858465</v>
+        <v>72.27207350407136</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.70127809128893</v>
+        <v>64.46808496614759</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>70.36577916843977</v>
+        <v>71.54061239250949</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.89958062081284</v>
+        <v>87.83274421203241</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>14.90963902911062</v>
+        <v>11.93069169031051</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.90596331962637</v>
+        <v>64.17379669350386</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>81.73084485703734</v>
+        <v>80.32003800079674</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.60249953684774</v>
+        <v>11.58036577105161</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>12.04891883359852</v>
+        <v>12.67798904618583</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.7807149918592</v>
+        <v>24.62573526933203</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.5675403309644835</v>
+        <v>1.625093886095677</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.74973376605423</v>
+        <v>17.61008786552918</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.88635180629367</v>
+        <v>19.76518017057501</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4.90665418018094</v>
+        <v>6.37067145164626</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.00265088772814</v>
+        <v>35.73428453295034</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.07734052197752</v>
+        <v>37.18581435689276</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>14.82871113927724</v>
+        <v>14.69044087817236</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.3887610393467</v>
+        <v>18.13915604140823</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.17783454886513</v>
+        <v>17.21197376764956</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.11431039367609</v>
+        <v>15.96385224806183</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13.2997863643485</v>
+        <v>13.7896451528991</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.70011091359729</v>
+        <v>32.1275399997055</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>8.002353907712052</v>
+        <v>9.504512492447141</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.47612647413217</v>
+        <v>24.84285981236471</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.69764742881733</v>
+        <v>28.01911153317427</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.865858080376068</v>
+        <v>-0.0534540257531475</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.06355687808205</v>
+        <v>9.29950517864312</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.22728059493749</v>
+        <v>14.02854415186816</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-3.060527738518783</v>
+        <v>1.937740286931316</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.72342024961685</v>
+        <v>24.33909728197013</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>14.39262008790251</v>
+        <v>17.59626008280298</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.37495732316341</v>
+        <v>24.05673714236305</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.95934143813738</v>
+        <v>27.40710115734709</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.767169053637087</v>
+        <v>1.431673675535819</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.40170853253835</v>
+        <v>29.02474550834681</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.96762761645217</v>
+        <v>30.57206669705822</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4.705592078488277</v>
+        <v>5.737690614236673</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.31923536811151</v>
+        <v>45.15299179828222</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.96442552050046</v>
+        <v>44.13411234500126</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.31332044298174</v>
+        <v>39.17321683487764</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.08483072052296</v>
+        <v>48.52421532315434</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.67633271138795</v>
+        <v>47.70924853762155</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>19.11414294186111</v>
+        <v>20.2475101004651</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.90641720477033</v>
+        <v>38.58545410382705</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45.31540342451339</v>
+        <v>42.72443587348994</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16.25017163667916</v>
+        <v>18.47216760121667</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.53054680950397</v>
+        <v>30.65313946139675</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.22282127331317</v>
+        <v>33.41700997083942</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.7235499519717514</v>
+        <v>0.6503267426976436</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.48110978840158</v>
+        <v>28.95672260175427</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.67061897463033</v>
+        <v>33.52226564622923</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.486423249486052</v>
+        <v>2.957918404433542</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.89250724573525</v>
+        <v>47.6400466469873</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>3.99044714929223</v>
+        <v>5.873704369503379</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>14.73853830435973</v>
+        <v>17.25818112824694</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.48505102807611</v>
+        <v>24.74537447827359</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.7599659910046697</v>
+        <v>0.89334859158242</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.44854203272557</v>
+        <v>28.88253394148104</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.12094172463591</v>
+        <v>30.07063272858015</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2.75834991394224</v>
+        <v>5.809881260691267</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.12022090661937</v>
+        <v>44.94655962734433</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.15190570284349</v>
+        <v>47.33707397787541</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43.84810713722739</v>
+        <v>45.9746528950738</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.35710824772587</v>
+        <v>50.93058329617805</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>54.65813807971375</v>
+        <v>56.68366642644587</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4.627269809790558</v>
+        <v>4.679452892740873</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>24.83819759670936</v>
+        <v>25.28332251635941</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.41085061811141</v>
+        <v>32.07951745552566</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.98319043325305</v>
+        <v>11.16160070267282</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.91033638308582</v>
+        <v>27.54374177668907</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.24138950231546</v>
+        <v>32.35016232872928</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1.780138340228984</v>
+        <v>0.4163768277308932</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.78665739079294</v>
+        <v>26.0845669571068</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.01588185747237</v>
+        <v>34.08802764407451</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-0.4581485492161939</v>
+        <v>3.479640402596118</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>42.50366635788077</v>
+        <v>44.30324636170991</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-1.193127651377242</v>
+        <v>3.086942933283051</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>9.960928355643697</v>
+        <v>11.92516642703046</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.10471688483784</v>
+        <v>23.24690538586012</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.037798640801576</v>
+        <v>-0.05651381690589119</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.59361244627862</v>
+        <v>25.32160998488461</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.44646841348818</v>
+        <v>33.13166481025319</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-0.2830999659008206</v>
+        <v>0.7628528974541844</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.99509516694581</v>
+        <v>40.70426089593962</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>49.77835940426284</v>
+        <v>46.71144358880613</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.22694934201769</v>
+        <v>42.19810988352823</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.66743783563502</v>
+        <v>46.56909802569543</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>51.17389638356909</v>
+        <v>52.28422913626923</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-0.963237910302027</v>
+        <v>1.660897585254812</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.467563283278</v>
+        <v>21.87813992966551</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.45196681382085</v>
+        <v>36.33764875712076</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>3.308600606702139</v>
+        <v>6.47666433895828</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.86490378534493</v>
+        <v>24.9124921232975</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.21907354032794</v>
+        <v>29.97257982968771</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-3.058899518208314</v>
+        <v>-0.04165050038040619</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.66271839741375</v>
+        <v>22.78217712896535</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.78257444259883</v>
+        <v>30.68758958738931</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2.502696967304203</v>
+        <v>1.014407590693526</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.72088857383734</v>
+        <v>37.19858475148423</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.82355161606319</v>
+        <v>26.30590231222106</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.45829906733905</v>
+        <v>21.18052118132505</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.35436856272973</v>
+        <v>35.06944267521234</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.72623638101331</v>
+        <v>37.80111672624037</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.69955214476283</v>
+        <v>8.752167369005889</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.10527109447006</v>
+        <v>18.6121567239373</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.55687952516373</v>
+        <v>26.01261908325357</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.72984033064805</v>
+        <v>13.28962943202329</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.54234926760684</v>
+        <v>26.85334844405157</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.34064778477135</v>
+        <v>34.85943378502432</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-3.96358536864787</v>
+        <v>-0.02491345797234956</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.851776492377855</v>
+        <v>8.952618785783979</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.48424103502372</v>
+        <v>17.39735430912488</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.428742976004099</v>
+        <v>3.557958387215013</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.3577554982859</v>
+        <v>27.74765176151993</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.53350249861131</v>
+        <v>46.53888427354293</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.27287123759608</v>
+        <v>26.91587850559874</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.04622476043146</v>
+        <v>43.15118773702396</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.90731047189692</v>
+        <v>48.80087372055374</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.929074282665116</v>
+        <v>8.671710504336279</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.58059180432453</v>
+        <v>23.8215054216848</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>37.67670353036632</v>
+        <v>36.02334451278523</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>55.7790471561748</v>
+        <v>54.49301033475706</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.88875277697948</v>
+        <v>48.24379004863842</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>56.33634265361543</v>
+        <v>57.730170052921</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.16151246993331</v>
+        <v>58.2629164751434</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.7852015520266</v>
+        <v>19.67073448449601</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.37523499683977</v>
+        <v>53.41000302831173</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.74351838758993</v>
+        <v>56.04497603695146</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.50528262089781</v>
+        <v>26.21399550234155</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.95866704485717</v>
+        <v>37.22976584467594</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.61592684910558</v>
+        <v>43.39280883624561</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3.836562227513511</v>
+        <v>2.129441371532053</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.42240091992123</v>
+        <v>39.7256485670578</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.7944850355364</v>
+        <v>43.60495616538263</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>8.974180768149644</v>
+        <v>7.813509397365625</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>64.51439620058288</v>
+        <v>63.02988042206334</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>70.15658822014393</v>
+        <v>66.87027382217735</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.24451893082981</v>
+        <v>70.30046099999601</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.30766828734566</v>
+        <v>75.52934868254181</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.83851573993883</v>
+        <v>80.10701683855358</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.18559682625459</v>
+        <v>32.06101694123686</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.5008990707764</v>
+        <v>71.14029600747713</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>75.69455654407966</v>
+        <v>74.59433308019484</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>56.51330926276135</v>
+        <v>55.89552657631299</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>39.73835601313625</v>
+        <v>42.47948837056146</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.45150812384591</v>
+        <v>48.82335487265472</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.99937232834122</v>
+        <v>56.36580973239811</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.452542604423339</v>
+        <v>10.85755004970449</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.93575004043694</v>
+        <v>46.9777528268141</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.33379011063874</v>
+        <v>52.66178560953654</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.19565626650785</v>
+        <v>16.1149916882677</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.40327638790927</v>
+        <v>34.6747636731898</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.48538659830454</v>
+        <v>42.1761262531185</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.1402330688131848</v>
+        <v>0.7805969428585229</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.11751630937793</v>
+        <v>38.62495163428414</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.65400694029277</v>
+        <v>41.73667572158923</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.602598646182177</v>
+        <v>6.557169630894904</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>62.42162132270305</v>
+        <v>61.36204767038907</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>71.2525411536806</v>
+        <v>69.55140818785394</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>69.6495740904607</v>
+        <v>69.01708111681985</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>73.45500973793405</v>
+        <v>73.19191902535923</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>86.73735339036617</v>
+        <v>83.3871190606891</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.76318230956531</v>
+        <v>16.39116772322018</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>67.81468599209214</v>
+        <v>68.52766708802181</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>74.48096070890145</v>
+        <v>74.42896200585704</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.68115448078558</v>
+        <v>50.67666221396863</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.2709356504817</v>
+        <v>26.29967121159283</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.7333165750895</v>
+        <v>33.37447993779012</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.33579621388562</v>
+        <v>40.35571433227767</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>3.528158184705017</v>
+        <v>6.653330927195494</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.3703517719168</v>
+        <v>40.33161357173719</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.05734355165848</v>
+        <v>48.04963456537871</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.54673148866459</v>
+        <v>10.22149442420669</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.3702757544792</v>
+        <v>34.5666157777843</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.13555724746193</v>
+        <v>42.6240453518306</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1.060473184899049</v>
+        <v>0.6508070010593947</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.16023576646261</v>
+        <v>36.95891356694678</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.01243481489206</v>
+        <v>42.49233081142219</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>3.714585324760808</v>
+        <v>2.187044287404539</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>58.18437851774394</v>
+        <v>57.90747941171364</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>72.33318471502118</v>
+        <v>68.08093983720669</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61.24619985475054</v>
+        <v>61.91197955272445</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>69.03747551793313</v>
+        <v>68.91562624299297</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>83.21965047147854</v>
+        <v>79.92603336960852</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10.1573049638317</v>
+        <v>9.372968220781463</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64.47832706537805</v>
+        <v>65.31035243289773</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>75.46969528899537</v>
+        <v>73.9160958887629</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.69527913999742</v>
+        <v>13.17054350628793</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.26488361215978</v>
+        <v>13.54416729220388</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.41689441319083</v>
+        <v>27.63736327020757</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.02906065612168973</v>
+        <v>4.205342610105955</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.58833161125424</v>
+        <v>19.04740098744414</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.64313120939952</v>
+        <v>22.50001649870236</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.897654367816955</v>
+        <v>8.453922419094557</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.22188187150493</v>
+        <v>41.78891270064556</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.55889923020879</v>
+        <v>44.07251637205569</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>15.71460010284701</v>
+        <v>15.80217597505563</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.80067883958144</v>
+        <v>18.76173553091814</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.43275202407127</v>
+        <v>19.01667275786803</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.98288835036622</v>
+        <v>25.99204262604429</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.22810032920969</v>
+        <v>22.39453201352985</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.12885312836236</v>
+        <v>37.8255064851464</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.84232324342901</v>
+        <v>17.63814059447655</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.25401051386156</v>
+        <v>29.5612768205554</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.5358968065101</v>
+        <v>33.96521323908007</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.232780908637004</v>
+        <v>6.679393226042496</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.54786241586311</v>
+        <v>16.09705237710042</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.64955557776885</v>
+        <v>20.48393947380011</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.3689086390846867</v>
+        <v>4.898533491905201</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.32046630042477</v>
+        <v>25.83100102501446</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.65966687455187</v>
+        <v>24.48290860821565</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.36673939229754</v>
+        <v>34.69414585132269</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.64702692326512</v>
+        <v>34.83776267470691</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.625426290209326</v>
+        <v>4.066524635244669</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>39.15018629168556</v>
+        <v>38.83812619160529</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.51833295780904</v>
+        <v>39.66493785505301</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>7.669576230616475</v>
+        <v>7.959753588965491</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>59.56004358284852</v>
+        <v>55.42511282733565</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>54.97646093894667</v>
+        <v>52.54119573612091</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.97160328113335</v>
+        <v>47.75376831777405</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>58.43211075490888</v>
+        <v>55.51168770626989</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>59.69000903825048</v>
+        <v>56.86069095350258</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>32.57377088571585</v>
+        <v>32.4431804687201</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.3400554214163</v>
+        <v>41.46662789767947</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>48.12002933418438</v>
+        <v>45.85018101414055</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.85490086761813</v>
+        <v>26.83174838895079</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>48.01733889769537</v>
+        <v>42.24366892318452</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>46.26068906514575</v>
+        <v>41.1851817062078</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.186165908296907</v>
+        <v>7.36567142420224</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>41.07094046080675</v>
+        <v>39.23475724088133</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.48881177694063</v>
+        <v>40.60845467709058</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.017415595408558</v>
+        <v>6.937407744828292</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>62.26787408365804</v>
+        <v>58.2877167424557</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.444380119039131</v>
+        <v>9.526824660755743</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.37323007295809</v>
+        <v>24.3929809615237</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.42383198391926</v>
+        <v>29.27599385167169</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.118802866060317</v>
+        <v>3.142217682669486</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>35.53411864176711</v>
+        <v>33.76519277630903</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.49286270966287</v>
+        <v>37.9832245271464</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>6.347446324706194</v>
+        <v>8.310164202784282</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>58.00719706182932</v>
+        <v>53.29164884521465</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.75610981654996</v>
+        <v>55.90167335960275</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>57.30726983846387</v>
+        <v>56.4720522444284</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>64.34369021304829</v>
+        <v>62.8568390050699</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>69.95423815959893</v>
+        <v>66.93703556453562</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.32600461813542</v>
+        <v>18.65553495648948</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.93342833437816</v>
+        <v>32.04899647576931</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.31754940234616</v>
+        <v>37.45673267730839</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.41173381493251</v>
+        <v>17.50371123975529</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>39.27338716241192</v>
+        <v>37.31637443848236</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>42.32496541598972</v>
+        <v>39.03969369359517</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.137540259999447</v>
+        <v>6.832375290763704</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.83817909514226</v>
+        <v>32.37077372116423</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.29228573523184</v>
+        <v>39.89155148863701</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.546607216440751</v>
+        <v>5.961739861279874</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>56.54095715223438</v>
+        <v>54.10076988290878</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>5.047588406574416</v>
+        <v>6.526121305146226</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.75745186391075</v>
+        <v>22.00954658266518</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.65717029746859</v>
+        <v>30.07232230480173</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.079943244115309</v>
+        <v>3.571775447796284</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.74418046086352</v>
+        <v>35.80384112761086</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.74255143773791</v>
+        <v>41.3964056860853</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.441606222656066</v>
+        <v>4.851187936019862</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>57.85053657759974</v>
+        <v>53.21772037351836</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>59.96884422648232</v>
+        <v>56.73220054025657</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>57.08367981071158</v>
+        <v>52.52691353509447</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>61.78773361983052</v>
+        <v>56.64283417203763</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>68.61478891593127</v>
+        <v>63.80252329747925</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.34755087282989</v>
+        <v>17.3660527240203</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.50687072469622</v>
+        <v>26.61011686575452</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>44.09123490387</v>
+        <v>41.32495537176172</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.64378125384616</v>
+        <v>13.91120251790897</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.56845953084391</v>
+        <v>32.96486517407616</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>43.33819025688177</v>
+        <v>38.20344599326411</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.70353555639263</v>
+        <v>7.102024044828998</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.39337531396477</v>
+        <v>32.96238520807241</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>46.65287933426941</v>
+        <v>43.86910059682572</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.288229966751942</v>
+        <v>3.603472872445042</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>51.91809218779255</v>
+        <v>49.04380901628294</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>33.16000351666806</v>
+        <v>28.14533069920382</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.85348437566149</v>
+        <v>24.68182834566078</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.86869052955612</v>
+        <v>40.5647678423549</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.82158502877573</v>
+        <v>42.36324816221299</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.88113033103752</v>
+        <v>11.71485157748197</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.68190308038987</v>
+        <v>23.05716875998986</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.58081352273357</v>
+        <v>29.55412894474554</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.76913212971341</v>
+        <v>19.55987800651746</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.64816544849173</v>
+        <v>28.9705225313589</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.38085609874675</v>
+        <v>37.32176897407084</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.501669804896949</v>
+        <v>5.968744996078165</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>13.83324719934808</v>
+        <v>13.60015824424537</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.43221890170331</v>
+        <v>19.86560251922435</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.7710292576313122</v>
+        <v>4.823176200620569</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.46567542175291</v>
+        <v>25.8238579649766</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.36166586200608</v>
+        <v>44.39968238080299</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.1699689265613</v>
+        <v>26.0636665905642</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.69444231444601</v>
+        <v>45.11764203604142</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>51.46686283265593</v>
+        <v>50.89354598530466</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.53156090632568</v>
+        <v>10.50074876458257</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.42793804862589</v>
+        <v>24.73478430768536</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>40.26620605061069</v>
+        <v>37.87642729479784</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.4680357094135</v>
+        <v>63.08129666197446</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>65.77095965239845</v>
+        <v>63.25733953960595</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>76.63688026523219</v>
+        <v>69.54990464070647</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>75.09852255058718</v>
+        <v>69.5453265961424</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.04389635886849</v>
+        <v>29.64142743439251</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>72.02711963578784</v>
+        <v>66.58902747093362</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>72.76541433692773</v>
+        <v>69.22861951992272</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.35049916818888</v>
+        <v>32.23551382648523</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>49.17734171167685</v>
+        <v>44.78081576818504</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.3528510070979</v>
+        <v>46.25923686723253</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.5321278246732</v>
+        <v>8.307573020602081</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.90652192183136</v>
+        <v>47.1757480894122</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>46.09944582720505</v>
+        <v>46.77722472852507</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>11.00251133057876</v>
+        <v>9.447426044141125</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.33894636888699</v>
+        <v>70.43933121180494</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.33687810238548</v>
+        <v>69.95478910309177</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>82.42135613497715</v>
+        <v>78.6858052434832</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>88.0736255538299</v>
+        <v>82.47716064769118</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>89.84093561771211</v>
+        <v>84.7932806016135</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.99299508831294</v>
+        <v>41.70797368392298</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>85.41244030420924</v>
+        <v>80.53527189307334</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>85.34674769778911</v>
+        <v>80.65389747120715</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>69.06659933325064</v>
+        <v>65.1986168614247</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>57.83862554380259</v>
+        <v>54.75323257679333</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>67.86124149132537</v>
+        <v>61.7158100713707</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>72.91307521498548</v>
+        <v>68.91227632055271</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.94103679045949</v>
+        <v>21.0439787529813</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>67.30222822762262</v>
+        <v>61.13253048268149</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>71.00369698920646</v>
+        <v>66.52348797747226</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.70844822313149</v>
+        <v>20.87550349366409</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>41.78811736870836</v>
+        <v>39.90512826787136</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.9340466061072</v>
+        <v>44.54330265415924</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.854588652355726</v>
+        <v>6.999180566333827</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.43005885295204</v>
+        <v>38.82456668219557</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.99715770088358</v>
+        <v>44.858958974251</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.030817984739343</v>
+        <v>9.495048753805744</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>67.55863363648891</v>
+        <v>65.17757295826711</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>75.91879343538822</v>
+        <v>72.57742168090648</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>79.69211333668065</v>
+        <v>75.71531601067917</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>83.68375168952201</v>
+        <v>78.56629518440143</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>91.93613904667919</v>
+        <v>86.48822395604105</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.57898561351167</v>
+        <v>27.39678234779283</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>81.51030115684723</v>
+        <v>76.4311032939131</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>85.17998227793467</v>
+        <v>81.49881507476104</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>66.91087710080606</v>
+        <v>62.11000712374489</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.63535423723418</v>
+        <v>36.15473219727064</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>48.28376876181638</v>
+        <v>41.30712667469059</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>56.99066785277318</v>
+        <v>52.43368488917383</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.37489967677523</v>
+        <v>17.03076732740682</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>59.48948827073109</v>
+        <v>56.12046285582337</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>66.61733228576615</v>
+        <v>63.37693487822683</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.95725324445473</v>
+        <v>18.71599628779545</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.05443172688938</v>
+        <v>39.69440487950558</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>50.01587748225602</v>
+        <v>46.95317645442481</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.491618302408934</v>
+        <v>7.949389069195981</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.93632345110517</v>
+        <v>42.18731290303502</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>50.75816225276816</v>
+        <v>48.99357953882223</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.092590840903714</v>
+        <v>5.034561398261509</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>63.41048966099488</v>
+        <v>61.23702481365646</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>76.36272697234796</v>
+        <v>71.92646316566096</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>68.8727849730181</v>
+        <v>66.64646926357123</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>77.30383790077853</v>
+        <v>73.33874874190862</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>89.19607580682474</v>
+        <v>84.16553892658031</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.77726713186563</v>
+        <v>21.99254644088723</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>74.60964534360484</v>
+        <v>70.39345618591877</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>85.61720478006353</v>
+        <v>80.45504602945833</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.47196766707977</v>
+        <v>12.4028800971941</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.89593273100726</v>
+        <v>14.69009763533731</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.64469150215663</v>
+        <v>19.98812618768839</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.147349280228756</v>
+        <v>5.874337666217404</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.311260447714037</v>
+        <v>10.84033916918657</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>8.751506387437647</v>
+        <v>11.92332778681914</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.085006646092761</v>
+        <v>9.023810815771192</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.65045921398696</v>
+        <v>22.55423342676291</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.48767021334733</v>
+        <v>24.33627679146707</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.56559011782363</v>
+        <v>14.55220073366982</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.74695676156178</v>
+        <v>17.58711575888357</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.90175909573893</v>
+        <v>17.4353891724357</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.413787007747633</v>
+        <v>11.36735448731446</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.004289418744644</v>
+        <v>12.42766103878823</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.27231614877227</v>
+        <v>18.38416321964105</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.51767835378558</v>
+        <v>12.83210554861041</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.0948213271698</v>
+        <v>22.04845275763602</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.46434301765409</v>
+        <v>25.53729875498029</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.06213802901374521</v>
+        <v>4.930089414219786</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.518429107589718</v>
+        <v>9.54376230183621</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.82414526067601</v>
+        <v>12.99208629277074</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.4986286225496706</v>
+        <v>5.656904879151309</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.25724895797714</v>
+        <v>18.87778277612629</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.45612314600534</v>
+        <v>16.11227316471958</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.72178196623489</v>
+        <v>22.42875907246621</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.0705586740006</v>
+        <v>22.54079939628084</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.347514960362432</v>
+        <v>5.353613127420203</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.696192126337</v>
+        <v>22.79694206014075</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.59528852319232</v>
+        <v>24.24621936271621</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.919136893681241</v>
+        <v>7.341290882408739</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.08996792520465</v>
+        <v>32.8724613978798</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.48935285277028</v>
+        <v>32.43102068210929</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.07675139622688</v>
+        <v>30.96753026419993</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.96724395877726</v>
+        <v>37.83739969483149</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.52667217019943</v>
+        <v>38.11982513291827</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.03383456490734</v>
+        <v>14.39604973352731</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.6438355668269</v>
+        <v>31.62370001265499</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.94063251694479</v>
+        <v>33.5197915989754</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.31553588409274</v>
+        <v>15.36178706488678</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.85965658625252</v>
+        <v>27.30424349857869</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.60175511478644</v>
+        <v>30.01706118820135</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.927515619281632</v>
+        <v>5.140567258161099</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.62227925980726</v>
+        <v>25.85224861973012</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.60142287245647</v>
+        <v>30.26279286753126</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.776761762429899</v>
+        <v>6.038941480235891</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>38.50360318188231</v>
+        <v>38.96444950844776</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.236460082155059</v>
+        <v>9.4511732234789</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.79632735899861</v>
+        <v>17.4800624712764</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.71896613629171</v>
+        <v>20.91065708433231</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.335269855987463</v>
+        <v>5.486438474841414</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.49721001989925</v>
+        <v>21.82987451677209</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.27529244423049</v>
+        <v>23.67794860480295</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>5.517307862019781</v>
+        <v>9.799198311564805</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.56356616692777</v>
+        <v>33.79516461972075</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.91909476100638</v>
+        <v>35.01767587096171</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.55416244081812</v>
+        <v>34.00122088367804</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.42170819624594</v>
+        <v>36.53546950756581</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.61176043419508</v>
+        <v>41.884084197463</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>4.603210641600562</v>
+        <v>8.50162990827911</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.1202550696361</v>
+        <v>22.71790303417803</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.92923845407994</v>
+        <v>25.03027310813176</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.591749563433769</v>
+        <v>11.090645640709</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.58801424024228</v>
+        <v>23.72802443698029</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.39733669572692</v>
+        <v>29.28873258874665</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.812080216476168</v>
+        <v>5.111111828979663</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.35918249011103</v>
+        <v>20.89115572330525</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.05283099029304</v>
+        <v>30.43954362836615</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>2.332257897563057</v>
+        <v>7.165736524024496</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.34095893713548</v>
+        <v>33.54300422145678</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.714551667030111</v>
+        <v>7.330307428836662</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>10.19464244019457</v>
+        <v>14.09340672666194</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.92929608030881</v>
+        <v>19.76566005104917</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.6922032506891327</v>
+        <v>4.484214551820536</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>14.21617248525715</v>
+        <v>16.22185449103272</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.79648309282726</v>
+        <v>25.1009493732366</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1.565042795354067</v>
+        <v>5.240600538484237</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.02071722337397</v>
+        <v>27.53533951334212</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.89876549492897</v>
+        <v>33.72851968995218</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.18737995670842</v>
+        <v>27.84647231920684</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.55157626136346</v>
+        <v>30.7289698173128</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.56245329588278</v>
+        <v>36.47875881494592</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1.230562835188618</v>
+        <v>6.97812211068425</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.64337514200412</v>
+        <v>21.99675497945241</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.68210028809271</v>
+        <v>28.10091985714214</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.256987694438727</v>
+        <v>8.439849046099518</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.42518413491937</v>
+        <v>20.50815114886169</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.89633484059031</v>
+        <v>25.9038473481119</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.6191556958223075</v>
+        <v>4.752896159058647</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>14.02859720642006</v>
+        <v>18.38432899208096</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.95939131982187</v>
+        <v>27.07286808866215</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>0.1024679985781525</v>
+        <v>4.833861925793599</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.93576701614728</v>
+        <v>27.33700532274138</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19.5587060238982</v>
+        <v>20.91898876075425</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.0002856053982</v>
+        <v>18.9546959518024</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.52528396399307</v>
+        <v>29.23300275196167</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.22772615350256</v>
+        <v>31.24441797207776</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>4.233317292926966</v>
+        <v>8.994303254289552</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>12.17904268716993</v>
+        <v>15.04106562291755</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>18.11348109069691</v>
+        <v>20.41474594070979</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.67241907094541</v>
+        <v>15.23601033451573</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.28005108979875</v>
+        <v>25.4517857414859</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.73973036469988</v>
+        <v>30.13791432636716</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-0.695668651803949</v>
+        <v>4.906237002699282</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>6.762221479819956</v>
+        <v>9.902909474110004</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>12.7337134319583</v>
+        <v>14.7577561705014</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>2.365805301744615</v>
+        <v>7.048011811099048</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.43494512842197</v>
+        <v>22.40145834144943</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.30810629599562</v>
+        <v>34.61009103876988</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>21.7224636837223</v>
+        <v>23.42936921810591</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.96943959683905</v>
+        <v>35.19568433596663</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.92851328990162</v>
+        <v>38.92976026965216</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>7.225930157780478</v>
+        <v>10.06053127307587</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>18.23536200038297</v>
+        <v>20.27144251761554</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.74020152192919</v>
+        <v>28.57733758290395</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>48.15033788507471</v>
+        <v>46.50298071203851</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.1065980268808</v>
+        <v>39.8885434855891</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.79560878427441</v>
+        <v>48.76310094378627</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.77446000410457</v>
+        <v>49.54165707668936</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.11007405950406</v>
+        <v>14.56479950957421</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.87198513442205</v>
+        <v>44.28415523966623</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.09723700528091</v>
+        <v>47.47371735941822</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.91942117235178</v>
+        <v>24.03801047439931</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.98995362000291</v>
+        <v>34.5872014485467</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.50320113164292</v>
+        <v>39.84656665897509</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>7.647183410344109</v>
+        <v>7.079644783121946</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.40082457654539</v>
+        <v>35.42846003491087</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.43731910060905</v>
+        <v>39.55268930744429</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>11.90811378967922</v>
+        <v>12.19356142752387</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.72460365960964</v>
+        <v>54.56380843774339</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.73383011825477</v>
+        <v>57.79123672984229</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>62.83532587492334</v>
+        <v>61.449275763424</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>68.41886704235174</v>
+        <v>65.81092240163596</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>75.99955275048869</v>
+        <v>71.47449832107928</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.69130076409068</v>
+        <v>28.63175946717735</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.91484581542701</v>
+        <v>61.80713375307553</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>66.37960481939979</v>
+        <v>64.74221277470022</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.88144405359127</v>
+        <v>48.12738373139942</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.46680449200293</v>
+        <v>33.28214487022705</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.84536390497964</v>
+        <v>39.27874845511249</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>46.06093855444995</v>
+        <v>47.25702052406837</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>6.319004526904614</v>
+        <v>10.52736788718579</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.09589499907403</v>
+        <v>37.49016200416021</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.03515529723966</v>
+        <v>44.1310099418311</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.14253783600917</v>
+        <v>17.56577814126406</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.40440159093396</v>
+        <v>31.96115611210364</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.32502330476173</v>
+        <v>39.81847444724293</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.740698155176776</v>
+        <v>5.709389382933026</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.63643862579269</v>
+        <v>31.81891316934387</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.22867861688027</v>
+        <v>37.85824836480194</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>7.983579340403875</v>
+        <v>10.96089308232564</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>52.39344222907349</v>
+        <v>49.99138739347683</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.15239967884966</v>
+        <v>61.11151132997139</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>58.85357101288203</v>
+        <v>56.88569620679654</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.70440528488788</v>
+        <v>60.90810024018139</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>78.24737260444809</v>
+        <v>73.44820747333293</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.61984130126005</v>
+        <v>18.99171018595194</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.88071673749629</v>
+        <v>56.15789595458303</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>65.18580638563508</v>
+        <v>62.78023684280369</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.84473778373678</v>
+        <v>41.7378532259839</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>17.86147936116833</v>
+        <v>21.51989728779217</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>24.02266751779592</v>
+        <v>26.24496113883773</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.6046062733567</v>
+        <v>32.58336421732952</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2.927913263354473</v>
+        <v>8.077396734300201</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.33779737509391</v>
+        <v>28.99184775937901</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.19455129788088</v>
+        <v>38.17699842247715</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.4458889002654</v>
+        <v>13.16237786145596</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.26811094478474</v>
+        <v>30.93118785976789</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.68180251791813</v>
+        <v>38.9290969363928</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>4.156255274427611</v>
+        <v>5.544496357628169</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.35521473022177</v>
+        <v>30.38668346978865</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.49747697111134</v>
+        <v>37.79501894587375</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>5.778863503171966</v>
+        <v>6.433375030577729</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.67164259866232</v>
+        <v>45.09168516639009</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>61.38945745791726</v>
+        <v>58.56379076674582</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.1967638682541</v>
+        <v>48.95204771086129</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.08930479153604</v>
+        <v>54.28667610143007</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.43237706769801</v>
+        <v>68.65786465523891</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.2913506652535</v>
+        <v>12.41375294080068</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>51.52367211240029</v>
+        <v>51.32651012719536</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>63.69078521690496</v>
+        <v>61.43022106436486</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.82453341918423</v>
+        <v>23.33141557929205</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.6003592363838</v>
+        <v>16.88404635254495</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.02480014481444</v>
+        <v>36.36554176746988</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.54320975710891</v>
+        <v>9.784247888576985</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.43953161339829</v>
+        <v>37.44027795969006</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.26058396207319</v>
+        <v>41.45943968608641</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.59360287355757</v>
+        <v>13.38655515253453</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>49.13696972718719</v>
+        <v>56.53900129411462</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>53.51451219323023</v>
+        <v>59.14052676033646</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.94552655340692</v>
+        <v>17.66038899337516</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.31474598740262</v>
+        <v>20.94979076953569</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.3770729967562</v>
+        <v>20.75178466034577</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.18752574125918</v>
+        <v>34.36371540243794</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.7656734158119</v>
+        <v>16.66889847259223</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>45.96193663288226</v>
+        <v>43.2338436003085</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.14508429322687</v>
+        <v>18.50751241799455</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.26873563055481</v>
+        <v>29.19049801015865</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.69580565034174</v>
+        <v>39.35420579302577</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.345431867674</v>
+        <v>30.5095504874528</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.62922733393508</v>
+        <v>36.06076995013849</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.68909857343748</v>
+        <v>38.21538247784557</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>3.050235316966717</v>
+        <v>5.705605527071739</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.72649517208341</v>
+        <v>23.24330624501185</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.11800686937117</v>
+        <v>29.99003984738248</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.83141721278609</v>
+        <v>34.9683885410638</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>41.78542714343313</v>
+        <v>37.97432126192271</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.36274389187023</v>
+        <v>8.362845329280628</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>53.19643003453352</v>
+        <v>55.34449405864135</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.29957838942924</v>
+        <v>53.71791234413165</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.0185962505497</v>
+        <v>10.34972449332833</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>63.16381505249535</v>
+        <v>59.8516905564955</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>62.13230452290502</v>
+        <v>58.49819709726125</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>59.51193025596965</v>
+        <v>57.67637970448116</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>62.27588281887159</v>
+        <v>60.95464894904013</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>63.20708795903602</v>
+        <v>60.48329295392994</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.99181680889826</v>
+        <v>44.28977322543284</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>56.80799540225969</v>
+        <v>51.77671031587469</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>67.41826358469045</v>
+        <v>64.46736915355783</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.6055440244157</v>
+        <v>29.70427258856507</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>42.47934403988557</v>
+        <v>39.67156431954755</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.93829667060614</v>
+        <v>39.21190357313302</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.88355358057198</v>
+        <v>30.54961833926565</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>52.58001807417454</v>
+        <v>51.36636737013708</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>51.60918803971738</v>
+        <v>48.06020507534999</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.09044791242654</v>
+        <v>6.972058027444131</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.82587591260398</v>
+        <v>53.90872930640641</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.9523672221435</v>
+        <v>14.7192201304998</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.76595424061609</v>
+        <v>26.15771849788676</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.40325775898094</v>
+        <v>33.0240732665894</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.391280152177689</v>
+        <v>7.405336333105094</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.73858485746716</v>
+        <v>49.74687036877008</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>49.3945991274425</v>
+        <v>53.20817282054385</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>10.32582854006747</v>
+        <v>10.55136729045728</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>60.04758056999543</v>
+        <v>58.97078665843156</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.3756800790334</v>
+        <v>64.27811404619581</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.021429151467</v>
+        <v>69.45412851528103</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>67.35363075408044</v>
+        <v>69.7563374732942</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>72.25070766800076</v>
+        <v>71.77594710571552</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.24227027988778</v>
+        <v>23.21920070214316</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>43.98865901379507</v>
+        <v>40.0052895164878</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>58.28722596820043</v>
+        <v>53.78615974075305</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.56540576848451</v>
+        <v>23.39330120873629</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.49985791982357</v>
+        <v>36.07412821055672</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.75410327772858</v>
+        <v>37.31435800668066</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.61620348023927</v>
+        <v>30.95551119261852</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.11314104309779</v>
+        <v>46.31579200328768</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.51853323546321</v>
+        <v>51.83118284977233</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>7.72054479346955</v>
+        <v>8.529530817898348</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>50.68385507997085</v>
+        <v>52.71553679396168</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>7.539734955613323</v>
+        <v>6.931159227944246</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>19.58066563515426</v>
+        <v>17.84910999760421</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.48349354008053</v>
+        <v>29.98952485680259</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.442110326682119</v>
+        <v>7.21541489209174</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>51.45905857372809</v>
+        <v>53.80084005664641</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.91406660281839</v>
+        <v>55.56423635253765</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.994210035145748</v>
+        <v>4.44085436532832</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>58.4025828913985</v>
+        <v>61.04747926390646</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>63.11046390274181</v>
+        <v>62.40899439477361</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>63.4207440294265</v>
+        <v>64.70502803756938</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>63.21152369068992</v>
+        <v>65.21639609514983</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>70.14747838227089</v>
+        <v>71.73381213320259</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>20.51743623736368</v>
+        <v>13.78985618975683</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.21685459175278</v>
+        <v>29.49433159101807</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>56.73269866527356</v>
+        <v>58.22691294864282</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.49857691467625</v>
+        <v>16.31306644671375</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.92477827054185</v>
+        <v>32.36041503456944</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.32090767476421</v>
+        <v>37.65808200937882</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.67309315351972</v>
+        <v>30.61115805228716</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.26278642368821</v>
+        <v>48.18126931850891</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>57.9082619232063</v>
+        <v>54.21765656410149</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.551326182861491</v>
+        <v>3.939799270344366</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>48.16782978694808</v>
+        <v>51.4272937825657</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.64610981197701</v>
+        <v>27.19796816238555</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.42296564268148</v>
+        <v>23.44957037327081</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>37.15100332922366</v>
+        <v>38.44003505776923</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>38.89584681088399</v>
+        <v>42.17299391469421</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.83325168489735</v>
+        <v>11.26683152608816</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.53779656889237</v>
+        <v>18.77801900547983</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.12787134747739</v>
+        <v>26.84878553394643</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.43608447380021</v>
+        <v>15.26737919956046</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.00965725082223</v>
+        <v>24.47557823556362</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.17237617486603</v>
+        <v>36.43785921695329</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.00145368982189</v>
+        <v>29.94765260098564</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.49038407193504</v>
+        <v>34.88104911375731</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>37.27292684279953</v>
+        <v>39.12956782070911</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>1.984029900613404</v>
+        <v>5.530861316850636</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.93839524388864</v>
+        <v>26.79794809177425</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.66735558726067</v>
+        <v>48.54332941903063</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.44847133503371</v>
+        <v>26.12318888561019</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.80457491465241</v>
+        <v>48.84471119280339</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.60248734286719</v>
+        <v>56.97545074393218</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>11.12151249905748</v>
+        <v>9.088853184688684</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.21722385603572</v>
+        <v>24.19524514700878</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>37.69764402034367</v>
+        <v>38.61239135352589</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>60.87264393609335</v>
+        <v>58.63429850309599</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>59.11405629394858</v>
+        <v>60.83149146140147</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>69.34903165178245</v>
+        <v>65.12179263461873</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>66.42655380295542</v>
+        <v>62.31746644156038</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.71535526769382</v>
+        <v>33.6585204742045</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>64.05367167961948</v>
+        <v>60.90341821386896</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>68.041899724434</v>
+        <v>65.28682132754776</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.35443232072251</v>
+        <v>34.39819706083706</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.27554236277902</v>
+        <v>41.04497379964404</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.50984512863889</v>
+        <v>43.25545923649172</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.55594075955601</v>
+        <v>31.63160166759782</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>61.25610412894575</v>
+        <v>59.98590719446324</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.81652272633231</v>
+        <v>53.75614049824184</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>11.59254936364513</v>
+        <v>8.520386357274976</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.8783841313434</v>
+        <v>68.55161888925933</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>71.27426092459362</v>
+        <v>67.51475284208496</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>82.81791230419313</v>
+        <v>81.92415822870183</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>86.00529964762563</v>
+        <v>82.46271330222977</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>88.71457171945632</v>
+        <v>84.57548817089378</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.58048548316695</v>
+        <v>44.81668680322278</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>81.82055788549319</v>
+        <v>77.95164695271849</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>82.63108781331015</v>
+        <v>79.46523752385367</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>64.42439165848053</v>
+        <v>63.61253347432439</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>51.76251443009413</v>
+        <v>53.70637416705828</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>60.88168630796082</v>
+        <v>57.66152936801328</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>64.14285493566244</v>
+        <v>61.36011007405051</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.36865853175431</v>
+        <v>27.34154806882245</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>59.62581509414129</v>
+        <v>57.07245941469108</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>66.74502495437029</v>
+        <v>63.36103164220897</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.31982275630327</v>
+        <v>26.15017116014259</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.95197418795756</v>
+        <v>38.32682315376407</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.30550662125324</v>
+        <v>43.10375680893371</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.16734539126742</v>
+        <v>32.5288236666046</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>55.11797533083094</v>
+        <v>56.76523206284133</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>55.63925576691801</v>
+        <v>58.17608724349995</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.937426637201462</v>
+        <v>11.77085372474425</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>65.80057300864381</v>
+        <v>68.50477702481338</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>73.88179620241307</v>
+        <v>73.56005162411012</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>81.29998676217213</v>
+        <v>83.32596002063001</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>81.95449218640179</v>
+        <v>79.74174135728262</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>91.10873799264827</v>
+        <v>87.43268399265935</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.40054213075994</v>
+        <v>32.86021730514918</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>78.00834123786555</v>
+        <v>75.3655049191352</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>83.28184406671789</v>
+        <v>82.14879082758372</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>63.03323685544656</v>
+        <v>60.54642704131714</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.07152933084338</v>
+        <v>32.71700170241341</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.16650274747225</v>
+        <v>37.94355713642364</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.16296912141638</v>
+        <v>47.10284125310492</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.2918622177158</v>
+        <v>18.43824212776678</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>51.62694929179172</v>
+        <v>55.40555604246707</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>60.8949214698556</v>
+        <v>60.59794753774738</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.39610528084101</v>
+        <v>19.87598333119412</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.79499337298832</v>
+        <v>38.16954375973847</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.95988016415379</v>
+        <v>45.28131088634938</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.19670277301574</v>
+        <v>32.93772781228758</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>60.7402004456907</v>
+        <v>58.2905698986178</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>64.57415069057464</v>
+        <v>62.24736038198328</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>7.186262294729609</v>
+        <v>4.65866744614614</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>63.92036338631833</v>
+        <v>66.73998563870177</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>74.88895648239897</v>
+        <v>71.53927086981382</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>71.77467356597829</v>
+        <v>78.26299853021511</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>76.76270910678946</v>
+        <v>77.81069814564343</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>91.66641101681978</v>
+        <v>89.55697157404794</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.58791004281134</v>
+        <v>23.98769592816993</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>70.45058855929476</v>
+        <v>72.77382654463648</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>83.33385649692001</v>
+        <v>82.17704582743605</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.584</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.668</v>
+        <v>17.772</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.429</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.636</v>
+        <v>20.572</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.996</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.625</v>
+        <v>0.955</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.22058416888145</v>
+        <v>18.72711304625256</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.07924362346496</v>
+        <v>17.6983172776501</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.51619798124582</v>
+        <v>33.27898637034239</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.077955728357448</v>
+        <v>4.493621757500378</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.02000090758347</v>
+        <v>26.45651170983719</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.55876431228684</v>
+        <v>31.48835732533678</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.068438962308274</v>
+        <v>8.341682729522049</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>47.45878197520877</v>
+        <v>48.1886658797869</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.03897696333278</v>
+        <v>49.93727785158212</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.6570928660046</v>
+        <v>18.77357192230359</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.92335570348931</v>
+        <v>21.7765208397578</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.71818769048757</v>
+        <v>21.64462573091986</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.29602331791693</v>
+        <v>23.21566182355612</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.4539003692975</v>
+        <v>24.24593501789564</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>54.26142028001276</v>
+        <v>54.03373974894664</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.62210968959628</v>
+        <v>16.99709765917896</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.73984041819056</v>
+        <v>28.32260734252412</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.86820414905194</v>
+        <v>34.67981080360623</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.722946972941656</v>
+        <v>6.947141519541493</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.46407808808841</v>
+        <v>14.87393198121696</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.90162322616841</v>
+        <v>17.7973895892831</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.180427876167862</v>
+        <v>4.321520540801689</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18.23415747146495</v>
+        <v>19.9733881762188</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.9043592556429</v>
+        <v>26.43702803833651</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.13090008686471</v>
+        <v>31.89781745865013</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.7373454114038</v>
+        <v>34.11664142568208</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.961603887052156</v>
+        <v>4.360047510034931</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37.55052266603384</v>
+        <v>38.78183009242478</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.7028678911554</v>
+        <v>37.71482842777719</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.104878116897144</v>
+        <v>9.462834998981883</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>50.81470595551752</v>
+        <v>52.58947875428204</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.30138091816438</v>
+        <v>51.54250921235901</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48.1306525654999</v>
+        <v>47.72356714790956</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>52.23843779026741</v>
+        <v>51.52358518302273</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>54.24838590912904</v>
+        <v>53.64904056204566</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.81309363962826</v>
+        <v>45.01081403427057</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48.25241236407305</v>
+        <v>58.06244023382236</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>61.51484649760413</v>
+        <v>61.74135557598174</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.67879412338464</v>
+        <v>25.59840868319447</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.40663644327181</v>
+        <v>38.3493708342471</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.76621073007833</v>
+        <v>37.77132310764748</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.995889268216491</v>
+        <v>7.381881764339813</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.98067878319316</v>
+        <v>36.97785878510248</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.99134954415052</v>
+        <v>36.92387396249655</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.955357577383069</v>
+        <v>6.83132897754583</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.47874049843552</v>
+        <v>53.44690966046942</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.854013385776554</v>
+        <v>8.528636653475029</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.64046046284376</v>
+        <v>23.22223680943253</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.33580403070453</v>
+        <v>29.08913610831156</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.241975882063798</v>
+        <v>3.666908209455563</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.78653028931421</v>
+        <v>35.46936609525211</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.83965351948609</v>
+        <v>38.91577155084953</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.626022395266126</v>
+        <v>9.384381443442585</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>49.66521157221901</v>
+        <v>51.38585356464787</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.31464824678119</v>
+        <v>54.98367971851438</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>59.60931325328407</v>
+        <v>60.94542400453081</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.59116197513189</v>
+        <v>61.58496885353095</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>65.1272619746095</v>
+        <v>65.89553568110911</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>15.66640503666304</v>
+        <v>14.35173049828414</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.97147547570327</v>
+        <v>37.91705612560752</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.63313890531734</v>
+        <v>49.42625408224313</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.548182215879</v>
+        <v>15.38758359151168</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.5146815244644</v>
+        <v>33.23719204359872</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.31975376510966</v>
+        <v>35.51636137654955</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5.261826736845684</v>
+        <v>6.892200853221361</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.17344252361381</v>
+        <v>28.51138077497202</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.43632800039603</v>
+        <v>37.53802089208484</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.83505182803183</v>
+        <v>6.03377250250448</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.33363184860141</v>
+        <v>48.0180054091404</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.412606759643275</v>
+        <v>6.283758274821611</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.53292333342366</v>
+        <v>17.96847712838168</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.10148752545508</v>
+        <v>26.8857463598193</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.19423820798966</v>
+        <v>3.742490473934616</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.04872159859602</v>
+        <v>34.81525568004391</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>39.24249064175705</v>
+        <v>40.75141959892387</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.775234169670316</v>
+        <v>4.248523894003824</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>47.39274894350987</v>
+        <v>49.20198713129547</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.83386401972392</v>
+        <v>54.34645062891673</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51.09017498159854</v>
+        <v>52.35026613949104</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>52.65602226358089</v>
+        <v>54.12864840436885</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>60.71571601126903</v>
+        <v>61.77644565412132</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.55075704624228</v>
+        <v>12.76853177806997</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.18148605728623</v>
+        <v>27.68250133139094</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.66136892063385</v>
+        <v>53.44055688863966</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.444299315000752</v>
+        <v>11.0163012515929</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.78566514008223</v>
+        <v>28.6810510131346</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.12331977440337</v>
+        <v>36.20008292770004</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5.725216273183818</v>
+        <v>7.315100333912721</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.23564427168203</v>
+        <v>29.5721919707854</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.52936739434088</v>
+        <v>41.28894623233424</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.227038387098474</v>
+        <v>3.903270531431897</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.53968879887776</v>
+        <v>43.02345926806991</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.64898113278876</v>
+        <v>24.11382389716719</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20.00064523409473</v>
+        <v>21.21373992788731</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.44540892847374</v>
+        <v>33.87679565132725</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.23765410487584</v>
+        <v>36.65725286906277</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.392840953292325</v>
+        <v>9.422130972842918</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>15.32129438953236</v>
+        <v>17.36942717646438</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.4510237173756</v>
+        <v>24.13362156539594</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.9269194663389</v>
+        <v>15.02141319084929</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.27199338491925</v>
+        <v>24.57642445772451</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.48327881974279</v>
+        <v>35.06727755001786</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.876809113373028</v>
+        <v>6.276184676232905</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.08645047731273</v>
+        <v>13.03218951057717</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.9909109572711</v>
+        <v>19.04819496591603</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.155451579203017</v>
+        <v>4.736473059332429</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20.41925807786316</v>
+        <v>22.49612698041256</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.24788340324698</v>
+        <v>41.73139637710071</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.15355798050738</v>
+        <v>23.72977796252274</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.94605963844153</v>
+        <v>42.33705085970888</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.40577843246591</v>
+        <v>49.48180021920123</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.204804708940443</v>
+        <v>8.035244436419454</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.47429787436187</v>
+        <v>22.16953199294277</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.78762839692948</v>
+        <v>34.02978277038423</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.71243209971598</v>
+        <v>57.74766149437988</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>59.87441097121551</v>
+        <v>59.24945530211233</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.25818902439919</v>
+        <v>64.2721297719627</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>64.05850963181716</v>
+        <v>63.07445171433172</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.34843891757643</v>
+        <v>27.79440338704699</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.46904001985423</v>
+        <v>60.66302371010171</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>64.67691819404889</v>
+        <v>63.17616844564529</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.82469516943774</v>
+        <v>31.17937418392572</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.88355497275174</v>
+        <v>41.53950587200517</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.85909522651752</v>
+        <v>44.28319626942563</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6.92407596327287</v>
+        <v>8.729516578028605</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.41243783304928</v>
+        <v>46.03019841444917</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.03979240623404</v>
+        <v>45.72806187615024</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.261875929324987</v>
+        <v>9.659274527928865</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.25531487538579</v>
+        <v>67.85773581829046</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.45666398724252</v>
+        <v>67.14968369611597</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.89977570487865</v>
+        <v>79.47580153800372</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.67196948367726</v>
+        <v>81.76709423893598</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.14936614004435</v>
+        <v>82.69893025412591</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>38.5139828719574</v>
+        <v>37.79115153496569</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.88602226717697</v>
+        <v>76.86477544409705</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>79.78288520907745</v>
+        <v>77.47889753859766</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>60.83436194240524</v>
+        <v>59.67773861149043</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.43512977262982</v>
+        <v>47.70558996208479</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>55.13179064167906</v>
+        <v>54.96825132101533</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>62.9725183924391</v>
+        <v>61.95117496416538</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.45949808487499</v>
+        <v>14.91882034904821</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>54.45626809874641</v>
+        <v>54.6548787762373</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.75059007820694</v>
+        <v>61.00622020114722</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.02638174304609</v>
+        <v>17.56150074363321</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.76130115871327</v>
+        <v>37.12673591333206</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.34592561493378</v>
+        <v>42.91267579059907</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.708976809099667</v>
+        <v>7.372608476155332</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.51354537942386</v>
+        <v>39.71378166309242</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.44091216365356</v>
+        <v>46.26264327898083</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>7.656990298933898</v>
+        <v>9.446722470938393</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>64.16796399885968</v>
+        <v>63.23490384563092</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>72.82791854966743</v>
+        <v>70.63910216523834</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>78.42057260653444</v>
+        <v>76.04444938408139</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.41371709968962</v>
+        <v>77.29575834393725</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>88.3367384008038</v>
+        <v>85.155326592894</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.87518056885765</v>
+        <v>19.43972561222797</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.73094026816888</v>
+        <v>71.99649091973934</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82.21627243781535</v>
+        <v>79.94971743543658</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>59.33821196465175</v>
+        <v>58.35507056551765</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.37002832186993</v>
+        <v>30.3691638491812</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.89067949492297</v>
+        <v>35.0529700033605</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.72285672518628</v>
+        <v>45.59540228203329</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9.295698494676479</v>
+        <v>11.15711509399078</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.72768854869587</v>
+        <v>50.07157882841843</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>59.60202663484022</v>
+        <v>58.8940123713712</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12.70354531481505</v>
+        <v>14.2091662912929</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.45522370038734</v>
+        <v>35.76233152461715</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.80975999046726</v>
+        <v>44.94100544752474</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.473777807129927</v>
+        <v>7.916351248834161</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.02945549730228</v>
+        <v>40.25105776235076</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.33925745036775</v>
+        <v>49.3392444607529</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.159369412850449</v>
+        <v>4.395250155867213</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.13120785848371</v>
+        <v>57.49532707438664</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>72.27207350407136</v>
+        <v>70.42612994953264</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.46808496614759</v>
+        <v>63.53693803551084</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.54061239250949</v>
+        <v>71.01840718990343</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.83274421203241</v>
+        <v>83.84106342861872</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>11.93069169031051</v>
+        <v>13.53149131368191</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.17379669350386</v>
+        <v>63.79990537229052</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80.32003800079674</v>
+        <v>77.75226013060433</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.58036577105161</v>
+        <v>15.5798667327505</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>12.67798904618583</v>
+        <v>16.5629488933829</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.62573526933203</v>
+        <v>25.31658597475032</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.625093886095677</v>
+        <v>6.406672826812233</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.61008786552918</v>
+        <v>19.06634736135326</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.76518017057501</v>
+        <v>20.72386876085201</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.37067145164626</v>
+        <v>10.42337014128787</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.73428453295034</v>
+        <v>34.45242393940036</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.18581435689276</v>
+        <v>35.76059668480001</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>14.69044087817236</v>
+        <v>17.95575503942765</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>18.13915604140823</v>
+        <v>21.16011212570427</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.21197376764956</v>
+        <v>20.28896752471711</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>15.96385224806183</v>
+        <v>18.93968702222529</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13.7896451528991</v>
+        <v>17.48995420462028</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.1275399997055</v>
+        <v>30.86750384369674</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.504512492447141</v>
+        <v>13.90737566820965</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.84285981236471</v>
+        <v>26.24583624428815</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.01911153317427</v>
+        <v>29.08188144913498</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.0534540257531475</v>
+        <v>5.914058212437325</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.29950517864312</v>
+        <v>13.30722879573746</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.02854415186816</v>
+        <v>17.22384044382612</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1.937740286931316</v>
+        <v>6.792380959082671</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.33909728197013</v>
+        <v>25.78840426448101</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.59626008280298</v>
+        <v>22.24150843630844</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.05673714236305</v>
+        <v>26.17983149303687</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.40710115734709</v>
+        <v>28.49280891107904</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.431673675535819</v>
+        <v>6.474618695768186</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.02474550834681</v>
+        <v>29.7807733378424</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.57206669705822</v>
+        <v>30.8932596505157</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>5.737690614236673</v>
+        <v>9.695584411992936</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>45.15299179828222</v>
+        <v>43.56684868702971</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.13411234500126</v>
+        <v>42.29202114480275</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>39.17321683487764</v>
+        <v>38.88349509768977</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.52421532315434</v>
+        <v>46.23703037826058</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.70924853762155</v>
+        <v>46.05713235847004</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.2475101004651</v>
+        <v>25.41280394923562</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.58545410382705</v>
+        <v>40.35033516919508</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.72443587348994</v>
+        <v>42.48518833911062</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.47216760121667</v>
+        <v>20.61854565165664</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.65313946139675</v>
+        <v>31.45023854935734</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.41700997083942</v>
+        <v>33.95073468390815</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.6503267426976436</v>
+        <v>6.021165855216228</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.95672260175427</v>
+        <v>29.91346679836245</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.52226564622923</v>
+        <v>33.43555126829448</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.957918404433542</v>
+        <v>7.661560820026871</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.6400466469873</v>
+        <v>46.6226439989228</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.873704369503379</v>
+        <v>10.01268188663022</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.25818112824694</v>
+        <v>20.1779034531329</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.74537447827359</v>
+        <v>26.10770732458047</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.89334859158242</v>
+        <v>6.091653433337175</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.88253394148104</v>
+        <v>29.30780166484506</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.07063272858015</v>
+        <v>30.49113537124784</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>5.809881260691267</v>
+        <v>9.761476092865429</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>44.94655962734433</v>
+        <v>43.08080798866731</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>47.33707397787541</v>
+        <v>44.62972935392565</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.9746528950738</v>
+        <v>44.17583309005627</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.93058329617805</v>
+        <v>48.29803427630734</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>56.68366642644587</v>
+        <v>52.92242386330632</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4.679452892740873</v>
+        <v>9.189596731701187</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.28332251635941</v>
+        <v>27.25764874747851</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.07951745552566</v>
+        <v>32.4277423058023</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.16160070267282</v>
+        <v>14.88263433679914</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.54374177668907</v>
+        <v>28.88725688458688</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.35016232872928</v>
+        <v>32.94442593454639</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.4163768277308932</v>
+        <v>5.726612052920856</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.0845669571068</v>
+        <v>27.48013279676114</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.08802764407451</v>
+        <v>34.04138378147303</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3.479640402596118</v>
+        <v>8.073200477603905</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.30324636170991</v>
+        <v>42.63365221640348</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3.086942933283051</v>
+        <v>8.71625137730528</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>11.92516642703046</v>
+        <v>16.33928868737605</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.24690538586012</v>
+        <v>24.76443885238718</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.05651381690589119</v>
+        <v>5.972211208807309</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.32160998488461</v>
+        <v>26.20384110362546</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.13166481025319</v>
+        <v>33.04248340353826</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.7628528974541844</v>
+        <v>6.430864595250174</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.70426089593962</v>
+        <v>39.34999612309976</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.71144358880613</v>
+        <v>44.25419751995275</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.19810988352823</v>
+        <v>40.24876145737494</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.56909802569543</v>
+        <v>44.34458110490866</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.28422913626923</v>
+        <v>49.06194077665636</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1.660897585254812</v>
+        <v>7.938064853811266</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.87813992966551</v>
+        <v>25.11997636833017</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.33764875712076</v>
+        <v>35.84212684450984</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.47666433895828</v>
+        <v>11.20869814546387</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.9124921232975</v>
+        <v>26.53508271744455</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.97257982968771</v>
+        <v>30.77686608568789</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-0.04165050038040619</v>
+        <v>5.88463126703326</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.78217712896535</v>
+        <v>24.66005910298801</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.68758958738931</v>
+        <v>31.43976210959217</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1.014407590693526</v>
+        <v>6.3299158984853</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.19858475148423</v>
+        <v>37.03832503113183</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.30590231222106</v>
+        <v>27.42923930493794</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.18052118132505</v>
+        <v>23.45660317515692</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.06944267521234</v>
+        <v>34.99079033995002</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.80111672624037</v>
+        <v>37.41737377433073</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.752167369005889</v>
+        <v>12.68600868599233</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.6121567239373</v>
+        <v>21.1351820584929</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.01261908325357</v>
+        <v>27.52663608930839</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.28962943202329</v>
+        <v>17.1005659962265</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.85334844405157</v>
+        <v>28.06894684477056</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.85943378502432</v>
+        <v>34.54479190433559</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.02491345797234956</v>
+        <v>5.49575206832888</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.952618785783979</v>
+        <v>12.99013214924666</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.39735430912488</v>
+        <v>19.58124025350151</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.557958387215013</v>
+        <v>7.874017575688583</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.74765176151993</v>
+        <v>28.47704323079781</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>46.53888427354293</v>
+        <v>43.86580329774395</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.91587850559874</v>
+        <v>28.07813174484229</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.15118773702396</v>
+        <v>41.69423667935485</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.80087372055374</v>
+        <v>46.21750120489904</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>8.671710504336279</v>
+        <v>12.75473264694432</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.8215054216848</v>
+        <v>25.38261007976935</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.02334451278523</v>
+        <v>35.51064347303235</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>54.49301033475706</v>
+        <v>52.48580672471793</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.24379004863842</v>
+        <v>46.75986188759538</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>57.730170052921</v>
+        <v>54.69457008161113</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.2629164751434</v>
+        <v>55.30062203473625</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.67073448449601</v>
+        <v>22.0027855567179</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>53.41000302831173</v>
+        <v>50.95882504424068</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>56.04497603695146</v>
+        <v>53.27550272890994</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.21399550234155</v>
+        <v>27.73266464850292</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.22976584467594</v>
+        <v>36.84968850472459</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.39280883624561</v>
+        <v>41.96164557706601</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>2.129441371532053</v>
+        <v>7.144488314782791</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.7256485670578</v>
+        <v>38.85853913668585</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.60495616538263</v>
+        <v>41.89005057909039</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>7.813509397365625</v>
+        <v>11.45383123787986</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.02988042206334</v>
+        <v>58.70659322006128</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>66.87027382217735</v>
+        <v>61.94496268565848</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>70.30046099999601</v>
+        <v>64.48615557058115</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>75.52934868254181</v>
+        <v>70.27485553114651</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>80.10701683855358</v>
+        <v>73.09929297469282</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.06101694123686</v>
+        <v>32.49439675368711</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.14029600747713</v>
+        <v>66.05566318122561</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>74.59433308019484</v>
+        <v>68.41260257939909</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>55.89552657631299</v>
+        <v>52.97926987292393</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.47948837056146</v>
+        <v>42.13911497250111</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>48.82335487265472</v>
+        <v>47.87023644184686</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>56.36580973239811</v>
+        <v>53.73366902293333</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.85755004970449</v>
+        <v>14.92921467746607</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.9777528268141</v>
+        <v>46.11926910715161</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>52.66178560953654</v>
+        <v>50.77467456447607</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.1149916882677</v>
+        <v>18.92076390858067</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.6747636731898</v>
+        <v>34.73982471033428</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.1761262531185</v>
+        <v>40.83253595860022</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.7805969428585229</v>
+        <v>6.084254891905974</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.62495163428414</v>
+        <v>37.55685319301794</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.73667572158923</v>
+        <v>40.35115180016107</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.557169630894904</v>
+        <v>10.50331664001727</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>61.36204767038907</v>
+        <v>57.13364414973013</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>69.55140818785394</v>
+        <v>63.82117495818916</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>69.01708111681985</v>
+        <v>63.25710031943537</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>73.19191902535923</v>
+        <v>67.58775266208961</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>83.3871190606891</v>
+        <v>75.59798728482171</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.39116772322018</v>
+        <v>19.67936448835373</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>68.52766708802181</v>
+        <v>63.68476988767156</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>74.42896200585704</v>
+        <v>68.48591063290183</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.67666221396863</v>
+        <v>48.60732559836049</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.29967121159283</v>
+        <v>28.30994239919637</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.37447993779012</v>
+        <v>33.94233779904351</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.35571433227767</v>
+        <v>40.60110824822676</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.653330927195494</v>
+        <v>11.83088168809914</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.33161357173719</v>
+        <v>38.57937152744825</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.04963456537871</v>
+        <v>46.56440672730889</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.22149442420669</v>
+        <v>14.41471454865177</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.5666157777843</v>
+        <v>34.64142045534969</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.6240453518306</v>
+        <v>41.13041666644271</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.6508070010593947</v>
+        <v>6.204230881950007</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.95891356694678</v>
+        <v>36.47195825698998</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.49233081142219</v>
+        <v>40.88206712288252</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2.187044287404539</v>
+        <v>7.420620621849267</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.90747941171364</v>
+        <v>54.11197581522909</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>68.08093983720669</v>
+        <v>62.21026441027823</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61.91197955272445</v>
+        <v>57.55697714847576</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>68.91562624299297</v>
+        <v>63.34150186442187</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>79.92603336960852</v>
+        <v>72.32498252310121</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.372968220781463</v>
+        <v>13.53429765314459</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>65.31035243289773</v>
+        <v>60.62606020619103</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>73.9160958887629</v>
+        <v>68.01058142351</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>13.17054350628793</v>
+        <v>16.47124130077485</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>13.54416729220388</v>
+        <v>16.50925151263679</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.63736327020757</v>
+        <v>28.47806796106715</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4.205342610105955</v>
+        <v>8.40146778920457</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.04740098744414</v>
+        <v>21.2562506910264</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.50001649870236</v>
+        <v>24.17887981014418</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.453922419094557</v>
+        <v>12.16281821130901</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>41.78891270064556</v>
+        <v>40.6167917089915</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>44.07251637205569</v>
+        <v>42.41519930549259</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>15.80217597505563</v>
+        <v>18.53734017816102</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.76173553091814</v>
+        <v>21.18161836537161</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19.01667275786803</v>
+        <v>21.27347719001602</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.99204262604429</v>
+        <v>26.85499469417247</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.39453201352985</v>
+        <v>25.33088274348594</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.8255064851464</v>
+        <v>37.60803879158304</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.63814059447655</v>
+        <v>19.95042014757826</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.5612768205554</v>
+        <v>30.14348440759844</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.96521323908007</v>
+        <v>33.74214707547704</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.679393226042496</v>
+        <v>10.66877234674872</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.09705237710042</v>
+        <v>18.40172090480722</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.48393947380011</v>
+        <v>22.274916304471</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.898533491905201</v>
+        <v>8.788301875738366</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.83100102501446</v>
+        <v>26.24356264539369</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.48290860821565</v>
+        <v>26.42649473389639</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.69414585132269</v>
+        <v>34.21205301889177</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.83776267470691</v>
+        <v>34.13897380735517</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.066524635244669</v>
+        <v>8.466539133094145</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.83812619160529</v>
+        <v>37.94575925429715</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.66493785505301</v>
+        <v>38.42794740528105</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>7.959753588965491</v>
+        <v>11.69255166829418</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.42511282733565</v>
+        <v>52.79355539289988</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>52.54119573612091</v>
+        <v>49.50256867225178</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>47.75376831777405</v>
+        <v>45.04076392103664</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>55.51168770626989</v>
+        <v>51.79747695107406</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>56.86069095350258</v>
+        <v>53.03762716928113</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>32.4431804687201</v>
+        <v>36.64287135316414</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.46662789767947</v>
+        <v>42.6256788016349</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.85018101414055</v>
+        <v>44.00485790293665</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.83174838895079</v>
+        <v>27.35285785014586</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>42.24366892318452</v>
+        <v>40.24592961235973</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>41.1851817062078</v>
+        <v>39.62732858280595</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.36567142420224</v>
+        <v>11.06449284045793</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>39.23475724088133</v>
+        <v>38.93495711980609</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.60845467709058</v>
+        <v>40.34207990244602</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.937407744828292</v>
+        <v>11.40242653657606</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>58.2877167424557</v>
+        <v>55.94330763271216</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.526824660755743</v>
+        <v>12.67672488120268</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.3929809615237</v>
+        <v>25.84502369409191</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.27599385167169</v>
+        <v>29.77171148397721</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3.142217682669486</v>
+        <v>7.655839214689301</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.76519277630903</v>
+        <v>33.80471384227167</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.9832245271464</v>
+        <v>37.24722391912572</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>8.310164202784282</v>
+        <v>11.69850238200722</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.29164884521465</v>
+        <v>50.10702509705663</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>55.90167335960275</v>
+        <v>52.21192095248395</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>56.4720522444284</v>
+        <v>53.15025569810857</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.8568390050699</v>
+        <v>58.27692927284197</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>66.93703556453562</v>
+        <v>61.7285201017695</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.65553495648948</v>
+        <v>19.39183645665864</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.04899647576931</v>
+        <v>32.68210988897923</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.45673267730839</v>
+        <v>37.44641079923557</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.50371123975529</v>
+        <v>19.76369053840927</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>37.31637443848236</v>
+        <v>36.01845462397058</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.03969369359517</v>
+        <v>37.80000648437677</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.832375290763704</v>
+        <v>10.65326780979371</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.37077372116423</v>
+        <v>31.65839452986127</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.89155148863701</v>
+        <v>38.65861172886043</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.961739861279874</v>
+        <v>9.712898016322448</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>54.10076988290878</v>
+        <v>49.97847419669929</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.526121305146226</v>
+        <v>10.70814319308489</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.00954658266518</v>
+        <v>23.62742058195252</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.07232230480173</v>
+        <v>30.21991075519347</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.571775447796284</v>
+        <v>8.062082857883667</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.80384112761086</v>
+        <v>35.07566500508725</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>41.3964056860853</v>
+        <v>39.9327849334691</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.851187936019862</v>
+        <v>9.077730567014608</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>53.21772037351836</v>
+        <v>49.88659043839082</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>56.73220054025657</v>
+        <v>52.9196475858413</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>52.52691353509447</v>
+        <v>49.3110133266958</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>56.64283417203763</v>
+        <v>52.83502851028497</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>63.80252329747925</v>
+        <v>58.84082317881011</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.3660527240203</v>
+        <v>19.35097942695577</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.61011686575452</v>
+        <v>27.71727076518829</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>41.32495537176172</v>
+        <v>39.3097487315937</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.91120251790897</v>
+        <v>16.65165458215354</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>32.96486517407616</v>
+        <v>32.42109302831441</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.20344599326411</v>
+        <v>37.11175754937512</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>7.102024044828998</v>
+        <v>11.02082371469002</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>32.96238520807241</v>
+        <v>32.47591840122633</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>43.86910059682572</v>
+        <v>41.3986328847099</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.603472872445042</v>
+        <v>8.331691004128302</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>49.04380901628294</v>
+        <v>45.93726891458682</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.14533069920382</v>
+        <v>28.33276681152811</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.68182834566078</v>
+        <v>25.77262872581803</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>40.5647678423549</v>
+        <v>38.85419034084845</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.36324816221299</v>
+        <v>40.5557012814745</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.71485157748197</v>
+        <v>14.69365511873492</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.05716875998986</v>
+        <v>24.32804627579881</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.55412894474554</v>
+        <v>29.90974792763141</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.55987800651746</v>
+        <v>21.16156605216895</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.9705225313589</v>
+        <v>29.24966995172409</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.32176897407084</v>
+        <v>35.93546922479036</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.968744996078165</v>
+        <v>9.907080500534455</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>13.60015824424537</v>
+        <v>16.43246508868221</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.86560251922435</v>
+        <v>21.46972334821078</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>4.823176200620569</v>
+        <v>8.824009120108286</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.8238579649766</v>
+        <v>26.82761352134053</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.39968238080299</v>
+        <v>42.35284828148531</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.0636665905642</v>
+        <v>27.19890114763548</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.11764203604142</v>
+        <v>42.97329971692607</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.89354598530466</v>
+        <v>47.90296014351045</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.50074876458257</v>
+        <v>13.9524188545926</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.73478430768536</v>
+        <v>26.01402275617419</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.87642729479784</v>
+        <v>36.83137121880102</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>63.08129666197446</v>
+        <v>58.39561381787696</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>63.25733953960595</v>
+        <v>58.68050615857553</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>69.54990464070647</v>
+        <v>64.02717529846579</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>69.5453265961424</v>
+        <v>63.91745946418781</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.64142743439251</v>
+        <v>30.05677663396807</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>66.58902747093362</v>
+        <v>61.08730123669571</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>69.22861951992272</v>
+        <v>63.3446038003313</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.23551382648523</v>
+        <v>32.14420100698435</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.78081576818504</v>
+        <v>42.57156996967554</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>46.25923686723253</v>
+        <v>43.98174668578355</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.307573020602081</v>
+        <v>12.02577625289217</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>47.1757480894122</v>
+        <v>44.77233898112403</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>46.77722472852507</v>
+        <v>44.9301181131064</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>9.447426044141125</v>
+        <v>12.9863990278535</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>70.43933121180494</v>
+        <v>64.69695220807191</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>69.95478910309177</v>
+        <v>64.11344421468723</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>78.6858052434832</v>
+        <v>72.55243104065283</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>82.47716064769118</v>
+        <v>75.00361494354686</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>84.7932806016135</v>
+        <v>76.87386288566118</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>41.70797368392298</v>
+        <v>39.5101449778122</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>80.53527189307334</v>
+        <v>73.07022043039747</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>80.65389747120715</v>
+        <v>73.22895367587293</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>65.1986168614247</v>
+        <v>60.04010080841692</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>54.75323257679333</v>
+        <v>50.00320428591841</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>61.7158100713707</v>
+        <v>56.96302314937145</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>68.91227632055271</v>
+        <v>63.13119307779711</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.0439787529813</v>
+        <v>22.6966874355719</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>61.13253048268149</v>
+        <v>56.46468748650832</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>66.52348797747226</v>
+        <v>61.14015082267884</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.87550349366409</v>
+        <v>22.46339379969144</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.90512826787136</v>
+        <v>38.5095753200514</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.54330265415924</v>
+        <v>42.75036460876693</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.999180566333827</v>
+        <v>10.79496133103946</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.82456668219557</v>
+        <v>37.19446535884214</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.858958974251</v>
+        <v>42.60562486953283</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>9.495048753805744</v>
+        <v>12.91999454855343</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>65.17757295826711</v>
+        <v>59.60719056477471</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>72.57742168090648</v>
+        <v>66.00251202428645</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>75.71531601067917</v>
+        <v>67.78059339404602</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>78.56629518440143</v>
+        <v>71.14760525269892</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>86.48822395604105</v>
+        <v>78.20269130467327</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.39678234779283</v>
+        <v>27.82431776295153</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>76.4311032939131</v>
+        <v>69.73252967997082</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>81.49881507476104</v>
+        <v>73.81247507330561</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>62.11000712374489</v>
+        <v>57.29197689623137</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>36.15473219727064</v>
+        <v>35.27388603089511</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>41.30712667469059</v>
+        <v>39.65974003724708</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>52.43368488917383</v>
+        <v>48.58473172658991</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.03076732740682</v>
+        <v>19.20427762800692</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>56.12046285582337</v>
+        <v>51.23155847429786</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>63.37693487822683</v>
+        <v>58.27571854029441</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.71599628779545</v>
+        <v>20.617075592885</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.69440487950558</v>
+        <v>38.02040285046107</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.95317645442481</v>
+        <v>44.27791804229771</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.949389069195981</v>
+        <v>11.66311694961829</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.18731290303502</v>
+        <v>40.45857949338942</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>48.99357953882223</v>
+        <v>46.28283745688157</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.034561398261509</v>
+        <v>9.192612860578436</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>61.23702481365646</v>
+        <v>56.57077533323524</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>71.92646316566096</v>
+        <v>65.38715213208951</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>66.64646926357123</v>
+        <v>61.24078084951946</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>73.33874874190862</v>
+        <v>67.14067045438087</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>84.16553892658031</v>
+        <v>75.54143712757536</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.99254644088723</v>
+        <v>23.21391282501238</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>70.39345618591877</v>
+        <v>64.28664010209849</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>80.45504602945833</v>
+        <v>72.41564080118009</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.4028800971941</v>
+        <v>17.44982566979394</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.69009763533731</v>
+        <v>19.06353652032078</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.98812618768839</v>
+        <v>22.99913665247982</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.874337666217404</v>
+        <v>11.73798870390816</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.84033916918657</v>
+        <v>16.16194884544214</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.92332778681914</v>
+        <v>17.00345872102425</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>9.023810815771192</v>
+        <v>14.21749497297771</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.55423342676291</v>
+        <v>25.34142035697946</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.33627679146707</v>
+        <v>26.85897744049536</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.55220073366982</v>
+        <v>19.25992372043327</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.58711575888357</v>
+        <v>21.80187821194725</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.4353891724357</v>
+        <v>21.43880230281383</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.36735448731446</v>
+        <v>16.86028345717416</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.42766103878823</v>
+        <v>17.94388283781267</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>18.38416321964105</v>
+        <v>22.24557458438899</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.83210554861041</v>
+        <v>17.61807836643719</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.04845275763602</v>
+        <v>24.61756266679458</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.53729875498029</v>
+        <v>27.37348872459228</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.930089414219786</v>
+        <v>11.47633068216357</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.54376230183621</v>
+        <v>15.02106600176563</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.99208629277074</v>
+        <v>17.79588830819577</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.656904879151309</v>
+        <v>11.6047109613217</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.87778277612629</v>
+        <v>22.45714530082331</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.11227316471958</v>
+        <v>21.30673958898617</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.42875907246621</v>
+        <v>25.07400296597502</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.54079939628084</v>
+        <v>25.22386290508368</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.353613127420203</v>
+        <v>11.64460327554432</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.79694206014075</v>
+        <v>25.50335267651737</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.24621936271621</v>
+        <v>26.5356770334806</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.341290882408739</v>
+        <v>13.08180753000985</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.8724613978798</v>
+        <v>33.62504499833747</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.43102068210929</v>
+        <v>33.10746828402488</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.96753026419993</v>
+        <v>32.2120697542151</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.83739969483149</v>
+        <v>36.96941949372909</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.11982513291827</v>
+        <v>37.63261881993492</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.39604973352731</v>
+        <v>19.99002820926946</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.62370001265499</v>
+        <v>33.5302332931328</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.5197915989754</v>
+        <v>34.76840548538238</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.36178706488678</v>
+        <v>19.37194218278201</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.30424349857869</v>
+        <v>28.782635950239</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.01706118820135</v>
+        <v>31.02006135438984</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.140567258161099</v>
+        <v>11.52704704869265</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.85224861973012</v>
+        <v>27.65764722652621</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.26279286753126</v>
+        <v>30.79621361164115</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.038941480235891</v>
+        <v>12.18318023090243</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>38.96444950844776</v>
+        <v>39.23868648036184</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>9.4511732234789</v>
+        <v>14.5218480888698</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.4800624712764</v>
+        <v>21.30402854421708</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.91065708433231</v>
+        <v>23.94326330350155</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>5.486438474841414</v>
+        <v>11.57873596057254</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.82987451677209</v>
+        <v>24.74538631533686</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.67794860480295</v>
+        <v>26.1717774113264</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>9.799198311564805</v>
+        <v>14.73496239447494</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.79516461972075</v>
+        <v>34.13389535467645</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.01767587096171</v>
+        <v>34.86177804442922</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.00122088367804</v>
+        <v>34.44148859384797</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.53546950756581</v>
+        <v>36.52705869634288</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>41.884084197463</v>
+        <v>40.47309452499224</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.50162990827911</v>
+        <v>14.04861177055808</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.71790303417803</v>
+        <v>25.50541655295137</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.03027310813176</v>
+        <v>27.33218288947588</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>11.090645640709</v>
+        <v>16.28395523339088</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.72802443698029</v>
+        <v>26.25083908675208</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.28873258874665</v>
+        <v>30.32687424328491</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.111111828979663</v>
+        <v>11.31091829624659</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.89115572330525</v>
+        <v>24.13429716202468</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.43954362836615</v>
+        <v>31.18276840104314</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>7.165736524024496</v>
+        <v>12.82307410987238</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.54300422145678</v>
+        <v>33.68237047592824</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>7.330307428836662</v>
+        <v>13.72809019691429</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>14.09340672666194</v>
+        <v>18.9142693402009</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.76566005104917</v>
+        <v>22.98805002790629</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>4.484214551820536</v>
+        <v>11.37412908046277</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.22185449103272</v>
+        <v>20.32262329788666</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.1009493732366</v>
+        <v>27.1839841285238</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>5.240600538484237</v>
+        <v>11.73361205194494</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.53533951334212</v>
+        <v>29.4628200888935</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.72851968995218</v>
+        <v>34.1608577319212</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.84647231920684</v>
+        <v>29.50583959485752</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.7289698173128</v>
+        <v>32.07739955602741</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.47875881494592</v>
+        <v>36.3564517903023</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.97812211068425</v>
+        <v>13.49341771700094</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.99675497945241</v>
+        <v>25.14855523885592</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.10091985714214</v>
+        <v>29.53539287106437</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>8.439849046099518</v>
+        <v>14.46929853776981</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>20.50815114886169</v>
+        <v>23.75869541386378</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.9038473481119</v>
+        <v>27.86966631419205</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>4.752896159058647</v>
+        <v>11.5710745831524</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.38432899208096</v>
+        <v>22.22910851254331</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.07286808866215</v>
+        <v>28.77884239386395</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>4.833861925793599</v>
+        <v>11.45187176069961</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.33700532274138</v>
+        <v>29.38018111073416</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>20.91898876075425</v>
+        <v>23.97425378159612</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>18.9546959518024</v>
+        <v>22.63236831338693</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.23300275196167</v>
+        <v>30.34632183548377</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.24441797207776</v>
+        <v>32.03331736205708</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>8.994303254289552</v>
+        <v>14.61235313837756</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>15.04106562291755</v>
+        <v>19.59956785662512</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.41474594070979</v>
+        <v>23.7098380285606</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.23601033451573</v>
+        <v>19.524212721053</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.4517857414859</v>
+        <v>27.29065641009619</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.13791432636716</v>
+        <v>31.04158518874248</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>4.906237002699282</v>
+        <v>11.06848574008383</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.902909474110004</v>
+        <v>15.54953320221209</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.7577561705014</v>
+        <v>19.03358337595207</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>7.048011811099048</v>
+        <v>12.59954532686463</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.40145834144943</v>
+        <v>25.29151974831018</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.61009103876988</v>
+        <v>34.53483849159026</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.42936921810591</v>
+        <v>26.01149740814225</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.19568433596663</v>
+        <v>35.13736622404947</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.92976026965216</v>
+        <v>38.02816373882557</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.06053127307587</v>
+        <v>15.31116208894759</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.27144251761554</v>
+        <v>23.5098503524727</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.57733758290395</v>
+        <v>30.03039542773137</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.50298071203851</v>
+        <v>44.3398143076466</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.8885434855891</v>
+        <v>39.02264943791117</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.76310094378627</v>
+        <v>45.83711111263023</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.54165707668936</v>
+        <v>46.3278529639626</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.56479950957421</v>
+        <v>19.10139125316309</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.28415523966623</v>
+        <v>42.15306602460639</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>47.47371735941822</v>
+        <v>44.76596162761791</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>24.03801047439931</v>
+        <v>26.19813365367273</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.5872014485467</v>
+        <v>34.30340188743629</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>39.84656665897509</v>
+        <v>38.40203244562608</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>7.079644783121946</v>
+        <v>12.79918704468704</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.42846003491087</v>
+        <v>34.80845680081602</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.55268930744429</v>
+        <v>37.87273954637806</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>12.19356142752387</v>
+        <v>16.53055988678411</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.56380843774339</v>
+        <v>49.85908610442182</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.79123672984229</v>
+        <v>52.42524488402976</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>61.449275763424</v>
+        <v>54.97236181206527</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.81092240163596</v>
+        <v>60.04790635632663</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>71.47449832107928</v>
+        <v>62.73244861853094</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.63175946717735</v>
+        <v>29.51003208080637</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.80713375307553</v>
+        <v>55.85695771348946</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>64.74221277470022</v>
+        <v>57.53915277850776</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.12738373139942</v>
+        <v>45.04672529787588</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.28214487022705</v>
+        <v>34.19748585217982</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.27874845511249</v>
+        <v>38.97772419981363</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.25702052406837</v>
+        <v>44.54895798525355</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.52736788718579</v>
+        <v>15.9673812229704</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.49016200416021</v>
+        <v>37.53107790008193</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.1310099418311</v>
+        <v>42.44520296870832</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.56577814126406</v>
+        <v>20.92635538585384</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.96115611210364</v>
+        <v>32.3610089068373</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.81847444724293</v>
+        <v>38.11950268027691</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>5.709389382933026</v>
+        <v>11.84677716956051</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.81891316934387</v>
+        <v>32.24082589615763</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.85824836480194</v>
+        <v>36.66238696585529</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>10.96089308232564</v>
+        <v>15.48442791135724</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>49.99138739347683</v>
+        <v>46.37544081849192</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>61.11151132997139</v>
+        <v>54.59437198832019</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>56.88569620679654</v>
+        <v>51.55348414035299</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>60.90810024018139</v>
+        <v>55.3052493798012</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>73.44820747333293</v>
+        <v>64.11010940119431</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.99171018595194</v>
+        <v>22.25374734686819</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.15789595458303</v>
+        <v>51.61169283285187</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.78023684280369</v>
+        <v>56.48007911151696</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.7378532259839</v>
+        <v>40.40982461075664</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.51989728779217</v>
+        <v>25.06316869391265</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.24496113883773</v>
+        <v>28.41867206315266</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.58336421732952</v>
+        <v>33.72282309683615</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>8.077396734300201</v>
+        <v>14.36286183027397</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.99184775937901</v>
+        <v>29.05846345088919</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.17699842247715</v>
+        <v>37.9147883947785</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.16237786145596</v>
+        <v>17.68020816211305</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.93118785976789</v>
+        <v>31.58210589828535</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.9290969363928</v>
+        <v>37.49494560553583</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.544496357628169</v>
+        <v>11.979896646976</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.38668346978865</v>
+        <v>31.21866495659275</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>37.79501894587375</v>
+        <v>36.49083811556368</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>6.433375030577729</v>
+        <v>12.71580367486364</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.09168516639009</v>
+        <v>42.87837195161632</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>58.56379076674582</v>
+        <v>52.71268155032426</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>48.95204771086129</v>
+        <v>45.8191368602446</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.28667610143007</v>
+        <v>50.13650068092906</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>68.65786465523891</v>
+        <v>60.63318878715934</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>12.41375294080068</v>
+        <v>17.06079894532149</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>51.32651012719536</v>
+        <v>47.77281156588455</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>61.43022106436486</v>
+        <v>55.52959790252333</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.33141557929205</v>
+        <v>23.52848207474698</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.88404635254495</v>
+        <v>17.40890564873112</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.36554176746988</v>
+        <v>36.11917582555472</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>9.784247888576985</v>
+        <v>10.18877741821535</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.44027795969006</v>
+        <v>35.9200794717335</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.45943968608641</v>
+        <v>40.98571295724482</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.38655515253453</v>
+        <v>14.08575714604657</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>56.53900129411462</v>
+        <v>55.54927155658051</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.14052676033646</v>
+        <v>58.04549282615427</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.66038899337516</v>
+        <v>18.31463671171278</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>20.94979076953569</v>
+        <v>21.35744388301309</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.75178466034577</v>
+        <v>21.18142023396318</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.36371540243794</v>
+        <v>34.08042648998984</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.66889847259223</v>
+        <v>17.80839377187943</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.2338436003085</v>
+        <v>42.79291620933242</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.50751241799455</v>
+        <v>19.18226420286013</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.19049801015865</v>
+        <v>30.27751373341637</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.35420579302577</v>
+        <v>39.00245759474842</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.5095504874528</v>
+        <v>28.83426981852777</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.06076995013849</v>
+        <v>35.6758597025275</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>38.21538247784557</v>
+        <v>38.0021937486619</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>5.705605527071739</v>
+        <v>6.822323588621412</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.24330624501185</v>
+        <v>24.10655719586208</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.99003984738248</v>
+        <v>30.17881265409924</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.9683885410638</v>
+        <v>34.30244292778369</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.97432126192271</v>
+        <v>37.81548517333455</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.362845329280628</v>
+        <v>9.550601640461473</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>55.34449405864135</v>
+        <v>54.21399149061495</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>53.71791234413165</v>
+        <v>52.65031527000834</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>10.34972449332833</v>
+        <v>11.72813664351148</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>59.8516905564955</v>
+        <v>59.01648296300012</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.49819709726125</v>
+        <v>57.48622138469862</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>57.67637970448116</v>
+        <v>56.24560167462636</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.95464894904013</v>
+        <v>59.40342528364886</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>60.48329295392994</v>
+        <v>59.08481111495394</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.28977322543284</v>
+        <v>57.05713538840422</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>51.77671031587469</v>
+        <v>64.74383261527055</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>64.46736915355783</v>
+        <v>67.86665877947986</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.70427258856507</v>
+        <v>29.8107863074003</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.67156431954755</v>
+        <v>39.5042550413877</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>39.21190357313302</v>
+        <v>39.31053669644638</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.54961833926565</v>
+        <v>30.18137964070856</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>51.36636737013708</v>
+        <v>50.94659068663344</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>48.06020507534999</v>
+        <v>47.71272181876851</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>6.972058027444131</v>
+        <v>8.480306748597378</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>53.90872930640641</v>
+        <v>55.62979778393722</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.7192201304998</v>
+        <v>15.16022983471717</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.15771849788676</v>
+        <v>26.60288631962635</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.0240732665894</v>
+        <v>33.14402858135318</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>7.405336333105094</v>
+        <v>7.735088467738827</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>49.74687036877008</v>
+        <v>48.47957381208877</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>53.20817282054385</v>
+        <v>50.84417110609417</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>10.55136729045728</v>
+        <v>10.97807971997084</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>58.97078665843156</v>
+        <v>57.3991590631546</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>64.27811404619581</v>
+        <v>62.92467584731641</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>69.45412851528103</v>
+        <v>67.79163751377403</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>69.7563374732942</v>
+        <v>68.15804103738249</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>71.77594710571552</v>
+        <v>70.33224113462023</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.21920070214316</v>
+        <v>14.13813177196719</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.0052895164878</v>
+        <v>39.58367348048816</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>53.78615974075305</v>
+        <v>52.47163453315395</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.39330120873629</v>
+        <v>23.99377914643953</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.07412821055672</v>
+        <v>35.89691676734809</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.31435800668066</v>
+        <v>37.19753038309386</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.95551119261852</v>
+        <v>30.10714212504186</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>46.31579200328768</v>
+        <v>45.64512506768031</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>51.83118284977233</v>
+        <v>50.81421360146954</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>8.529530817898348</v>
+        <v>8.713844395655542</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.71553679396168</v>
+        <v>52.00913150294436</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.931159227944246</v>
+        <v>8.073395562330745</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.84910999760421</v>
+        <v>18.67069350830051</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.98952485680259</v>
+        <v>30.36403171490638</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.21541489209174</v>
+        <v>8.443346007677484</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>53.80084005664641</v>
+        <v>52.812622148719</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>55.56423635253765</v>
+        <v>54.61167482472126</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>4.44085436532832</v>
+        <v>5.82971226075442</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>61.04747926390646</v>
+        <v>60.09339706068208</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>62.40899439477361</v>
+        <v>61.39787314110944</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>64.70502803756938</v>
+        <v>63.45714713831556</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>65.21639609514983</v>
+        <v>64.01545946541437</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>71.73381213320259</v>
+        <v>70.3274432151338</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>13.78985618975683</v>
+        <v>12.73567360092303</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.49433159101807</v>
+        <v>29.50129641278694</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>58.22691294864282</v>
+        <v>56.80300781506538</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>16.31306644671375</v>
+        <v>17.23276205787364</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.36041503456944</v>
+        <v>32.64527048096295</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>37.65808200937882</v>
+        <v>37.56127504616836</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.61115805228716</v>
+        <v>30.33746819661868</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.18126931850891</v>
+        <v>47.50735550324889</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>54.21765656410149</v>
+        <v>53.09999899829565</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.939799270344366</v>
+        <v>5.547044667202044</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>51.4272937825657</v>
+        <v>51.0039177302971</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.19796816238555</v>
+        <v>27.83028946416541</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.44957037327081</v>
+        <v>24.35486117554262</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.44003505776923</v>
+        <v>37.79604042229052</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>42.17299391469421</v>
+        <v>41.93615982131916</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.26683152608816</v>
+        <v>12.41211852041019</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.77801900547983</v>
+        <v>19.91927316607934</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.84878553394643</v>
+        <v>28.49842131452873</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.26737919956046</v>
+        <v>16.19394365768804</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.47557823556362</v>
+        <v>25.67172490245473</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.43785921695329</v>
+        <v>36.4684792060897</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.94765260098564</v>
+        <v>28.45380919135236</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>34.88104911375731</v>
+        <v>34.62154647183034</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>39.12956782070911</v>
+        <v>38.65176193827096</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.530861316850636</v>
+        <v>6.772880094901165</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.79794809177425</v>
+        <v>27.52330913836468</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>48.54332941903063</v>
+        <v>48.30483406032528</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.12318888561019</v>
+        <v>26.82692960909169</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.84471119280339</v>
+        <v>48.36730408582007</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>56.97545074393218</v>
+        <v>56.1092549383643</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.088853184688684</v>
+        <v>10.39388264327237</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.19524514700878</v>
+        <v>25.07403081086698</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.61239135352589</v>
+        <v>39.11329949691245</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.63429850309599</v>
+        <v>57.8965924038215</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.83149146140147</v>
+        <v>60.01705867976886</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>65.12179263461873</v>
+        <v>64.16712531906062</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>62.31746644156038</v>
+        <v>61.68573206878503</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.6585204742045</v>
+        <v>33.6596818713701</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>60.90341821386896</v>
+        <v>59.8913950275607</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>65.28682132754776</v>
+        <v>63.69170959848297</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.39819706083706</v>
+        <v>34.35670134880864</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.04497379964404</v>
+        <v>40.95474279773501</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.25545923649172</v>
+        <v>42.80573232955573</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.63160166759782</v>
+        <v>31.32151923035815</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>59.98590719446324</v>
+        <v>58.58557787137327</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>53.75614049824184</v>
+        <v>52.72482653376275</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>8.520386357274976</v>
+        <v>9.663587045780744</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.55161888925933</v>
+        <v>67.13072421017868</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>67.51475284208496</v>
+        <v>66.00319262340757</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>81.92415822870183</v>
+        <v>80.27734981937816</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>82.46271330222977</v>
+        <v>80.43633601774488</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>84.57548817089378</v>
+        <v>82.48722070800386</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>44.81668680322278</v>
+        <v>42.61031285821648</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>77.95164695271849</v>
+        <v>75.58594901964945</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>79.46523752385367</v>
+        <v>77.4511934976403</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>63.61253347432439</v>
+        <v>62.08417939949329</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.70637416705828</v>
+        <v>52.60701717311662</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>57.66152936801328</v>
+        <v>56.87195822552607</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>61.36011007405051</v>
+        <v>60.32146860299461</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.34154806882245</v>
+        <v>27.78833275076312</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>57.07245941469108</v>
+        <v>56.53167632310482</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>63.36103164220897</v>
+        <v>62.21411246646917</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.15017116014259</v>
+        <v>26.50505177980058</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.32682315376407</v>
+        <v>38.26780600603738</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.10375680893371</v>
+        <v>42.65028428387883</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>32.5288236666046</v>
+        <v>31.07392947851545</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>56.76523206284133</v>
+        <v>55.36530348940705</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.17608724349995</v>
+        <v>56.52491041620902</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>11.77085372474425</v>
+        <v>12.74620818170136</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>68.50477702481338</v>
+        <v>66.89839830030083</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>73.56005162411012</v>
+        <v>70.6377154105667</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>83.32596002063001</v>
+        <v>80.51819696849094</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>79.74174135728262</v>
+        <v>77.61681934903896</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>87.43268399265935</v>
+        <v>84.80646314185928</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.86021730514918</v>
+        <v>32.61509525205238</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>75.3655049191352</v>
+        <v>73.80772432177126</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>82.14879082758372</v>
+        <v>79.84434417565114</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>60.54642704131714</v>
+        <v>59.45039236996832</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.71700170241341</v>
+        <v>33.07660571648965</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>37.94355713642364</v>
+        <v>38.34038450925502</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.10284125310492</v>
+        <v>46.73561980903285</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.43824212776678</v>
+        <v>19.8271166095082</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>55.40555604246707</v>
+        <v>54.77617294784127</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>60.59794753774738</v>
+        <v>59.4758519146762</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.87598333119412</v>
+        <v>20.59313553496307</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.16954375973847</v>
+        <v>37.68045216969161</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.28131088634938</v>
+        <v>44.68540650489061</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>32.93772781228758</v>
+        <v>32.46095638918185</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>58.2905698986178</v>
+        <v>56.30312546915162</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>62.24736038198328</v>
+        <v>60.3574658981545</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.65866744614614</v>
+        <v>6.026525317079617</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.73998563870177</v>
+        <v>65.42702855770601</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>71.53927086981382</v>
+        <v>69.78211654473722</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>78.26299853021511</v>
+        <v>76.34958646912591</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>77.81069814564343</v>
+        <v>76.27121390435885</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>89.55697157404794</v>
+        <v>85.55983696321223</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.98769592816993</v>
+        <v>24.41489102470237</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>72.77382654463648</v>
+        <v>71.30706574718202</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>82.17704582743605</v>
+        <v>79.24073646441727</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.498</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.772</v>
+        <v>15.117</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.433</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.572</v>
+        <v>21.019</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.955</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.72711304625256</v>
+        <v>17.1602203034688</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.6983172776501</v>
+        <v>16.91651695905526</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.27898637034239</v>
+        <v>32.11001872716022</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.493621757500378</v>
+        <v>2.896192898549867</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.45651170983719</v>
+        <v>24.39250435108968</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.48835732533678</v>
+        <v>29.6033128747709</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.341682729522049</v>
+        <v>7.237826277447446</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>48.1886658797869</v>
+        <v>47.12171514839116</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.93727785158212</v>
+        <v>48.48085601886208</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.77357192230359</v>
+        <v>16.2768617681411</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.7765208397578</v>
+        <v>19.57033078350481</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.64462573091986</v>
+        <v>20.47933826966721</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.21566182355612</v>
+        <v>19.57021759315487</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.24593501789564</v>
+        <v>22.10640212992983</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>54.03373974894664</v>
+        <v>54.09991151149353</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.99709765917896</v>
+        <v>16.99631938437699</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.32260734252412</v>
+        <v>27.70187443807529</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.67981080360623</v>
+        <v>35.13135812653041</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.947141519541493</v>
+        <v>5.237260389238049</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.87393198121696</v>
+        <v>12.78831655064456</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.7973895892831</v>
+        <v>15.56302438166248</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.321520540801689</v>
+        <v>3.057424405169957</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.9733881762188</v>
+        <v>17.47054782820941</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.43702803833651</v>
+        <v>25.95984403316413</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.89781745865013</v>
+        <v>30.69004710521309</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.11664142568208</v>
+        <v>31.91865277274612</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.360047510034931</v>
+        <v>1.607226392237742</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.78183009242478</v>
+        <v>36.76817877943839</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37.71482842777719</v>
+        <v>35.60060572203312</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.462834998981883</v>
+        <v>7.684525118021476</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>52.58947875428204</v>
+        <v>49.85081004322987</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.54250921235901</v>
+        <v>48.49766112444007</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.72356714790956</v>
+        <v>45.89523034950855</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.52358518302273</v>
+        <v>48.99500115182734</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.64904056204566</v>
+        <v>51.86729048063725</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.01081403427057</v>
+        <v>43.39420889640453</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>58.06244023382236</v>
+        <v>57.09314446594965</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>61.74135557598174</v>
+        <v>60.91840841083555</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.59840868319447</v>
+        <v>24.33174157356249</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.3493708342471</v>
+        <v>38.21716448034604</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.77132310764748</v>
+        <v>37.71071844012201</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.381881764339813</v>
+        <v>4.782411920998953</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.97785878510248</v>
+        <v>36.00409867622155</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.92387396249655</v>
+        <v>36.9722173564389</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.83132897754583</v>
+        <v>4.836104549337033</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53.44690966046942</v>
+        <v>54.05005808554318</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.528636653475029</v>
+        <v>6.604672649859868</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.22223680943253</v>
+        <v>21.48213556109799</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.08913610831156</v>
+        <v>26.04977637654242</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3.666908209455563</v>
+        <v>1.620874398484503</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.46936609525211</v>
+        <v>32.8135304685533</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.91577155084953</v>
+        <v>37.00466979811061</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.384381443442585</v>
+        <v>7.648224830414325</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>51.38585356464787</v>
+        <v>48.16448155999005</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.98367971851438</v>
+        <v>52.89545631117201</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>60.94542400453081</v>
+        <v>59.63861862913444</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.58496885353095</v>
+        <v>59.39529741563707</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>65.89553568110911</v>
+        <v>64.26477151643124</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14.35173049828414</v>
+        <v>11.52191714191318</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.91705612560752</v>
+        <v>34.89996391061673</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>49.42625408224313</v>
+        <v>46.71436103397552</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.38758359151168</v>
+        <v>13.04184351052204</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.23719204359872</v>
+        <v>32.52153432163375</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.51636137654955</v>
+        <v>35.37203770408243</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6.892200853221361</v>
+        <v>4.634122099346044</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.51138077497202</v>
+        <v>26.19213796741871</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.53802089208484</v>
+        <v>37.34219139979079</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.03377250250448</v>
+        <v>4.536514575805985</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.0180054091404</v>
+        <v>46.25758987175524</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.283758274821611</v>
+        <v>3.631364113593072</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.96847712838168</v>
+        <v>16.28172419448283</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.8857463598193</v>
+        <v>23.83362178787399</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.742490473934616</v>
+        <v>0.8312556343881141</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.81525568004391</v>
+        <v>32.23841557056748</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.75141959892387</v>
+        <v>38.2953036980184</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.248523894003824</v>
+        <v>1.411163130016295</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>49.20198713129547</v>
+        <v>46.27717129693064</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>54.34645062891673</v>
+        <v>51.73900761363613</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>52.35026613949104</v>
+        <v>50.1594803878222</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>54.12864840436885</v>
+        <v>51.61789383962585</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>61.77644565412132</v>
+        <v>59.86549257549565</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.76853177806997</v>
+        <v>9.446504172798544</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.68250133139094</v>
+        <v>24.37639638442434</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>53.44055688863966</v>
+        <v>51.46471180205541</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.0163012515929</v>
+        <v>9.014730355532752</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.6810510131346</v>
+        <v>27.88180083123092</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.20008292770004</v>
+        <v>36.20816523504497</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.315100333912721</v>
+        <v>4.997457900060802</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.5721919707854</v>
+        <v>27.85863607721421</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.28894623233424</v>
+        <v>41.59473933761569</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.903270531431897</v>
+        <v>0.9550935603669082</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>43.02345926806991</v>
+        <v>41.64548590446968</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.11382389716719</v>
+        <v>23.00070887593258</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21.21373992788731</v>
+        <v>19.50378039684909</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.87679565132725</v>
+        <v>33.29384595650673</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.65725286906277</v>
+        <v>36.50157875657333</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.422130972842918</v>
+        <v>6.794854697315888</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17.36942717646438</v>
+        <v>14.22080614926162</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.13362156539594</v>
+        <v>22.27219052700964</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>15.02141319084929</v>
+        <v>13.54686732428147</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.57642445772451</v>
+        <v>22.74688428829573</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.06727755001786</v>
+        <v>34.09482817273557</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6.276184676232905</v>
+        <v>3.76906259709375</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>13.03218951057717</v>
+        <v>10.25811124550118</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.04819496591603</v>
+        <v>17.45724169372289</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4.736473059332429</v>
+        <v>2.381624268835125</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.49612698041256</v>
+        <v>19.73899171018761</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.73139637710071</v>
+        <v>39.42916578695002</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>23.72977796252274</v>
+        <v>21.68690647133924</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.33705085970888</v>
+        <v>41.63307528550773</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.48180021920123</v>
+        <v>49.47083571701165</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>8.035244436419454</v>
+        <v>4.752802133474574</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.16953199294277</v>
+        <v>19.12481858691099</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.02978277038423</v>
+        <v>32.27637328321651</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>57.74766149437988</v>
+        <v>59.13416358045339</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>59.24945530211233</v>
+        <v>60.50460503918931</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.2721297719627</v>
+        <v>65.44844673900539</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>63.07445171433172</v>
+        <v>63.92039824592835</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.79440338704699</v>
+        <v>26.31362922850532</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.66302371010171</v>
+        <v>62.67210902841461</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>63.17616844564529</v>
+        <v>65.06109619634806</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.17937418392572</v>
+        <v>30.57672671071798</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.53950587200517</v>
+        <v>41.80011655688166</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.28319626942563</v>
+        <v>44.78881232580746</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>8.729516578028605</v>
+        <v>6.3029258122437</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.03019841444917</v>
+        <v>46.43274588265503</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.72806187615024</v>
+        <v>46.57818163499697</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>9.659274527928865</v>
+        <v>8.348764667906554</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.85773581829046</v>
+        <v>69.43892702379158</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.14968369611597</v>
+        <v>67.77803806336338</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>79.47580153800372</v>
+        <v>82.08856643498316</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.76709423893598</v>
+        <v>84.16510041840223</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>82.69893025412591</v>
+        <v>85.81385556715531</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.79115153496569</v>
+        <v>37.97424589489185</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>76.86477544409705</v>
+        <v>79.65226668448324</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>77.47889753859766</v>
+        <v>80.27406083752831</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.67773861149043</v>
+        <v>61.31166190598533</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.70558996208479</v>
+        <v>48.04923263746112</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.96825132101533</v>
+        <v>55.47219776458397</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>61.95117496416538</v>
+        <v>63.22721284602055</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>14.91882034904821</v>
+        <v>11.92476130419982</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>54.6548787762373</v>
+        <v>53.62169074742278</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.00622020114722</v>
+        <v>61.71898860392794</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.56150074363321</v>
+        <v>15.37921942239143</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>37.12673591333206</v>
+        <v>36.50615651521121</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.91267579059907</v>
+        <v>43.35637357478836</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>7.372608476155332</v>
+        <v>5.122240231300449</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.71378166309242</v>
+        <v>38.45615794180478</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.26264327898083</v>
+        <v>47.29398156804226</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>9.446722470938393</v>
+        <v>7.739266620330948</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.23490384563092</v>
+        <v>63.18501867512225</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>70.63910216523834</v>
+        <v>73.08401595290134</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>76.04444938408139</v>
+        <v>77.46122640495025</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>77.29575834393725</v>
+        <v>80.12894837617185</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>85.155326592894</v>
+        <v>89.49111931703858</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.43972561222797</v>
+        <v>16.82972363747563</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>71.99649091973934</v>
+        <v>72.47655203638121</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.94971743543658</v>
+        <v>82.65402096367843</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>58.35507056551765</v>
+        <v>59.73490249963876</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.3691638491812</v>
+        <v>28.99104613937466</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.0529700033605</v>
+        <v>33.70109143532084</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.59540228203329</v>
+        <v>45.36027411765073</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11.15711509399078</v>
+        <v>8.51382918263575</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.07157882841843</v>
+        <v>49.91754105682975</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.8940123713712</v>
+        <v>60.22866173182449</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.2091662912929</v>
+        <v>12.19980158242646</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.76233152461715</v>
+        <v>35.31539269801115</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.94100544752474</v>
+        <v>45.77589660949791</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>7.916351248834161</v>
+        <v>5.629868949348463</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.25105776235076</v>
+        <v>39.53885744913909</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.3392444607529</v>
+        <v>50.54691408793055</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4.395250155867213</v>
+        <v>1.615675476674447</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.49532707438664</v>
+        <v>57.98782801925196</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.42612994953264</v>
+        <v>72.73586398444557</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.53693803551084</v>
+        <v>64.84250059414909</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.01840718990343</v>
+        <v>71.95149053970087</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>83.84106342861872</v>
+        <v>88.83268164272019</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>13.53149131368191</v>
+        <v>11.10283008893766</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.79990537229052</v>
+        <v>64.18852249279593</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.75226013060433</v>
+        <v>80.92287683643043</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.5798667327505</v>
+        <v>10.8601650880393</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.5629488933829</v>
+        <v>11.51187162127255</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.31658597475032</v>
+        <v>24.01450739696743</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6.406672826812233</v>
+        <v>0.6394050999566225</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.06634736135326</v>
+        <v>18.75657421372557</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.72386876085201</v>
+        <v>20.81882624517979</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.42337014128787</v>
+        <v>5.333076031046541</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.45242393940036</v>
+        <v>36.49399221722419</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.76059668480001</v>
+        <v>37.89962590449056</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>17.95575503942765</v>
+        <v>13.90398339355636</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.16011212570427</v>
+        <v>16.92456036424969</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20.28896752471711</v>
+        <v>16.04383411534443</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.93968702222529</v>
+        <v>14.94807496074804</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.48995420462028</v>
+        <v>12.19406821501707</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.86750384369674</v>
+        <v>33.24288955275495</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.90737566820965</v>
+        <v>7.970000912660304</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.24583624428815</v>
+        <v>23.92315598268822</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.08188144913498</v>
+        <v>27.32985281275395</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.914058212437325</v>
+        <v>-0.9789006095986394</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>13.30722879573746</v>
+        <v>8.29327304199305</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.22384044382612</v>
+        <v>13.19066790044013</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6.792380959082671</v>
+        <v>0.9723944234948831</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.78840426448101</v>
+        <v>23.55576688447169</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>22.24150843630844</v>
+        <v>19.1076557691457</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.17983149303687</v>
+        <v>23.02051609982226</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.49280891107904</v>
+        <v>26.29766637853884</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>6.474618695768186</v>
+        <v>0.2261130507425833</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.7807733378424</v>
+        <v>28.61727564460046</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.8932596505157</v>
+        <v>29.97490043801701</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.695584411992936</v>
+        <v>4.975243117409182</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>43.56684868702971</v>
+        <v>44.75945132386746</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.29202114480275</v>
+        <v>43.8497821954219</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.88349509768977</v>
+        <v>38.15761388626105</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>46.23703037826058</v>
+        <v>47.29756393014277</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.05713235847004</v>
+        <v>46.29539121809369</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.41280394923562</v>
+        <v>23.78968663877967</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.35033516919508</v>
+        <v>40.63769701437212</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.48518833911062</v>
+        <v>43.95150672826605</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>20.61854565165664</v>
+        <v>18.27109628047384</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.45023854935734</v>
+        <v>29.08835018943537</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.95073468390815</v>
+        <v>32.12261570970771</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.021165855216228</v>
+        <v>-0.6241813164928942</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.91346679836245</v>
+        <v>27.7612759044999</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.43555126829448</v>
+        <v>32.53321933785444</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>7.661560820026871</v>
+        <v>1.453546516547569</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>46.6226439989228</v>
+        <v>47.45753954060045</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.01268188663022</v>
+        <v>4.049287286846916</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.1779034531329</v>
+        <v>15.93924851748724</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.10770732458047</v>
+        <v>24.61815111146003</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.091653433337175</v>
+        <v>-0.2122646714808418</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.30780166484506</v>
+        <v>29.14391655954926</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.49113537124784</v>
+        <v>30.06514038295153</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>9.761476092865429</v>
+        <v>5.026518008164452</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.08080798866731</v>
+        <v>45.02202930336689</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>44.62972935392565</v>
+        <v>47.75253143094316</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.17583309005627</v>
+        <v>46.98986376021558</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.29803427630734</v>
+        <v>50.53027430402844</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>52.92242386330632</v>
+        <v>57.28359223590194</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>9.189596731701187</v>
+        <v>1.824297523717508</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>27.25764874747851</v>
+        <v>23.4484175990675</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.4277423058023</v>
+        <v>31.87571735013453</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.88263433679914</v>
+        <v>10.2855091153038</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.88725688458688</v>
+        <v>26.63327366601777</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.94442593454639</v>
+        <v>31.63050437228573</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>5.726612052920856</v>
+        <v>-0.7294700696564966</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.48013279676114</v>
+        <v>26.15343600925621</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.04138378147303</v>
+        <v>33.49891757229028</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>8.073200477603905</v>
+        <v>2.636107592919849</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>42.63365221640348</v>
+        <v>43.72762799851971</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.71625137730528</v>
+        <v>1.630634999506015</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.33928868737605</v>
+        <v>10.30613677792837</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.76443885238718</v>
+        <v>22.21295937345657</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>5.972211208807309</v>
+        <v>-1.228010390560588</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.20384110362546</v>
+        <v>24.75760419499705</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.04248340353826</v>
+        <v>33.05761592438979</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6.430864595250174</v>
+        <v>-0.5599525654425115</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.34999612309976</v>
+        <v>40.37676266968861</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.25419751995275</v>
+        <v>46.73313993779832</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.24876145737494</v>
+        <v>42.65930966059965</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>44.34458110490866</v>
+        <v>46.72245038616478</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.06194077665636</v>
+        <v>52.60306719811591</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.938064853811266</v>
+        <v>-1.080236803869951</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.11997636833017</v>
+        <v>19.88736714296124</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.84212684450984</v>
+        <v>36.81651568710294</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>11.20869814546387</v>
+        <v>5.422517478677694</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.53508271744455</v>
+        <v>24.4504567385477</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.77686608568789</v>
+        <v>28.97589097256208</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>5.88463126703326</v>
+        <v>-1.506899540115029</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>24.66005910298801</v>
+        <v>22.40175802138542</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.43976210959217</v>
+        <v>29.79202318494707</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.3299158984853</v>
+        <v>-0.6237000573612299</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.03832503113183</v>
+        <v>36.49990535633724</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.42923930493794</v>
+        <v>26.08486362812862</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.45660317515692</v>
+        <v>19.63755891596313</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.99079033995002</v>
+        <v>34.46809758853902</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.41737377433073</v>
+        <v>37.30132241895206</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.68600868599233</v>
+        <v>7.946244254768139</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.1351820584929</v>
+        <v>17.16984628300033</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.52663608930839</v>
+        <v>25.06613454424421</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.1005659962265</v>
+        <v>12.05945212371624</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.06894684477056</v>
+        <v>26.36952411601017</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.54479190433559</v>
+        <v>34.74747736053506</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>5.49575206832888</v>
+        <v>-0.84296628834214</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>12.99013214924666</v>
+        <v>8.31049404892843</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.58124025350151</v>
+        <v>17.1134453996562</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>7.874017575688583</v>
+        <v>2.697666117685817</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.47704323079781</v>
+        <v>27.93168773085415</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.86580329774395</v>
+        <v>47.34252735211084</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.07813174484229</v>
+        <v>26.24150475550691</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.69423667935485</v>
+        <v>42.84734600160491</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>46.21750120489904</v>
+        <v>49.03839040187211</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.75473264694432</v>
+        <v>7.779246955465442</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.38261007976935</v>
+        <v>22.80087213407396</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.51064347303235</v>
+        <v>36.12849253805355</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>52.48580672471793</v>
+        <v>54.75238336984302</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.75986188759538</v>
+        <v>47.31988093632155</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.69457008161113</v>
+        <v>56.86328575438428</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>55.30062203473625</v>
+        <v>57.78079286572098</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.0027855567179</v>
+        <v>19.4228570534361</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.95882504424068</v>
+        <v>53.30880362277535</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>53.27550272890994</v>
+        <v>55.73577949660927</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.73266464850292</v>
+        <v>26.79163749253313</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.84968850472459</v>
+        <v>36.40510034441377</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.96164557706601</v>
+        <v>42.98429222841528</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>7.144488314782791</v>
+        <v>0.8297269683173276</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.85853913668585</v>
+        <v>39.40179072731546</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.89005057909039</v>
+        <v>43.48667805819183</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>11.45383123787986</v>
+        <v>7.110895493329146</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>58.70659322006128</v>
+        <v>63.27890757855663</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>61.94496268565848</v>
+        <v>67.13984680994091</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>64.48615557058115</v>
+        <v>70.49829973315489</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>70.27485553114651</v>
+        <v>77.17053868956778</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>73.09929297469282</v>
+        <v>81.08570196445025</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.49439675368711</v>
+        <v>31.91385087843913</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>66.05566318122561</v>
+        <v>71.60577207177853</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>68.41260257939909</v>
+        <v>74.89430850654831</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>52.97926987292393</v>
+        <v>55.27523963724096</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.13911497250111</v>
+        <v>41.99504329485595</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.87023644184686</v>
+        <v>47.77512059652791</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>53.73366902293333</v>
+        <v>55.45591076260688</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.92921467746607</v>
+        <v>9.592696324509863</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.11926910715161</v>
+        <v>46.58303028882447</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>50.77467456447607</v>
+        <v>51.7278748944062</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.92076390858067</v>
+        <v>15.3402555246597</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.73982471033428</v>
+        <v>33.84795923183224</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.83253595860022</v>
+        <v>42.10398219924839</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.084254891905974</v>
+        <v>-0.3756728134519669</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.55685319301794</v>
+        <v>38.88428859425228</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.35115180016107</v>
+        <v>41.93652015422347</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>10.50331664001727</v>
+        <v>6.093937459481126</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>57.13364414973013</v>
+        <v>61.98983785223044</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>63.82117495818916</v>
+        <v>70.3679697046324</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>63.25710031943537</v>
+        <v>69.50790959784476</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>67.58775266208961</v>
+        <v>73.74520364527051</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>75.59798728482171</v>
+        <v>84.82910074198405</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>19.67936448835373</v>
+        <v>15.46274822011845</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>63.68476988767156</v>
+        <v>68.64357511290231</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>68.48591063290183</v>
+        <v>74.8144773663992</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>48.60732559836049</v>
+        <v>49.77564414355061</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.30994239919637</v>
+        <v>24.97460312678876</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.94233779904351</v>
+        <v>32.33325819536567</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.60110824822676</v>
+        <v>38.92515901958571</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>11.83088168809914</v>
+        <v>5.574166257119924</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.57937152744825</v>
+        <v>37.87594664003758</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.56440672730889</v>
+        <v>46.70683678161623</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.41471454865177</v>
+        <v>8.832856760222821</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.64142045534969</v>
+        <v>34.01288714259393</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.13041666644271</v>
+        <v>42.59842658379949</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>6.204230881950007</v>
+        <v>-0.6385168039824727</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.47195825698998</v>
+        <v>37.27601435246727</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.88206712288252</v>
+        <v>42.40796750935534</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>7.420620621849267</v>
+        <v>0.9275181413599114</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>54.11197581522909</v>
+        <v>58.3229404320683</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>62.21026441027823</v>
+        <v>68.7040161091797</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>57.55697714847576</v>
+        <v>62.53915278492701</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>63.34150186442187</v>
+        <v>69.21087699436325</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>72.32498252310121</v>
+        <v>80.94296328309287</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.53429765314459</v>
+        <v>7.819267510846359</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>60.62606020619103</v>
+        <v>65.69811315390152</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>68.01058142351</v>
+        <v>74.34909333679379</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.47124130077485</v>
+        <v>12.07706275043087</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.50925151263679</v>
+        <v>12.20124426920514</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.47806796106715</v>
+        <v>27.34660892442098</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>8.40146778920457</v>
+        <v>2.937785472325228</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.2562506910264</v>
+        <v>18.14547753836738</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.17887981014418</v>
+        <v>21.47449086425835</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12.16281821130901</v>
+        <v>7.5794752847615</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.6167917089915</v>
+        <v>42.18577216800941</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.41519930549259</v>
+        <v>44.90812699417648</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.53734017816102</v>
+        <v>14.62940536793586</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.18161836537161</v>
+        <v>17.68827576404587</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.27347719001602</v>
+        <v>18.20422029922475</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.85499469417247</v>
+        <v>25.64599654495012</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.33088274348594</v>
+        <v>23.71289978069691</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.60803879158304</v>
+        <v>37.77838683767931</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>19.95042014757826</v>
+        <v>16.99016819656315</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.14348440759844</v>
+        <v>29.39693020913097</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.74214707547704</v>
+        <v>34.02583430110273</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.66877234674872</v>
+        <v>6.025636908384154</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>18.40172090480722</v>
+        <v>15.65642851979129</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.274916304471</v>
+        <v>20.27199089570269</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>8.788301875738366</v>
+        <v>3.771908755032992</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.24356264539369</v>
+        <v>25.41680818546555</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.42649473389639</v>
+        <v>25.14543097074962</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.21205301889177</v>
+        <v>35.0768648148505</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.13897380735517</v>
+        <v>35.09673990565514</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.466539133094145</v>
+        <v>2.83023052269581</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>37.94575925429715</v>
+        <v>39.49701056407253</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.42794740528105</v>
+        <v>40.28462746320832</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.69255166829418</v>
+        <v>6.94298218646653</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>52.79355539289988</v>
+        <v>57.87856883371596</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.50256867225178</v>
+        <v>53.5672182881375</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.04076392103664</v>
+        <v>47.63095659324386</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>51.79747695107406</v>
+        <v>56.02019787254502</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.03762716928113</v>
+        <v>57.59415024595435</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.64287135316414</v>
+        <v>37.01657691502025</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.6256788016349</v>
+        <v>43.30995798846646</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.00485790293665</v>
+        <v>44.89333487962797</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.35285785014586</v>
+        <v>26.89495129775867</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.24592961235973</v>
+        <v>42.77680191193129</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>39.62732858280595</v>
+        <v>41.36969749187289</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>11.06449284045793</v>
+        <v>6.1156550161155</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>38.93495711980609</v>
+        <v>41.02926279586245</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.34207990244602</v>
+        <v>42.57167432885145</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.40242653657606</v>
+        <v>6.06270146406009</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>55.94330763271216</v>
+        <v>62.77659812719564</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.67672488120268</v>
+        <v>7.827608589942436</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.84502369409191</v>
+        <v>24.59327103638418</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.77171148397721</v>
+        <v>29.23589236856258</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.655839214689301</v>
+        <v>1.883472023661049</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.80471384227167</v>
+        <v>33.88938617653044</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.24722391912572</v>
+        <v>38.27642695539601</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>11.69850238200722</v>
+        <v>6.99970947876194</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>50.10702509705663</v>
+        <v>54.34583888865198</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>52.21192095248395</v>
+        <v>57.06733940731067</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>53.15025569810857</v>
+        <v>58.21196146568117</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>58.27692927284197</v>
+        <v>64.4953531368168</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>61.7285201017695</v>
+        <v>69.12554857779853</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.39183645665864</v>
+        <v>16.33990155284746</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.68210988897923</v>
+        <v>31.89182043347262</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.44641079923557</v>
+        <v>37.28514938225439</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.76369053840927</v>
+        <v>17.05289428690833</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.01845462397058</v>
+        <v>37.87691970640721</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>37.80000648437677</v>
+        <v>39.48166462398682</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>10.65326780979371</v>
+        <v>6.042113297236593</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.65839452986127</v>
+        <v>32.4419529409281</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>38.65861172886043</v>
+        <v>40.2195501868805</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>9.712898016322448</v>
+        <v>4.970469135692095</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>49.97847419669929</v>
+        <v>55.28150468438685</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>10.70814319308489</v>
+        <v>5.284379503843528</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.62742058195252</v>
+        <v>21.77658344917719</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.21991075519347</v>
+        <v>29.84357744722952</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.062082857883667</v>
+        <v>2.378571356044169</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.07566500508725</v>
+        <v>35.93942076041508</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.9327849334691</v>
+        <v>42.01782936287923</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.077730567014608</v>
+        <v>3.718403840621956</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>49.88659043839082</v>
+        <v>54.52128475378848</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>52.9196475858413</v>
+        <v>58.03430117870684</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>49.3110133266958</v>
+        <v>53.63292468975929</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>52.83502851028497</v>
+        <v>57.98958973610761</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>58.84082317881011</v>
+        <v>65.42617677963949</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.35097942695577</v>
+        <v>16.50733450595045</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.71727076518829</v>
+        <v>26.02076124944342</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.3097487315937</v>
+        <v>39.92790628106019</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.65165458215354</v>
+        <v>13.20678463278002</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>32.42109302831441</v>
+        <v>33.86034123854989</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>37.11175754937512</v>
+        <v>38.88341334884009</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.02082371469002</v>
+        <v>5.962297982863248</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>32.47591840122633</v>
+        <v>33.75366491845551</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>41.3986328847099</v>
+        <v>44.72295232389861</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.331691004128302</v>
+        <v>2.235818032024277</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>45.93726891458682</v>
+        <v>50.38797338028126</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.33276681152811</v>
+        <v>28.41973134296746</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.77262872581803</v>
+        <v>24.41636647738324</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>38.85419034084845</v>
+        <v>41.22835926749709</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.5557012814745</v>
+        <v>43.00763615585984</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.69365511873492</v>
+        <v>10.98625818692856</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.32804627579881</v>
+        <v>22.78903236511509</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.90974792763141</v>
+        <v>30.25699027899593</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.16156605216895</v>
+        <v>19.3136749638455</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.24966995172409</v>
+        <v>28.95469314555579</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.93546922479036</v>
+        <v>37.79232237895928</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.907080500534455</v>
+        <v>4.956552914714468</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>16.43246508868221</v>
+        <v>12.61670178396222</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.46972334821078</v>
+        <v>19.55956057211286</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>8.824009120108286</v>
+        <v>3.760598881256097</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.82761352134053</v>
+        <v>25.75530179726811</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.35284828148531</v>
+        <v>45.25554013396592</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.19890114763548</v>
+        <v>25.58921402988101</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.97329971692607</v>
+        <v>45.86635376554337</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.90296014351045</v>
+        <v>51.89617770777512</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>13.9524188545926</v>
+        <v>9.728414209824873</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.01402275617419</v>
+        <v>24.46039896410694</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.83137121880102</v>
+        <v>38.38490513912713</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>58.39561381787696</v>
+        <v>64.46402889874581</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>58.68050615857553</v>
+        <v>65.64731438797661</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>64.02717529846579</v>
+        <v>71.58840478877744</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>63.91745946418781</v>
+        <v>71.00807799814204</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.05677663396807</v>
+        <v>30.08190953729266</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>61.08730123669571</v>
+        <v>68.64315444725892</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>63.3446038003313</v>
+        <v>71.09014959765656</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.14420100698435</v>
+        <v>32.55586109942027</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.57156996967554</v>
+        <v>45.3218997186305</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>43.98174668578355</v>
+        <v>46.65611773909252</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>12.02577625289217</v>
+        <v>7.062153476626687</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.77233898112403</v>
+        <v>48.1123803409646</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>44.9301181131064</v>
+        <v>47.99654361364711</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>12.9863990278535</v>
+        <v>8.553443919342413</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>64.69695220807191</v>
+        <v>72.58572596511611</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>64.11344421468723</v>
+        <v>71.18009240383404</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>72.55243104065283</v>
+        <v>82.46310153636885</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>75.00361494354686</v>
+        <v>85.0227196022401</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>76.87386288566118</v>
+        <v>87.21070179608135</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.5101449778122</v>
+        <v>41.58270104462974</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>73.07022043039747</v>
+        <v>82.82589657583691</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>73.22895367587293</v>
+        <v>82.8938212642724</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>60.04010080841692</v>
+        <v>67.05752189564389</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>50.00320428591841</v>
+        <v>55.29420366574136</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>56.96302314937145</v>
+        <v>63.41484848172962</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>63.13119307779711</v>
+        <v>70.86523228805149</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.6966874355719</v>
+        <v>21.12282023358691</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>56.46468748650832</v>
+        <v>62.58530682970088</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>61.14015082267884</v>
+        <v>68.50060011664968</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.46339379969144</v>
+        <v>20.59159951761028</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.5095753200514</v>
+        <v>40.6140212811886</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>42.75036460876693</v>
+        <v>44.95468690069826</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.79496133103946</v>
+        <v>5.855020681649879</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>37.19446535884214</v>
+        <v>38.53092389484797</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.60562486953283</v>
+        <v>44.27744083953018</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.91999454855343</v>
+        <v>8.876359647676594</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>59.60719056477471</v>
+        <v>66.20414757878535</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>66.00251202428645</v>
+        <v>74.43330656709573</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>67.78059339404602</v>
+        <v>76.38362012941995</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>71.14760525269892</v>
+        <v>81.61742207965924</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>78.20269130467327</v>
+        <v>89.05159778304574</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.82431776295153</v>
+        <v>27.37246779745806</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>69.73252967997082</v>
+        <v>79.25464422562733</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>73.81247507330561</v>
+        <v>83.90973994796339</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>57.29197689623137</v>
+        <v>63.7118005519017</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.27388603089511</v>
+        <v>36.29325481130007</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.65974003724708</v>
+        <v>42.33099802501892</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>48.58473172658991</v>
+        <v>53.53724772068207</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.20427762800692</v>
+        <v>16.62282439540267</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>51.23155847429786</v>
+        <v>56.92981919434941</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>58.27571854029441</v>
+        <v>65.72037211796305</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.617075592885</v>
+        <v>18.50420541019894</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.02040285046107</v>
+        <v>40.41340893178152</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>44.27791804229771</v>
+        <v>47.6552058990805</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>11.66311694961829</v>
+        <v>6.924803152324017</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.45857949338942</v>
+        <v>42.87430262166636</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>46.28283745688157</v>
+        <v>49.95114078716124</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.192612860578436</v>
+        <v>3.928273442351774</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.57077533323524</v>
+        <v>62.85754635650454</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>65.38715213208951</v>
+        <v>73.78656134648739</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>61.24078084951946</v>
+        <v>68.65368946991995</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>67.14067045438087</v>
+        <v>76.26461382915844</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>75.54143712757536</v>
+        <v>86.56796177833053</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.21391282501238</v>
+        <v>22.02476385291516</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>64.28664010209849</v>
+        <v>72.83082449778439</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>72.41564080118009</v>
+        <v>83.07350802598199</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.44982566979394</v>
+        <v>10.89293184200686</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.06353652032078</v>
+        <v>13.09951868483687</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.99913665247982</v>
+        <v>18.49275774199042</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.73798870390816</v>
+        <v>3.764683744296903</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.16194884544214</v>
+        <v>9.744157560502472</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.00345872102425</v>
+        <v>10.48321603725261</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.21749497297771</v>
+        <v>7.210463595275147</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.34142035697946</v>
+        <v>21.4506685867847</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.85897744049536</v>
+        <v>23.47993999411604</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.25992372043327</v>
+        <v>13.25336485020965</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.80187821194725</v>
+        <v>16.18708444065895</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.43880230281383</v>
+        <v>15.8662031022895</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.86028345717416</v>
+        <v>8.999912652250678</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.94388283781267</v>
+        <v>10.06130866951288</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.24557458438899</v>
+        <v>16.55648134872223</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>17.61807836643719</v>
+        <v>11.0627551285972</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.61756266679458</v>
+        <v>20.63715375997917</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.37348872459228</v>
+        <v>24.77139238857204</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.47633068216357</v>
+        <v>3.145658403032357</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.02106600176563</v>
+        <v>7.360377722606717</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.79588830819577</v>
+        <v>11.20532231905524</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.6047109613217</v>
+        <v>3.629104136706214</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.45714530082331</v>
+        <v>17.14432002959796</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.30673958898617</v>
+        <v>16.58117317225189</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.07400296597502</v>
+        <v>21.54091507466465</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.22386290508368</v>
+        <v>21.40847029697395</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>11.64460327554432</v>
+        <v>3.166681628544485</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.50335267651737</v>
+        <v>21.89827500173197</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.5356770334806</v>
+        <v>23.40547830903399</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.08180753000985</v>
+        <v>5.185896263078881</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.62504499833747</v>
+        <v>32.44913443490762</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.10746828402488</v>
+        <v>31.93200552714688</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.2120697542151</v>
+        <v>30.35996036877079</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.96941949372909</v>
+        <v>37.59457628619621</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.63261881993492</v>
+        <v>37.71999176319414</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>19.99002820926946</v>
+        <v>13.35179218422166</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.5302332931328</v>
+        <v>32.49867891680731</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.76840548538238</v>
+        <v>34.46186323884653</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.37194218278201</v>
+        <v>14.22145763977697</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.782635950239</v>
+        <v>25.79042103747862</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.02006135438984</v>
+        <v>29.21746502452261</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>11.52704704869265</v>
+        <v>3.019635771862646</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.65764722652621</v>
+        <v>24.95255493067259</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.79621361164115</v>
+        <v>29.73581222778427</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.18318023090243</v>
+        <v>3.3065251716774</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>39.23868648036184</v>
+        <v>40.65329922784667</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>14.5218480888698</v>
+        <v>7.160218097520872</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.30402854421708</v>
+        <v>16.07846220462919</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.94326330350155</v>
+        <v>19.95867450792155</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.57873596057254</v>
+        <v>3.551058457480163</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.74538631533686</v>
+        <v>21.0903869109767</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.1717774113264</v>
+        <v>22.95330647283316</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>14.73496239447494</v>
+        <v>8.024876010181089</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.13389535467645</v>
+        <v>33.48032319019425</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.86177804442922</v>
+        <v>35.00478767913067</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.44148859384797</v>
+        <v>33.84530121016582</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.52705869634288</v>
+        <v>35.7488181787707</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.47309452499224</v>
+        <v>42.37937808629615</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>14.04861177055808</v>
+        <v>6.019987554251699</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.50541655295137</v>
+        <v>20.99840620317786</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.33218288947588</v>
+        <v>23.92098297750056</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.28395523339088</v>
+        <v>9.422929935994652</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.25083908675208</v>
+        <v>22.28175215731816</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.32687424328491</v>
+        <v>28.99595316633833</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>11.31091829624659</v>
+        <v>3.126660110487396</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.13429716202468</v>
+        <v>19.8966368381719</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.18276840104314</v>
+        <v>29.96798453764748</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>12.82307410987238</v>
+        <v>5.261321408498841</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.68237047592824</v>
+        <v>32.13401352231653</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.72809019691429</v>
+        <v>5.254660607824434</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.9142693402009</v>
+        <v>12.27006955852959</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.98805002790629</v>
+        <v>17.94044988852861</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>11.37412908046277</v>
+        <v>2.220837862482806</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.32262329788666</v>
+        <v>13.91359767382621</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.1839841285238</v>
+        <v>24.39358207446321</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>11.73361205194494</v>
+        <v>3.019348763823587</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.4628200888935</v>
+        <v>26.48295002900896</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.1608577319212</v>
+        <v>33.48604232705934</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.50583959485752</v>
+        <v>27.11908665101829</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.07739955602741</v>
+        <v>29.96719027992291</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.3564517903023</v>
+        <v>36.15544972112215</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.49341771700094</v>
+        <v>4.156597620168977</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.14855523885592</v>
+        <v>20.45922580055151</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.53539287106437</v>
+        <v>27.84676139393682</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.46929853776981</v>
+        <v>6.523329434426451</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.75869541386378</v>
+        <v>19.40268047306785</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.86966631419205</v>
+        <v>24.84584819798159</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>11.5710745831524</v>
+        <v>2.746065038436896</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.22910851254331</v>
+        <v>17.18195842108053</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.77884239386395</v>
+        <v>26.57412784145023</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>11.45187176069961</v>
+        <v>2.463011977335885</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.38018111073416</v>
+        <v>25.84545420314429</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.97425378159612</v>
+        <v>19.68088929384778</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.63236831338693</v>
+        <v>17.10156379211933</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.34632183548377</v>
+        <v>28.5134342817201</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.03331736205708</v>
+        <v>30.77805021775478</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.61235313837756</v>
+        <v>7.129141421730893</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.59956785662512</v>
+        <v>13.17051498515059</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>23.7098380285606</v>
+        <v>18.95183999873148</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.524212721053</v>
+        <v>13.6261429754323</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.29065641009619</v>
+        <v>24.88469874070009</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.04158518874248</v>
+        <v>29.73446474920835</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>11.06848574008383</v>
+        <v>3.409842363176171</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>15.54953320221209</v>
+        <v>8.280156822154829</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.03358337595207</v>
+        <v>13.20932382611139</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.59954532686463</v>
+        <v>5.278419485621416</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.29151974831018</v>
+        <v>21.62930413916909</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.53483849159026</v>
+        <v>34.67754829546032</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.01149740814225</v>
+        <v>22.28841956402327</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.13736622404947</v>
+        <v>34.8243842038019</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.02816373882557</v>
+        <v>39.14211476439627</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>15.31116208894759</v>
+        <v>8.203618516234741</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.5098503524727</v>
+        <v>18.83977734452581</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.03039542773137</v>
+        <v>27.99919269592744</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.3398143076466</v>
+        <v>47.7699711255523</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.02264943791117</v>
+        <v>39.8426663783395</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.83711111263023</v>
+        <v>49.344401871475</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>46.3278529639626</v>
+        <v>50.62788681463622</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.10139125316309</v>
+        <v>12.79751707482566</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.15306602460639</v>
+        <v>44.8046809755734</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>44.76596162761791</v>
+        <v>48.35535540242782</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.19813365367273</v>
+        <v>23.67729304070269</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.30340188743629</v>
+        <v>34.22310220505962</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>38.40203244562608</v>
+        <v>40.00536662490899</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>12.79918704468704</v>
+        <v>5.02456791149497</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.80845680081602</v>
+        <v>35.4328832766118</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>37.87273954637806</v>
+        <v>39.94618035149875</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>16.53055988678411</v>
+        <v>10.53726079120873</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>49.85908610442182</v>
+        <v>55.87565565701888</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.42524488402976</v>
+        <v>59.44803801290156</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>54.97236181206527</v>
+        <v>63.69412292129954</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>60.04790635632663</v>
+        <v>70.58120199242171</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>62.73244861853094</v>
+        <v>74.88609674801221</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.51003208080637</v>
+        <v>28.1393808126508</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>55.85695771348946</v>
+        <v>64.55056413119499</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>57.53915277850776</v>
+        <v>66.95957478686367</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.04672529787588</v>
+        <v>48.82490304160666</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.19748585217982</v>
+        <v>32.85977628763608</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.97772419981363</v>
+        <v>38.93425255547254</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.54895798525355</v>
+        <v>47.62449645311665</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>15.9673812229704</v>
+        <v>9.059292979625109</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.53107790008193</v>
+        <v>37.32233700565337</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.44520296870832</v>
+        <v>44.1977314729662</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>20.92635538585384</v>
+        <v>16.61506439610622</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.3610089068373</v>
+        <v>31.29707794636643</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.11950268027691</v>
+        <v>40.4134658408526</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.84677716956051</v>
+        <v>3.713655000434528</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.24082589615763</v>
+        <v>31.28436174315291</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.66238696585529</v>
+        <v>38.21503013418649</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>15.48442791135724</v>
+        <v>9.613305303644768</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.37544081849192</v>
+        <v>50.45854243007135</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>54.59437198832019</v>
+        <v>63.30536040284422</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>51.55348414035299</v>
+        <v>57.92135235719611</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>55.3052493798012</v>
+        <v>62.50823441398256</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>64.11010940119431</v>
+        <v>76.73169294751692</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.25374734686819</v>
+        <v>18.40059159486671</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>51.61169283285187</v>
+        <v>57.40164688099198</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>56.48007911151696</v>
+        <v>64.71532589630949</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.40982461075664</v>
+        <v>41.72221255674156</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.06316869391265</v>
+        <v>20.14065174195482</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.41867206315266</v>
+        <v>25.13324910434261</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.72282309683615</v>
+        <v>31.59208268822017</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>14.36286183027397</v>
+        <v>6.163806861337509</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.05846345088919</v>
+        <v>24.88632556664079</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.9147883947785</v>
+        <v>37.59126692274172</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>17.68020816211305</v>
+        <v>11.19893295450006</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.58210589828535</v>
+        <v>30.55085753576791</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.49494560553583</v>
+        <v>39.37371634992513</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>11.979896646976</v>
+        <v>3.326533381167859</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.21866495659275</v>
+        <v>30.21261973731953</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.49083811556368</v>
+        <v>38.24958090289204</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>12.71580367486364</v>
+        <v>4.094114861875322</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.87837195161632</v>
+        <v>45.73218144691354</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>52.71268155032426</v>
+        <v>60.51210486225568</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.8191368602446</v>
+        <v>49.8414452310994</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>50.13650068092906</v>
+        <v>55.0977017919224</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>60.63318878715934</v>
+        <v>71.51314419888701</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>17.06079894532149</v>
+        <v>10.44434331922427</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.77281156588455</v>
+        <v>52.22588711655463</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>55.52959790252333</v>
+        <v>63.25638970154255</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.52848207474698</v>
+        <v>23.40949036736144</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.40890564873112</v>
+        <v>16.67539634762752</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.11917582555472</v>
+        <v>36.48929306841693</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.18877741821535</v>
+        <v>8.871806715221648</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.9200794717335</v>
+        <v>37.53429177513817</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.98571295724482</v>
+        <v>41.40364606365861</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.08575714604657</v>
+        <v>13.39565459456263</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.54927155658051</v>
+        <v>57.02566288049047</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>58.04549282615427</v>
+        <v>59.65774814544482</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>18.31463671171278</v>
+        <v>17.37340817551009</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>21.35744388301309</v>
+        <v>20.7674666724669</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.18142023396318</v>
+        <v>20.68570987843988</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.08042648998984</v>
+        <v>34.33170274890826</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>17.80839377187943</v>
+        <v>16.49637470310735</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.79291620933242</v>
+        <v>43.34040761181691</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>19.18226420286013</v>
+        <v>18.31841795657754</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.27751373341637</v>
+        <v>28.83044202800111</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.00245759474842</v>
+        <v>39.53951710473541</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.83426981852777</v>
+        <v>30.81701707993772</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>35.6758597025275</v>
+        <v>36.27713388811768</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>38.0021937486619</v>
+        <v>38.44390893257183</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>6.822323588621412</v>
+        <v>5.325533333791117</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.10655719586208</v>
+        <v>22.79097109399732</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.17881265409924</v>
+        <v>31.71109660055401</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.30244292778369</v>
+        <v>34.9663403748824</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.81548517333455</v>
+        <v>38.0623516807031</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.550601640461473</v>
+        <v>8.033719155340872</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>54.21399149061495</v>
+        <v>55.91614687206116</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.65031527000834</v>
+        <v>54.30549225070604</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>11.72813664351148</v>
+        <v>10.22537483556054</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>59.01648296300012</v>
+        <v>60.44896945385955</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.48622138469862</v>
+        <v>58.90479476968494</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.24560167462636</v>
+        <v>58.02180906097262</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>59.40342528364886</v>
+        <v>61.3526159883983</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.08481111495394</v>
+        <v>60.91035143810613</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>57.05713538840422</v>
+        <v>59.16365147599601</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>64.74383261527055</v>
+        <v>67.7640601693934</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>67.86665877947986</v>
+        <v>71.1078514314863</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.8107863074003</v>
+        <v>29.69960012444895</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.5042550413877</v>
+        <v>38.98573837034067</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>39.31053669644638</v>
+        <v>38.25360172587681</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.18137964070856</v>
+        <v>30.69659865623016</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>50.94659068663344</v>
+        <v>52.28845440638324</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.71272181876851</v>
+        <v>48.89556809084908</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.480306748597378</v>
+        <v>6.732922187499465</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.62979778393722</v>
+        <v>56.63641505279503</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.16022983471717</v>
+        <v>13.98538877332324</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.60288631962635</v>
+        <v>26.29689424014864</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.14402858135318</v>
+        <v>32.937447001697</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>7.735088467738827</v>
+        <v>5.717998568949142</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.47957381208877</v>
+        <v>50.17083622468419</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>50.84417110609417</v>
+        <v>53.74010384055298</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>10.97807971997084</v>
+        <v>8.60040466545113</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.3991590631546</v>
+        <v>58.56154391580436</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.92467584731641</v>
+        <v>64.77213226914799</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.79163751377403</v>
+        <v>70.23049503571194</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>68.15804103738249</v>
+        <v>70.42231071475227</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>70.33224113462023</v>
+        <v>72.42318320167333</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.13813177196719</v>
+        <v>12.84223102933736</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.58367348048816</v>
+        <v>40.30300615302581</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>52.47163453315395</v>
+        <v>54.13714059455643</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.99377914643953</v>
+        <v>23.24960505506223</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.89691676734809</v>
+        <v>35.91470276511042</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.19753038309386</v>
+        <v>37.44743372510322</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.10714212504186</v>
+        <v>31.24224714033044</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.64512506768031</v>
+        <v>46.35520072802212</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.81421360146954</v>
+        <v>52.32583348256982</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>8.713844395655542</v>
+        <v>8.249720942654431</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.00913150294436</v>
+        <v>52.31926930856457</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>8.073395562330745</v>
+        <v>6.519438875464985</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>18.67069350830051</v>
+        <v>17.71380216879819</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.36403171490638</v>
+        <v>28.74208231945563</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>8.443346007677484</v>
+        <v>6.855837839623021</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>52.812622148719</v>
+        <v>54.39703871079656</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>54.61167482472126</v>
+        <v>56.00576580595503</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.82971226075442</v>
+        <v>3.987105294826403</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>60.09339706068208</v>
+        <v>61.51368996940403</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>61.39787314110944</v>
+        <v>62.7938285163475</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>63.45714713831556</v>
+        <v>65.27679765939651</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>64.01545946541437</v>
+        <v>65.82688071662727</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>70.3274432151338</v>
+        <v>72.34595945500628</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>12.73567360092303</v>
+        <v>11.22579864295388</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.50129641278694</v>
+        <v>27.9451792502074</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>56.80300781506538</v>
+        <v>58.5965365321786</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>17.23276205787364</v>
+        <v>15.9848891456153</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.64527048096295</v>
+        <v>32.27345362359589</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>37.56127504616836</v>
+        <v>37.73748269580764</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.33746819661868</v>
+        <v>30.83487862918023</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>47.50735550324889</v>
+        <v>49.48630904091131</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>53.09999899829565</v>
+        <v>54.68229265831823</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>5.547044667202044</v>
+        <v>3.528887577535286</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>51.0039177302971</v>
+        <v>51.40952207423866</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.83028946416541</v>
+        <v>27.00170093230791</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.35486117554262</v>
+        <v>23.19645204309209</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>37.79604042229052</v>
+        <v>38.43822318959599</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>41.93615982131916</v>
+        <v>42.38985787929076</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.41211852041019</v>
+        <v>10.8396521657232</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.91927316607934</v>
+        <v>16.8664990768749</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.49842131452873</v>
+        <v>26.67930833571168</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.19394365768804</v>
+        <v>14.85517095591005</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.67172490245473</v>
+        <v>23.30030148295228</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.4684792060897</v>
+        <v>36.35943695761465</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.45380919135236</v>
+        <v>30.31821372619573</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>34.62154647183034</v>
+        <v>35.01699213872015</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.65176193827096</v>
+        <v>39.39483461039472</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>6.772880094901165</v>
+        <v>5.037264988661899</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.52330913836468</v>
+        <v>26.58036237009609</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>48.30483406032528</v>
+        <v>48.59480279190613</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.82692960909169</v>
+        <v>25.92774642106706</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.36730408582007</v>
+        <v>49.02364096553644</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>56.1092549383643</v>
+        <v>57.35106408996725</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.39388264327237</v>
+        <v>8.705383098983994</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.07403081086698</v>
+        <v>23.76152167424494</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.11329949691245</v>
+        <v>38.62111466660652</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.8965924038215</v>
+        <v>58.44106270284777</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.01705867976886</v>
+        <v>61.47156077914626</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>64.16712531906062</v>
+        <v>65.15757230355248</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>61.68573206878503</v>
+        <v>62.02467883139269</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.6596818713701</v>
+        <v>34.68944191272535</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>59.8913950275607</v>
+        <v>61.4025203843064</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>63.69170959848297</v>
+        <v>65.62530927508254</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.35670134880864</v>
+        <v>34.36244317153681</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.95474279773501</v>
+        <v>39.8270693913759</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.80573232955573</v>
+        <v>42.20573363189556</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.32151923035815</v>
+        <v>31.96757225751766</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>58.58557787137327</v>
+        <v>60.59398970872633</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.72482653376275</v>
+        <v>54.24028184292654</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>9.663587045780744</v>
+        <v>8.205769450680691</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.13072421017868</v>
+        <v>69.18519797330589</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>66.00319262340757</v>
+        <v>66.51296508968748</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>80.27734981937816</v>
+        <v>83.27265056381123</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>80.43633601774488</v>
+        <v>83.47682321525468</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>82.48722070800386</v>
+        <v>84.46703820599926</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.61031285821648</v>
+        <v>45.06650008211062</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>75.58594901964945</v>
+        <v>79.03341386595591</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>77.4511934976403</v>
+        <v>80.28030832220013</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>62.08417939949329</v>
+        <v>65.34604018298518</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>52.60701717311662</v>
+        <v>53.49875748469933</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>56.87195822552607</v>
+        <v>57.96798692784488</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>60.32146860299461</v>
+        <v>61.81076786766403</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.78833275076312</v>
+        <v>27.39717516215379</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>56.53167632310482</v>
+        <v>56.74135392309854</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>62.21411246646917</v>
+        <v>63.79835356829592</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.50505177980058</v>
+        <v>26.04417536278966</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.26780600603738</v>
+        <v>38.34967431340309</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.65028428387883</v>
+        <v>43.28950938455579</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.07392947851545</v>
+        <v>32.88569913959425</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>55.36530348940705</v>
+        <v>56.9327866617521</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>56.52491041620902</v>
+        <v>58.51747617689449</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>12.74620818170136</v>
+        <v>12.00614162156074</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>66.89839830030083</v>
+        <v>68.58681581041613</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>70.6377154105667</v>
+        <v>74.51645845200341</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>80.51819696849094</v>
+        <v>83.38699809115658</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>77.61681934903896</v>
+        <v>81.81387488262047</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>84.80646314185928</v>
+        <v>88.48492980613308</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.61509525205238</v>
+        <v>32.77135302401774</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>73.80772432177126</v>
+        <v>75.86993297906649</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>79.84434417565114</v>
+        <v>83.33093345869034</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>59.45039236996832</v>
+        <v>60.99911888156005</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.07660571648965</v>
+        <v>32.38478665396199</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.34038450925502</v>
+        <v>37.91352030802208</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.73561980903285</v>
+        <v>47.0687091330651</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.8271166095082</v>
+        <v>17.5359182536053</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>54.77617294784127</v>
+        <v>55.90284095403949</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>59.4758519146762</v>
+        <v>62.16974952875988</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.59313553496307</v>
+        <v>19.66594414500771</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.68045216969161</v>
+        <v>37.77251423438113</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.68540650489061</v>
+        <v>44.98281490028945</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>32.46095638918185</v>
+        <v>33.19472018703333</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.30312546915162</v>
+        <v>58.74623767918921</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>60.3574658981545</v>
+        <v>62.9147207708543</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>6.026525317079617</v>
+        <v>4.149897073966692</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>65.42702855770601</v>
+        <v>67.20206188393263</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>69.78211654473722</v>
+        <v>72.20029780244803</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>76.34958646912591</v>
+        <v>79.00908054863991</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>76.27121390435885</v>
+        <v>79.97885322326407</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>85.55983696321223</v>
+        <v>90.80947490991659</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.41489102470237</v>
+        <v>23.85715287485431</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>71.30706574718202</v>
+        <v>73.38715867577712</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>79.24073646441727</v>
+        <v>83.79028769467467</v>
       </c>
     </row>
   </sheetData>
